--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_7_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_7_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61148.21534405829</v>
+        <v>90660.81360012008</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>962138.30680009</v>
+        <v>1431322.953036222</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24855160.03469396</v>
+        <v>24623826.4965115</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5057354.117017367</v>
+        <v>5090977.267029678</v>
       </c>
     </row>
     <row r="11">
@@ -8061,16 +8063,16 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L3" t="n">
-        <v>73.99276488738508</v>
+        <v>96.41848977889939</v>
       </c>
       <c r="M3" t="n">
-        <v>57.75069317402355</v>
+        <v>121.083316575</v>
       </c>
       <c r="N3" t="n">
-        <v>37.99368400879879</v>
+        <v>103.0025334990966</v>
       </c>
       <c r="O3" t="n">
-        <v>67.58149565199844</v>
+        <v>102.4042030119497</v>
       </c>
       <c r="P3" t="n">
         <v>82.80031984638366</v>
@@ -8298,19 +8300,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>58.22273991262165</v>
+        <v>96.41848977889939</v>
       </c>
       <c r="M6" t="n">
-        <v>39.34781785249876</v>
+        <v>83.92045636931252</v>
       </c>
       <c r="N6" t="n">
-        <v>19.10373933697781</v>
+        <v>64.85608296530633</v>
       </c>
       <c r="O6" t="n">
-        <v>50.30088672752632</v>
+        <v>92.15534270158889</v>
       </c>
       <c r="P6" t="n">
-        <v>68.93110769910051</v>
+        <v>82.80031984638366</v>
       </c>
       <c r="Q6" t="n">
         <v>54.62009481132077</v>
@@ -8462,7 +8464,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N8" t="n">
-        <v>111.9488011414238</v>
+        <v>113.7102003471159</v>
       </c>
       <c r="O8" t="n">
         <v>99.00804712831379</v>
@@ -8535,19 +8537,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>57.07593346819698</v>
+        <v>58.22273991262165</v>
       </c>
       <c r="M9" t="n">
-        <v>38.00954882322068</v>
+        <v>39.34781785249876</v>
       </c>
       <c r="N9" t="n">
-        <v>17.73005030863851</v>
+        <v>19.10373933697781</v>
       </c>
       <c r="O9" t="n">
-        <v>49.04422963853119</v>
+        <v>50.30088672752632</v>
       </c>
       <c r="P9" t="n">
-        <v>67.92252959633595</v>
+        <v>68.93110769910052</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -8693,16 +8695,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>102.8381142892153</v>
+        <v>65.50844344750686</v>
       </c>
       <c r="M11" t="n">
-        <v>67.64282070579191</v>
+        <v>26.10636923685576</v>
       </c>
       <c r="N11" t="n">
-        <v>61.92149897629116</v>
+        <v>19.7129442975646</v>
       </c>
       <c r="O11" t="n">
-        <v>78.17053334824146</v>
+        <v>38.31419205881667</v>
       </c>
       <c r="P11" t="n">
         <v>83.66766412458549</v>
@@ -8769,10 +8771,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>68.76096162327045</v>
+        <v>48.6785506654351</v>
       </c>
       <c r="L12" t="n">
-        <v>24.50430953720269</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,10 +8783,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>39.2768703153011</v>
+        <v>15.10822991808962</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -8930,16 +8932,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>102.8381142892153</v>
+        <v>65.50844344750686</v>
       </c>
       <c r="M14" t="n">
-        <v>67.64282070579191</v>
+        <v>26.10636923685576</v>
       </c>
       <c r="N14" t="n">
-        <v>61.92149897629116</v>
+        <v>19.7129442975646</v>
       </c>
       <c r="O14" t="n">
-        <v>78.17053334824146</v>
+        <v>38.31419205881667</v>
       </c>
       <c r="P14" t="n">
         <v>83.66766412458549</v>
@@ -9006,10 +9008,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>68.76096162327045</v>
+        <v>48.6785506654351</v>
       </c>
       <c r="L15" t="n">
-        <v>24.50430953720269</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39.2768703153011</v>
+        <v>15.10822991808962</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9167,16 +9169,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L17" t="n">
-        <v>102.8381142892153</v>
+        <v>65.50844344750686</v>
       </c>
       <c r="M17" t="n">
-        <v>67.64282070579191</v>
+        <v>26.10636923685576</v>
       </c>
       <c r="N17" t="n">
-        <v>61.92149897629116</v>
+        <v>19.7129442975646</v>
       </c>
       <c r="O17" t="n">
-        <v>78.17053334824146</v>
+        <v>38.31419205881667</v>
       </c>
       <c r="P17" t="n">
         <v>83.66766412458549</v>
@@ -9243,10 +9245,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>68.76096162327045</v>
+        <v>48.6785506654351</v>
       </c>
       <c r="L18" t="n">
-        <v>24.50430953720269</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,10 +9257,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>39.2768703153011</v>
+        <v>15.10822991808962</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9404,16 +9406,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L20" t="n">
-        <v>102.8381142892153</v>
+        <v>65.50844344750686</v>
       </c>
       <c r="M20" t="n">
-        <v>67.64282070579191</v>
+        <v>26.10636923685576</v>
       </c>
       <c r="N20" t="n">
-        <v>61.92149897629116</v>
+        <v>19.7129442975646</v>
       </c>
       <c r="O20" t="n">
-        <v>78.17053334824146</v>
+        <v>38.31419205881667</v>
       </c>
       <c r="P20" t="n">
         <v>83.66766412458549</v>
@@ -9480,10 +9482,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>68.76096162327045</v>
+        <v>48.6785506654351</v>
       </c>
       <c r="L21" t="n">
-        <v>24.50430953720269</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>39.2768703153011</v>
+        <v>15.10822991808962</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9641,16 +9643,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L23" t="n">
-        <v>102.8381142892153</v>
+        <v>65.50844344750686</v>
       </c>
       <c r="M23" t="n">
-        <v>67.64282070579191</v>
+        <v>26.10636923685576</v>
       </c>
       <c r="N23" t="n">
-        <v>61.92149897629116</v>
+        <v>19.7129442975646</v>
       </c>
       <c r="O23" t="n">
-        <v>78.17053334824146</v>
+        <v>38.31419205881667</v>
       </c>
       <c r="P23" t="n">
         <v>83.66766412458549</v>
@@ -9717,10 +9719,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>68.76096162327045</v>
+        <v>48.6785506654351</v>
       </c>
       <c r="L24" t="n">
-        <v>24.50430953720272</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>39.27687031530112</v>
+        <v>15.10822991808962</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9878,16 +9880,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L26" t="n">
-        <v>102.8381142892153</v>
+        <v>65.50844344750686</v>
       </c>
       <c r="M26" t="n">
-        <v>67.64282070579191</v>
+        <v>26.10636923685576</v>
       </c>
       <c r="N26" t="n">
-        <v>61.92149897629116</v>
+        <v>19.7129442975646</v>
       </c>
       <c r="O26" t="n">
-        <v>78.17053334824146</v>
+        <v>38.31419205881667</v>
       </c>
       <c r="P26" t="n">
         <v>83.66766412458549</v>
@@ -9954,10 +9956,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>68.76096162327045</v>
+        <v>48.6785506654351</v>
       </c>
       <c r="L27" t="n">
-        <v>24.50430953720269</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>39.2768703153011</v>
+        <v>15.10822991808962</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10115,16 +10117,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L29" t="n">
-        <v>102.8381142892153</v>
+        <v>65.50844344750686</v>
       </c>
       <c r="M29" t="n">
-        <v>67.64282070579191</v>
+        <v>26.10636923685576</v>
       </c>
       <c r="N29" t="n">
-        <v>61.92149897629116</v>
+        <v>19.7129442975646</v>
       </c>
       <c r="O29" t="n">
-        <v>78.17053334824146</v>
+        <v>38.31419205881667</v>
       </c>
       <c r="P29" t="n">
         <v>83.66766412458549</v>
@@ -10191,10 +10193,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>68.76096162327045</v>
+        <v>48.6785506654351</v>
       </c>
       <c r="L30" t="n">
-        <v>24.50430953720269</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>39.2768703153011</v>
+        <v>15.10822991808962</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10352,16 +10354,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L32" t="n">
-        <v>102.8381142892153</v>
+        <v>65.50844344750686</v>
       </c>
       <c r="M32" t="n">
-        <v>67.64282070579191</v>
+        <v>26.10636923685576</v>
       </c>
       <c r="N32" t="n">
-        <v>61.92149897629116</v>
+        <v>19.7129442975646</v>
       </c>
       <c r="O32" t="n">
-        <v>78.17053334824146</v>
+        <v>38.31419205881667</v>
       </c>
       <c r="P32" t="n">
         <v>83.66766412458549</v>
@@ -10428,10 +10430,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>68.76096162327045</v>
+        <v>48.6785506654351</v>
       </c>
       <c r="L33" t="n">
-        <v>24.50430953720269</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>39.2768703153011</v>
+        <v>15.10822991808962</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10589,16 +10591,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L35" t="n">
-        <v>102.8381142892153</v>
+        <v>65.50844344750686</v>
       </c>
       <c r="M35" t="n">
-        <v>67.64282070579191</v>
+        <v>26.10636923685576</v>
       </c>
       <c r="N35" t="n">
-        <v>61.92149897629116</v>
+        <v>19.7129442975646</v>
       </c>
       <c r="O35" t="n">
-        <v>78.17053334824146</v>
+        <v>38.31419205881667</v>
       </c>
       <c r="P35" t="n">
         <v>83.66766412458549</v>
@@ -10665,10 +10667,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>68.76096162327045</v>
+        <v>48.6785506654351</v>
       </c>
       <c r="L36" t="n">
-        <v>24.50430953720269</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,10 +10679,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>39.2768703153011</v>
+        <v>15.10822991808962</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10826,16 +10828,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L38" t="n">
-        <v>102.8381142892153</v>
+        <v>65.50844344750686</v>
       </c>
       <c r="M38" t="n">
-        <v>67.64282070579191</v>
+        <v>26.10636923685576</v>
       </c>
       <c r="N38" t="n">
-        <v>61.92149897629116</v>
+        <v>19.7129442975646</v>
       </c>
       <c r="O38" t="n">
-        <v>78.17053334824146</v>
+        <v>38.31419205881667</v>
       </c>
       <c r="P38" t="n">
         <v>83.66766412458549</v>
@@ -10902,10 +10904,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>68.76096162327045</v>
+        <v>48.6785506654351</v>
       </c>
       <c r="L39" t="n">
-        <v>24.50430953720269</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>39.2768703153011</v>
+        <v>15.10822991808962</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11063,16 +11065,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>102.8381142892153</v>
+        <v>65.50844344750686</v>
       </c>
       <c r="M41" t="n">
-        <v>67.64282070579191</v>
+        <v>26.10636923685576</v>
       </c>
       <c r="N41" t="n">
-        <v>61.92149897629116</v>
+        <v>19.7129442975646</v>
       </c>
       <c r="O41" t="n">
-        <v>78.17053334824146</v>
+        <v>38.31419205881667</v>
       </c>
       <c r="P41" t="n">
         <v>83.66766412458549</v>
@@ -11139,10 +11141,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>68.76096162327045</v>
+        <v>48.6785506654351</v>
       </c>
       <c r="L42" t="n">
-        <v>24.50430953720269</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>39.2768703153011</v>
+        <v>15.10822991808962</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11297,22 +11299,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>84.27780726850284</v>
+        <v>82.69308435253603</v>
       </c>
       <c r="L44" t="n">
-        <v>102.8381142892153</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M44" t="n">
-        <v>67.64282070579191</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N44" t="n">
-        <v>61.92149897629116</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>78.17053334824146</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P44" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q44" t="n">
         <v>55.20189757157522</v>
@@ -11376,10 +11378,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>68.76096162327045</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L45" t="n">
-        <v>24.50430953720269</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>13.35262508576585</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>39.2768703153011</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -22559,49 +22561,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G2" t="n">
-        <v>422.4828842901392</v>
+        <v>422.9500466959368</v>
       </c>
       <c r="H2" t="n">
-        <v>352.7559106155991</v>
+        <v>357.5402376039739</v>
       </c>
       <c r="I2" t="n">
-        <v>264.9395304164745</v>
+        <v>282.9498090659874</v>
       </c>
       <c r="J2" t="n">
-        <v>126.8306476072186</v>
+        <v>166.4804728462846</v>
       </c>
       <c r="K2" t="n">
-        <v>96.74614482954047</v>
+        <v>156.1709547060198</v>
       </c>
       <c r="L2" t="n">
-        <v>61.47033764627412</v>
+        <v>135.1920689991825</v>
       </c>
       <c r="M2" t="n">
-        <v>25.56910949601522</v>
+        <v>107.598740283027</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2214452136497</v>
+        <v>107.578401186134</v>
       </c>
       <c r="O2" t="n">
-        <v>50.93671224565088</v>
+        <v>129.6483220454851</v>
       </c>
       <c r="P2" t="n">
-        <v>95.27410653902663</v>
+        <v>162.452644445732</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.3402047289868</v>
+        <v>200.7884889780648</v>
       </c>
       <c r="R2" t="n">
-        <v>228.6488042124114</v>
+        <v>257.9941946855963</v>
       </c>
       <c r="S2" t="n">
-        <v>242.1563016843589</v>
+        <v>252.8017650064723</v>
       </c>
       <c r="T2" t="n">
-        <v>220.6670294055369</v>
+        <v>222.712032836916</v>
       </c>
       <c r="U2" t="n">
-        <v>248.8130185540101</v>
+        <v>248.850391546474</v>
       </c>
       <c r="V2" t="n">
         <v>313.3044420010231</v>
@@ -22638,22 +22640,22 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>161.176718209428</v>
+        <v>161.4266721324923</v>
       </c>
       <c r="H3" t="n">
-        <v>139.3125383858557</v>
+        <v>141.7265670638711</v>
       </c>
       <c r="I3" t="n">
-        <v>122.5198839159847</v>
+        <v>131.1257536355219</v>
       </c>
       <c r="J3" t="n">
-        <v>96.74021199285306</v>
+        <v>120.3553762767449</v>
       </c>
       <c r="K3" t="n">
-        <v>37.15999050502471</v>
+        <v>77.5220676342224</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>31.84606879838252</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -22662,25 +22664,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>24.64768941402779</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>47.73023641391228</v>
       </c>
       <c r="Q3" t="n">
-        <v>74.4739936679631</v>
+        <v>106.3803926892894</v>
       </c>
       <c r="R3" t="n">
-        <v>164.4350525164654</v>
+        <v>179.9541215291748</v>
       </c>
       <c r="S3" t="n">
-        <v>211.0269662249707</v>
+        <v>215.6697507169758</v>
       </c>
       <c r="T3" t="n">
-        <v>230.7472684222575</v>
+        <v>231.7547581384684</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6601960410561</v>
+        <v>249.6766403780998</v>
       </c>
       <c r="V3" t="n">
         <v>249.2999251801724</v>
@@ -22717,49 +22719,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>169.3699888987368</v>
+        <v>169.5795418713374</v>
       </c>
       <c r="H4" t="n">
-        <v>168.7832981868615</v>
+        <v>170.6464146159834</v>
       </c>
       <c r="I4" t="n">
-        <v>171.8136191935084</v>
+        <v>178.115448587716</v>
       </c>
       <c r="J4" t="n">
-        <v>141.8677448475604</v>
+        <v>156.6831400104238</v>
       </c>
       <c r="K4" t="n">
-        <v>103.2194467320342</v>
+        <v>127.5656920941783</v>
       </c>
       <c r="L4" t="n">
-        <v>81.17768315713714</v>
+        <v>112.3324951017775</v>
       </c>
       <c r="M4" t="n">
-        <v>78.90436642388586</v>
+        <v>111.7527473925439</v>
       </c>
       <c r="N4" t="n">
-        <v>66.0568078880501</v>
+        <v>98.12412777701496</v>
       </c>
       <c r="O4" t="n">
-        <v>89.89367516071431</v>
+        <v>119.5130353242993</v>
       </c>
       <c r="P4" t="n">
-        <v>106.2502734281359</v>
+        <v>131.5947529506683</v>
       </c>
       <c r="Q4" t="n">
-        <v>162.9939231415902</v>
+        <v>180.5411270563561</v>
       </c>
       <c r="R4" t="n">
-        <v>227.150859979262</v>
+        <v>236.5731236381951</v>
       </c>
       <c r="S4" t="n">
-        <v>246.0552733207275</v>
+        <v>249.7072101250491</v>
       </c>
       <c r="T4" t="n">
-        <v>218.6660521851541</v>
+        <v>219.5614148862658</v>
       </c>
       <c r="U4" t="n">
-        <v>291.226976759563</v>
+        <v>291.2384069217048</v>
       </c>
       <c r="V4" t="n">
         <v>237.3615500762718</v>
@@ -22796,49 +22798,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G5" t="n">
-        <v>422.3471385867855</v>
+        <v>422.6759211308218</v>
       </c>
       <c r="H5" t="n">
-        <v>351.3657049311285</v>
+        <v>354.7328491602397</v>
       </c>
       <c r="I5" t="n">
-        <v>259.706194187933</v>
+        <v>272.3815832168904</v>
       </c>
       <c r="J5" t="n">
-        <v>115.309400717207</v>
+        <v>143.2144081641032</v>
       </c>
       <c r="K5" t="n">
-        <v>79.47878231656895</v>
+        <v>121.3011548525195</v>
       </c>
       <c r="L5" t="n">
-        <v>40.04864756429342</v>
+        <v>91.93299888229322</v>
       </c>
       <c r="M5" t="n">
-        <v>1.733351762019083</v>
+        <v>59.46468964752347</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>58.66549128874738</v>
       </c>
       <c r="O5" t="n">
-        <v>28.06508836972404</v>
+        <v>83.46124823621099</v>
       </c>
       <c r="P5" t="n">
-        <v>75.75370471464296</v>
+        <v>123.0330455252351</v>
       </c>
       <c r="Q5" t="n">
-        <v>135.6811959059556</v>
+        <v>171.1860118582497</v>
       </c>
       <c r="R5" t="n">
-        <v>220.1217681741228</v>
+        <v>240.7746546559397</v>
       </c>
       <c r="S5" t="n">
-        <v>239.0629964691877</v>
+        <v>246.5551286914136</v>
       </c>
       <c r="T5" t="n">
-        <v>220.0728025891063</v>
+        <v>221.512048175625</v>
       </c>
       <c r="U5" t="n">
-        <v>248.8021588977418</v>
+        <v>248.8284615012647</v>
       </c>
       <c r="V5" t="n">
         <v>313.3044420010231</v>
@@ -22875,19 +22877,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>161.1040878550346</v>
+        <v>161.2800020247046</v>
       </c>
       <c r="H6" t="n">
-        <v>138.6110820684246</v>
+        <v>140.310042601816</v>
       </c>
       <c r="I6" t="n">
-        <v>120.0192335563868</v>
+        <v>126.0759275559885</v>
       </c>
       <c r="J6" t="n">
-        <v>89.87823627360493</v>
+        <v>106.4982675405373</v>
       </c>
       <c r="K6" t="n">
-        <v>25.43178104141768</v>
+        <v>53.83806167623734</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22902,22 +22904,22 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>19.7226787259216</v>
       </c>
       <c r="Q6" t="n">
-        <v>65.20279264048071</v>
+        <v>87.65808208817585</v>
       </c>
       <c r="R6" t="n">
-        <v>159.9255994603549</v>
+        <v>170.8477090474073</v>
       </c>
       <c r="S6" t="n">
-        <v>209.6778892475315</v>
+        <v>212.9454177938134</v>
       </c>
       <c r="T6" t="n">
-        <v>230.4545171253824</v>
+        <v>231.1635746776924</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6554177282671</v>
+        <v>249.6669910289033</v>
       </c>
       <c r="V6" t="n">
         <v>249.2999251801724</v>
@@ -22954,49 +22956,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>169.3090980494251</v>
+        <v>169.4565785799364</v>
       </c>
       <c r="H7" t="n">
-        <v>168.2419231811629</v>
+        <v>169.5531591706183</v>
       </c>
       <c r="I7" t="n">
-        <v>169.9824652887527</v>
+        <v>174.4176070608574</v>
       </c>
       <c r="J7" t="n">
-        <v>137.5627618012226</v>
+        <v>147.9896353083744</v>
       </c>
       <c r="K7" t="n">
-        <v>96.14503714836491</v>
+        <v>113.2795933295915</v>
       </c>
       <c r="L7" t="n">
-        <v>72.12487452401287</v>
+        <v>94.05120721476251</v>
       </c>
       <c r="M7" t="n">
-        <v>69.35944901768788</v>
+        <v>92.47769254138827</v>
       </c>
       <c r="N7" t="n">
-        <v>56.73884728383211</v>
+        <v>79.30739064835389</v>
       </c>
       <c r="O7" t="n">
-        <v>81.28703038709219</v>
+        <v>102.1327330088224</v>
       </c>
       <c r="P7" t="n">
-        <v>98.88580198047258</v>
+        <v>116.7229017797714</v>
       </c>
       <c r="Q7" t="n">
-        <v>157.895144841498</v>
+        <v>170.2446281736794</v>
       </c>
       <c r="R7" t="n">
-        <v>224.4129859729374</v>
+        <v>231.0442469175655</v>
       </c>
       <c r="S7" t="n">
-        <v>244.9941118831771</v>
+        <v>247.5642953103611</v>
       </c>
       <c r="T7" t="n">
-        <v>218.4058821926404</v>
+        <v>219.0360262775525</v>
       </c>
       <c r="U7" t="n">
-        <v>291.2236554405096</v>
+        <v>291.2316998330829</v>
       </c>
       <c r="V7" t="n">
         <v>237.3615500762718</v>
@@ -23033,49 +23035,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G8" t="n">
-        <v>422.3372670711946</v>
+        <v>422.3471385867855</v>
       </c>
       <c r="H8" t="n">
-        <v>351.2646082720821</v>
+        <v>351.3657049311285</v>
       </c>
       <c r="I8" t="n">
-        <v>259.3256225831108</v>
+        <v>259.706194187933</v>
       </c>
       <c r="J8" t="n">
-        <v>114.4715681708149</v>
+        <v>115.309400717207</v>
       </c>
       <c r="K8" t="n">
-        <v>78.22308851520961</v>
+        <v>79.47878231656895</v>
       </c>
       <c r="L8" t="n">
-        <v>38.49084836766588</v>
+        <v>40.04864756429342</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.733351762019083</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>26.40184904719004</v>
+        <v>28.06508836972404</v>
       </c>
       <c r="P8" t="n">
-        <v>74.33416843326191</v>
+        <v>75.75370471464296</v>
       </c>
       <c r="Q8" t="n">
-        <v>134.6151832766775</v>
+        <v>135.6811959059556</v>
       </c>
       <c r="R8" t="n">
-        <v>219.5016765828794</v>
+        <v>220.1217681741228</v>
       </c>
       <c r="S8" t="n">
-        <v>238.8380493076577</v>
+        <v>239.0629964691877</v>
       </c>
       <c r="T8" t="n">
-        <v>220.0295900296067</v>
+        <v>220.0728025891063</v>
       </c>
       <c r="U8" t="n">
-        <v>248.8013691764946</v>
+        <v>248.8021588977418</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -23112,19 +23114,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>161.0988061285559</v>
+        <v>161.1040878550346</v>
       </c>
       <c r="H9" t="n">
-        <v>138.5600717100643</v>
+        <v>138.6110820684246</v>
       </c>
       <c r="I9" t="n">
-        <v>119.8373846403433</v>
+        <v>120.0192335563868</v>
       </c>
       <c r="J9" t="n">
-        <v>89.37922894870135</v>
+        <v>89.87823627360493</v>
       </c>
       <c r="K9" t="n">
-        <v>24.57889804244016</v>
+        <v>25.43178104141768</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23142,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>64.52858488856606</v>
+        <v>65.20279264048071</v>
       </c>
       <c r="R9" t="n">
-        <v>159.5976691093343</v>
+        <v>159.9255994603549</v>
       </c>
       <c r="S9" t="n">
-        <v>209.5797834947361</v>
+        <v>209.6778892475315</v>
       </c>
       <c r="T9" t="n">
-        <v>230.4332280611984</v>
+        <v>230.4545171253824</v>
       </c>
       <c r="U9" t="n">
-        <v>249.6550702462619</v>
+        <v>249.6554177282671</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -23191,49 +23193,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.30467002737</v>
+        <v>169.3090980494251</v>
       </c>
       <c r="H10" t="n">
-        <v>168.2025540396188</v>
+        <v>168.2419231811629</v>
       </c>
       <c r="I10" t="n">
-        <v>169.8493025891331</v>
+        <v>169.9824652887527</v>
       </c>
       <c r="J10" t="n">
-        <v>137.2497006419296</v>
+        <v>137.5627618012226</v>
       </c>
       <c r="K10" t="n">
-        <v>95.63058149505842</v>
+        <v>96.14503714836491</v>
       </c>
       <c r="L10" t="n">
-        <v>71.46654840866277</v>
+        <v>72.12487452401287</v>
       </c>
       <c r="M10" t="n">
-        <v>68.66533643318368</v>
+        <v>69.35944901768788</v>
       </c>
       <c r="N10" t="n">
-        <v>56.06123914516952</v>
+        <v>56.73884728383211</v>
       </c>
       <c r="O10" t="n">
-        <v>80.66114959698193</v>
+        <v>81.2870303870922</v>
       </c>
       <c r="P10" t="n">
-        <v>98.35025284028562</v>
+        <v>98.88580198047258</v>
       </c>
       <c r="Q10" t="n">
-        <v>157.5243583765053</v>
+        <v>157.895144841498</v>
       </c>
       <c r="R10" t="n">
-        <v>224.2138859994434</v>
+        <v>224.4129859729374</v>
       </c>
       <c r="S10" t="n">
-        <v>244.9169435351811</v>
+        <v>244.9941118831771</v>
       </c>
       <c r="T10" t="n">
-        <v>218.3869624620415</v>
+        <v>218.4058821926404</v>
       </c>
       <c r="U10" t="n">
-        <v>291.2234139120339</v>
+        <v>291.2236554405096</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -23270,19 +23272,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>422.0568960504156</v>
+        <v>421.8203441068026</v>
       </c>
       <c r="H11" t="n">
-        <v>348.3932585555301</v>
+        <v>345.9706709630035</v>
       </c>
       <c r="I11" t="n">
-        <v>248.5166188045319</v>
+        <v>239.3969499983917</v>
       </c>
       <c r="J11" t="n">
-        <v>90.67542824598098</v>
+        <v>70.59837772175715</v>
       </c>
       <c r="K11" t="n">
-        <v>42.5588432808045</v>
+        <v>12.46854898344239</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -23297,22 +23299,22 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>34.01646518147885</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>104.3382672065391</v>
+        <v>78.79331850570077</v>
       </c>
       <c r="R11" t="n">
-        <v>201.8898204488762</v>
+        <v>187.0305144208961</v>
       </c>
       <c r="S11" t="n">
-        <v>232.4490946716583</v>
+        <v>227.0586672565771</v>
       </c>
       <c r="T11" t="n">
-        <v>218.802265886147</v>
+        <v>217.7667597529811</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7600153393432</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23349,19 +23351,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>160.948794407391</v>
+        <v>160.8222279594475</v>
       </c>
       <c r="H12" t="n">
-        <v>137.1112742977616</v>
+        <v>135.8889088663072</v>
       </c>
       <c r="I12" t="n">
-        <v>114.6725073984828</v>
+        <v>110.314846800428</v>
       </c>
       <c r="J12" t="n">
-        <v>75.20641102934879</v>
+        <v>63.24865727868655</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3552948050415807</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23379,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>45.37972027109998</v>
+        <v>29.22362421431183</v>
       </c>
       <c r="R12" t="n">
-        <v>150.2837834742034</v>
+        <v>142.4255613817112</v>
       </c>
       <c r="S12" t="n">
-        <v>206.7933815687133</v>
+        <v>204.4424653097627</v>
       </c>
       <c r="T12" t="n">
-        <v>229.8285755535207</v>
+        <v>229.3184239497484</v>
       </c>
       <c r="U12" t="n">
-        <v>249.64520105408</v>
+        <v>249.6368743140837</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23428,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0727961812524</v>
       </c>
       <c r="H13" t="n">
-        <v>167.0843907444132</v>
+        <v>166.1409847532278</v>
       </c>
       <c r="I13" t="n">
-        <v>166.0672124249817</v>
+        <v>162.8762236531602</v>
       </c>
       <c r="J13" t="n">
-        <v>128.3581301441649</v>
+        <v>120.8562197214153</v>
       </c>
       <c r="K13" t="n">
-        <v>81.01899978470317</v>
+        <v>68.69105646430455</v>
       </c>
       <c r="L13" t="n">
-        <v>52.76875441092022</v>
+        <v>36.99323132314251</v>
       </c>
       <c r="M13" t="n">
-        <v>48.95113428673176</v>
+        <v>32.3180570822221</v>
       </c>
       <c r="N13" t="n">
-        <v>36.81579666235181</v>
+        <v>20.57821685700986</v>
       </c>
       <c r="O13" t="n">
-        <v>62.88486849896913</v>
+        <v>47.88683542028699</v>
       </c>
       <c r="P13" t="n">
-        <v>83.13957341348075</v>
+        <v>70.30616512438972</v>
       </c>
       <c r="Q13" t="n">
-        <v>146.9932723722735</v>
+        <v>138.1080856802398</v>
       </c>
       <c r="R13" t="n">
-        <v>218.5590438132605</v>
+        <v>213.7879947003738</v>
       </c>
       <c r="S13" t="n">
-        <v>242.7252062786279</v>
+        <v>240.8760147805681</v>
       </c>
       <c r="T13" t="n">
-        <v>217.8496038232412</v>
+        <v>217.3962287559027</v>
       </c>
       <c r="U13" t="n">
-        <v>291.2165540145173</v>
+        <v>291.2107662477002</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23507,19 +23509,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>422.0568960504156</v>
+        <v>421.8203441068026</v>
       </c>
       <c r="H14" t="n">
-        <v>348.3932585555301</v>
+        <v>345.9706709630035</v>
       </c>
       <c r="I14" t="n">
-        <v>248.5166188045319</v>
+        <v>239.3969499983917</v>
       </c>
       <c r="J14" t="n">
-        <v>90.67542824598098</v>
+        <v>70.59837772175715</v>
       </c>
       <c r="K14" t="n">
-        <v>42.5588432808045</v>
+        <v>12.46854898344239</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -23534,22 +23536,22 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>34.01646518147885</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>104.3382672065391</v>
+        <v>78.79331850570077</v>
       </c>
       <c r="R14" t="n">
-        <v>201.8898204488762</v>
+        <v>187.0305144208961</v>
       </c>
       <c r="S14" t="n">
-        <v>232.4490946716583</v>
+        <v>227.0586672565771</v>
       </c>
       <c r="T14" t="n">
-        <v>218.802265886147</v>
+        <v>217.7667597529811</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7600153393432</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23586,19 +23588,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>160.948794407391</v>
+        <v>160.8222279594475</v>
       </c>
       <c r="H15" t="n">
-        <v>137.1112742977616</v>
+        <v>135.8889088663072</v>
       </c>
       <c r="I15" t="n">
-        <v>114.6725073984828</v>
+        <v>110.314846800428</v>
       </c>
       <c r="J15" t="n">
-        <v>75.20641102934879</v>
+        <v>63.24865727868655</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3552948050415807</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23616,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>45.37972027109998</v>
+        <v>29.22362421431183</v>
       </c>
       <c r="R15" t="n">
-        <v>150.2837834742034</v>
+        <v>142.4255613817112</v>
       </c>
       <c r="S15" t="n">
-        <v>206.7933815687133</v>
+        <v>204.4424653097627</v>
       </c>
       <c r="T15" t="n">
-        <v>229.8285755535207</v>
+        <v>229.3184239497484</v>
       </c>
       <c r="U15" t="n">
-        <v>249.64520105408</v>
+        <v>249.6368743140837</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23665,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0727961812524</v>
       </c>
       <c r="H16" t="n">
-        <v>167.0843907444132</v>
+        <v>166.1409847532278</v>
       </c>
       <c r="I16" t="n">
-        <v>166.0672124249817</v>
+        <v>162.8762236531602</v>
       </c>
       <c r="J16" t="n">
-        <v>128.3581301441649</v>
+        <v>120.8562197214153</v>
       </c>
       <c r="K16" t="n">
-        <v>81.01899978470317</v>
+        <v>68.69105646430455</v>
       </c>
       <c r="L16" t="n">
-        <v>52.76875441092022</v>
+        <v>36.99323132314251</v>
       </c>
       <c r="M16" t="n">
-        <v>48.95113428673176</v>
+        <v>32.3180570822221</v>
       </c>
       <c r="N16" t="n">
-        <v>36.81579666235181</v>
+        <v>20.57821685700986</v>
       </c>
       <c r="O16" t="n">
-        <v>62.88486849896913</v>
+        <v>47.88683542028699</v>
       </c>
       <c r="P16" t="n">
-        <v>83.13957341348075</v>
+        <v>70.30616512438972</v>
       </c>
       <c r="Q16" t="n">
-        <v>146.9932723722735</v>
+        <v>138.1080856802398</v>
       </c>
       <c r="R16" t="n">
-        <v>218.5590438132605</v>
+        <v>213.7879947003738</v>
       </c>
       <c r="S16" t="n">
-        <v>242.7252062786279</v>
+        <v>240.8760147805681</v>
       </c>
       <c r="T16" t="n">
-        <v>217.8496038232412</v>
+        <v>217.3962287559027</v>
       </c>
       <c r="U16" t="n">
-        <v>291.2165540145173</v>
+        <v>291.2107662477002</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23744,19 +23746,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>422.0568960504156</v>
+        <v>421.8203441068026</v>
       </c>
       <c r="H17" t="n">
-        <v>348.3932585555301</v>
+        <v>345.9706709630035</v>
       </c>
       <c r="I17" t="n">
-        <v>248.5166188045319</v>
+        <v>239.3969499983917</v>
       </c>
       <c r="J17" t="n">
-        <v>90.67542824598098</v>
+        <v>70.59837772175715</v>
       </c>
       <c r="K17" t="n">
-        <v>42.5588432808045</v>
+        <v>12.46854898344239</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -23771,22 +23773,22 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>34.01646518147885</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>104.3382672065391</v>
+        <v>78.79331850570077</v>
       </c>
       <c r="R17" t="n">
-        <v>201.8898204488762</v>
+        <v>187.0305144208961</v>
       </c>
       <c r="S17" t="n">
-        <v>232.4490946716583</v>
+        <v>227.0586672565771</v>
       </c>
       <c r="T17" t="n">
-        <v>218.802265886147</v>
+        <v>217.7667597529811</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7600153393432</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23823,19 +23825,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>160.948794407391</v>
+        <v>160.8222279594475</v>
       </c>
       <c r="H18" t="n">
-        <v>137.1112742977616</v>
+        <v>135.8889088663072</v>
       </c>
       <c r="I18" t="n">
-        <v>114.6725073984828</v>
+        <v>110.314846800428</v>
       </c>
       <c r="J18" t="n">
-        <v>75.20641102934879</v>
+        <v>63.24865727868655</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3552948050415807</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23853,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>45.37972027109998</v>
+        <v>29.22362421431183</v>
       </c>
       <c r="R18" t="n">
-        <v>150.2837834742034</v>
+        <v>142.4255613817112</v>
       </c>
       <c r="S18" t="n">
-        <v>206.7933815687133</v>
+        <v>204.4424653097627</v>
       </c>
       <c r="T18" t="n">
-        <v>229.8285755535207</v>
+        <v>229.3184239497484</v>
       </c>
       <c r="U18" t="n">
-        <v>249.64520105408</v>
+        <v>249.6368743140837</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23902,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0727961812524</v>
       </c>
       <c r="H19" t="n">
-        <v>167.0843907444132</v>
+        <v>166.1409847532278</v>
       </c>
       <c r="I19" t="n">
-        <v>166.0672124249817</v>
+        <v>162.8762236531602</v>
       </c>
       <c r="J19" t="n">
-        <v>128.3581301441649</v>
+        <v>120.8562197214153</v>
       </c>
       <c r="K19" t="n">
-        <v>81.01899978470317</v>
+        <v>68.69105646430455</v>
       </c>
       <c r="L19" t="n">
-        <v>52.76875441092022</v>
+        <v>36.99323132314251</v>
       </c>
       <c r="M19" t="n">
-        <v>48.95113428673176</v>
+        <v>32.3180570822221</v>
       </c>
       <c r="N19" t="n">
-        <v>36.81579666235181</v>
+        <v>20.57821685700986</v>
       </c>
       <c r="O19" t="n">
-        <v>62.88486849896913</v>
+        <v>47.88683542028699</v>
       </c>
       <c r="P19" t="n">
-        <v>83.13957341348075</v>
+        <v>70.30616512438972</v>
       </c>
       <c r="Q19" t="n">
-        <v>146.9932723722735</v>
+        <v>138.1080856802398</v>
       </c>
       <c r="R19" t="n">
-        <v>218.5590438132605</v>
+        <v>213.7879947003738</v>
       </c>
       <c r="S19" t="n">
-        <v>242.7252062786279</v>
+        <v>240.8760147805681</v>
       </c>
       <c r="T19" t="n">
-        <v>217.8496038232412</v>
+        <v>217.3962287559027</v>
       </c>
       <c r="U19" t="n">
-        <v>291.2165540145173</v>
+        <v>291.2107662477002</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23981,19 +23983,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>422.0568960504156</v>
+        <v>421.8203441068026</v>
       </c>
       <c r="H20" t="n">
-        <v>348.3932585555301</v>
+        <v>345.9706709630035</v>
       </c>
       <c r="I20" t="n">
-        <v>248.5166188045319</v>
+        <v>239.3969499983917</v>
       </c>
       <c r="J20" t="n">
-        <v>90.67542824598098</v>
+        <v>70.59837772175715</v>
       </c>
       <c r="K20" t="n">
-        <v>42.5588432808045</v>
+        <v>12.46854898344239</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -24008,22 +24010,22 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>34.01646518147885</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>104.3382672065391</v>
+        <v>78.79331850570077</v>
       </c>
       <c r="R20" t="n">
-        <v>201.8898204488762</v>
+        <v>187.0305144208961</v>
       </c>
       <c r="S20" t="n">
-        <v>232.4490946716583</v>
+        <v>227.0586672565771</v>
       </c>
       <c r="T20" t="n">
-        <v>218.802265886147</v>
+        <v>217.7667597529811</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7600153393432</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24060,19 +24062,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>160.948794407391</v>
+        <v>160.8222279594475</v>
       </c>
       <c r="H21" t="n">
-        <v>137.1112742977616</v>
+        <v>135.8889088663072</v>
       </c>
       <c r="I21" t="n">
-        <v>114.6725073984828</v>
+        <v>110.314846800428</v>
       </c>
       <c r="J21" t="n">
-        <v>75.20641102934879</v>
+        <v>63.24865727868655</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3552948050415807</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24090,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>45.37972027109998</v>
+        <v>29.22362421431183</v>
       </c>
       <c r="R21" t="n">
-        <v>150.2837834742034</v>
+        <v>142.4255613817112</v>
       </c>
       <c r="S21" t="n">
-        <v>206.7933815687133</v>
+        <v>204.4424653097627</v>
       </c>
       <c r="T21" t="n">
-        <v>229.8285755535207</v>
+        <v>229.3184239497484</v>
       </c>
       <c r="U21" t="n">
-        <v>249.64520105408</v>
+        <v>249.6368743140837</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24139,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0727961812524</v>
       </c>
       <c r="H22" t="n">
-        <v>167.0843907444132</v>
+        <v>166.1409847532278</v>
       </c>
       <c r="I22" t="n">
-        <v>166.0672124249817</v>
+        <v>162.8762236531602</v>
       </c>
       <c r="J22" t="n">
-        <v>128.3581301441649</v>
+        <v>120.8562197214153</v>
       </c>
       <c r="K22" t="n">
-        <v>81.01899978470317</v>
+        <v>68.69105646430455</v>
       </c>
       <c r="L22" t="n">
-        <v>52.76875441092022</v>
+        <v>36.99323132314251</v>
       </c>
       <c r="M22" t="n">
-        <v>48.95113428673176</v>
+        <v>32.3180570822221</v>
       </c>
       <c r="N22" t="n">
-        <v>36.81579666235181</v>
+        <v>20.57821685700986</v>
       </c>
       <c r="O22" t="n">
-        <v>62.88486849896913</v>
+        <v>47.88683542028699</v>
       </c>
       <c r="P22" t="n">
-        <v>83.13957341348075</v>
+        <v>70.30616512438972</v>
       </c>
       <c r="Q22" t="n">
-        <v>146.9932723722735</v>
+        <v>138.1080856802398</v>
       </c>
       <c r="R22" t="n">
-        <v>218.5590438132605</v>
+        <v>213.7879947003738</v>
       </c>
       <c r="S22" t="n">
-        <v>242.7252062786279</v>
+        <v>240.8760147805681</v>
       </c>
       <c r="T22" t="n">
-        <v>217.8496038232412</v>
+        <v>217.3962287559027</v>
       </c>
       <c r="U22" t="n">
-        <v>291.2165540145173</v>
+        <v>291.2107662477002</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24218,19 +24220,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>422.0568960504157</v>
+        <v>421.8203441068026</v>
       </c>
       <c r="H23" t="n">
-        <v>348.3932585555301</v>
+        <v>345.9706709630035</v>
       </c>
       <c r="I23" t="n">
-        <v>248.5166188045319</v>
+        <v>239.3969499983917</v>
       </c>
       <c r="J23" t="n">
-        <v>90.67542824598098</v>
+        <v>70.59837772175715</v>
       </c>
       <c r="K23" t="n">
-        <v>42.5588432808045</v>
+        <v>12.46854898344239</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -24245,22 +24247,22 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>34.01646518147888</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>104.3382672065391</v>
+        <v>78.79331850570077</v>
       </c>
       <c r="R23" t="n">
-        <v>201.8898204488763</v>
+        <v>187.0305144208961</v>
       </c>
       <c r="S23" t="n">
-        <v>232.4490946716583</v>
+        <v>227.0586672565771</v>
       </c>
       <c r="T23" t="n">
-        <v>218.802265886147</v>
+        <v>217.7667597529811</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7600153393432</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24297,19 +24299,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>160.948794407391</v>
+        <v>160.8222279594475</v>
       </c>
       <c r="H24" t="n">
-        <v>137.1112742977616</v>
+        <v>135.8889088663072</v>
       </c>
       <c r="I24" t="n">
-        <v>114.6725073984828</v>
+        <v>110.314846800428</v>
       </c>
       <c r="J24" t="n">
-        <v>75.2064110293488</v>
+        <v>63.24865727868655</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3552948050415807</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24327,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>45.37972027109998</v>
+        <v>29.22362421431183</v>
       </c>
       <c r="R24" t="n">
-        <v>150.2837834742034</v>
+        <v>142.4255613817112</v>
       </c>
       <c r="S24" t="n">
-        <v>206.7933815687133</v>
+        <v>204.4424653097627</v>
       </c>
       <c r="T24" t="n">
-        <v>229.8285755535207</v>
+        <v>229.3184239497484</v>
       </c>
       <c r="U24" t="n">
-        <v>249.64520105408</v>
+        <v>249.6368743140837</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
@@ -24376,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0727961812524</v>
       </c>
       <c r="H25" t="n">
-        <v>167.0843907444132</v>
+        <v>166.1409847532278</v>
       </c>
       <c r="I25" t="n">
-        <v>166.0672124249817</v>
+        <v>162.8762236531602</v>
       </c>
       <c r="J25" t="n">
-        <v>128.3581301441649</v>
+        <v>120.8562197214153</v>
       </c>
       <c r="K25" t="n">
-        <v>81.01899978470318</v>
+        <v>68.69105646430455</v>
       </c>
       <c r="L25" t="n">
-        <v>52.76875441092022</v>
+        <v>36.99323132314251</v>
       </c>
       <c r="M25" t="n">
-        <v>48.95113428673177</v>
+        <v>32.3180570822221</v>
       </c>
       <c r="N25" t="n">
-        <v>36.81579666235183</v>
+        <v>20.57821685700986</v>
       </c>
       <c r="O25" t="n">
-        <v>62.88486849896913</v>
+        <v>47.88683542028699</v>
       </c>
       <c r="P25" t="n">
-        <v>83.13957341348075</v>
+        <v>70.30616512438972</v>
       </c>
       <c r="Q25" t="n">
-        <v>146.9932723722735</v>
+        <v>138.1080856802398</v>
       </c>
       <c r="R25" t="n">
-        <v>218.5590438132605</v>
+        <v>213.7879947003738</v>
       </c>
       <c r="S25" t="n">
-        <v>242.7252062786279</v>
+        <v>240.8760147805681</v>
       </c>
       <c r="T25" t="n">
-        <v>217.8496038232412</v>
+        <v>217.3962287559027</v>
       </c>
       <c r="U25" t="n">
-        <v>291.2165540145173</v>
+        <v>291.2107662477002</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24455,19 +24457,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>422.0568960504156</v>
+        <v>421.8203441068026</v>
       </c>
       <c r="H26" t="n">
-        <v>348.3932585555301</v>
+        <v>345.9706709630035</v>
       </c>
       <c r="I26" t="n">
-        <v>248.5166188045319</v>
+        <v>239.3969499983917</v>
       </c>
       <c r="J26" t="n">
-        <v>90.67542824598098</v>
+        <v>70.59837772175715</v>
       </c>
       <c r="K26" t="n">
-        <v>42.5588432808045</v>
+        <v>12.46854898344239</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -24482,22 +24484,22 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>34.01646518147885</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>104.3382672065391</v>
+        <v>78.79331850570077</v>
       </c>
       <c r="R26" t="n">
-        <v>201.8898204488762</v>
+        <v>187.0305144208961</v>
       </c>
       <c r="S26" t="n">
-        <v>232.4490946716583</v>
+        <v>227.0586672565771</v>
       </c>
       <c r="T26" t="n">
-        <v>218.802265886147</v>
+        <v>217.7667597529811</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7600153393432</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24534,19 +24536,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>160.948794407391</v>
+        <v>160.8222279594475</v>
       </c>
       <c r="H27" t="n">
-        <v>137.1112742977616</v>
+        <v>135.8889088663072</v>
       </c>
       <c r="I27" t="n">
-        <v>114.6725073984828</v>
+        <v>110.314846800428</v>
       </c>
       <c r="J27" t="n">
-        <v>75.20641102934879</v>
+        <v>63.24865727868655</v>
       </c>
       <c r="K27" t="n">
-        <v>0.3552948050415807</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24564,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>45.37972027109998</v>
+        <v>29.22362421431183</v>
       </c>
       <c r="R27" t="n">
-        <v>150.2837834742034</v>
+        <v>142.4255613817112</v>
       </c>
       <c r="S27" t="n">
-        <v>206.7933815687133</v>
+        <v>204.4424653097627</v>
       </c>
       <c r="T27" t="n">
-        <v>229.8285755535207</v>
+        <v>229.3184239497484</v>
       </c>
       <c r="U27" t="n">
-        <v>249.64520105408</v>
+        <v>249.6368743140837</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
@@ -24613,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0727961812524</v>
       </c>
       <c r="H28" t="n">
-        <v>167.0843907444132</v>
+        <v>166.1409847532278</v>
       </c>
       <c r="I28" t="n">
-        <v>166.0672124249817</v>
+        <v>162.8762236531602</v>
       </c>
       <c r="J28" t="n">
-        <v>128.3581301441649</v>
+        <v>120.8562197214153</v>
       </c>
       <c r="K28" t="n">
-        <v>81.01899978470317</v>
+        <v>68.69105646430455</v>
       </c>
       <c r="L28" t="n">
-        <v>52.76875441092022</v>
+        <v>36.99323132314251</v>
       </c>
       <c r="M28" t="n">
-        <v>48.95113428673176</v>
+        <v>32.3180570822221</v>
       </c>
       <c r="N28" t="n">
-        <v>36.81579666235181</v>
+        <v>20.57821685700986</v>
       </c>
       <c r="O28" t="n">
-        <v>62.88486849896913</v>
+        <v>47.88683542028699</v>
       </c>
       <c r="P28" t="n">
-        <v>83.13957341348075</v>
+        <v>70.30616512438972</v>
       </c>
       <c r="Q28" t="n">
-        <v>146.9932723722735</v>
+        <v>138.1080856802398</v>
       </c>
       <c r="R28" t="n">
-        <v>218.5590438132605</v>
+        <v>213.7879947003738</v>
       </c>
       <c r="S28" t="n">
-        <v>242.7252062786279</v>
+        <v>240.8760147805681</v>
       </c>
       <c r="T28" t="n">
-        <v>217.8496038232412</v>
+        <v>217.3962287559027</v>
       </c>
       <c r="U28" t="n">
-        <v>291.2165540145173</v>
+        <v>291.2107662477002</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24692,19 +24694,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>422.0568960504156</v>
+        <v>421.8203441068026</v>
       </c>
       <c r="H29" t="n">
-        <v>348.3932585555301</v>
+        <v>345.9706709630035</v>
       </c>
       <c r="I29" t="n">
-        <v>248.5166188045319</v>
+        <v>239.3969499983917</v>
       </c>
       <c r="J29" t="n">
-        <v>90.67542824598098</v>
+        <v>70.59837772175715</v>
       </c>
       <c r="K29" t="n">
-        <v>42.5588432808045</v>
+        <v>12.46854898344239</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -24719,22 +24721,22 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>34.01646518147885</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>104.3382672065391</v>
+        <v>78.79331850570077</v>
       </c>
       <c r="R29" t="n">
-        <v>201.8898204488762</v>
+        <v>187.0305144208961</v>
       </c>
       <c r="S29" t="n">
-        <v>232.4490946716583</v>
+        <v>227.0586672565771</v>
       </c>
       <c r="T29" t="n">
-        <v>218.802265886147</v>
+        <v>217.7667597529811</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7600153393432</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24771,19 +24773,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>160.948794407391</v>
+        <v>160.8222279594475</v>
       </c>
       <c r="H30" t="n">
-        <v>137.1112742977616</v>
+        <v>135.8889088663072</v>
       </c>
       <c r="I30" t="n">
-        <v>114.6725073984828</v>
+        <v>110.314846800428</v>
       </c>
       <c r="J30" t="n">
-        <v>75.20641102934879</v>
+        <v>63.24865727868655</v>
       </c>
       <c r="K30" t="n">
-        <v>0.3552948050415807</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24801,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>45.37972027109998</v>
+        <v>29.22362421431183</v>
       </c>
       <c r="R30" t="n">
-        <v>150.2837834742034</v>
+        <v>142.4255613817112</v>
       </c>
       <c r="S30" t="n">
-        <v>206.7933815687133</v>
+        <v>204.4424653097627</v>
       </c>
       <c r="T30" t="n">
-        <v>229.8285755535207</v>
+        <v>229.3184239497484</v>
       </c>
       <c r="U30" t="n">
-        <v>249.64520105408</v>
+        <v>249.6368743140837</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
@@ -24850,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0727961812524</v>
       </c>
       <c r="H31" t="n">
-        <v>167.0843907444132</v>
+        <v>166.1409847532278</v>
       </c>
       <c r="I31" t="n">
-        <v>166.0672124249817</v>
+        <v>162.8762236531602</v>
       </c>
       <c r="J31" t="n">
-        <v>128.3581301441649</v>
+        <v>120.8562197214153</v>
       </c>
       <c r="K31" t="n">
-        <v>81.01899978470317</v>
+        <v>68.69105646430455</v>
       </c>
       <c r="L31" t="n">
-        <v>52.76875441092022</v>
+        <v>36.99323132314251</v>
       </c>
       <c r="M31" t="n">
-        <v>48.95113428673176</v>
+        <v>32.3180570822221</v>
       </c>
       <c r="N31" t="n">
-        <v>36.81579666235181</v>
+        <v>20.57821685700986</v>
       </c>
       <c r="O31" t="n">
-        <v>62.88486849896913</v>
+        <v>47.88683542028699</v>
       </c>
       <c r="P31" t="n">
-        <v>83.13957341348075</v>
+        <v>70.30616512438972</v>
       </c>
       <c r="Q31" t="n">
-        <v>146.9932723722735</v>
+        <v>138.1080856802398</v>
       </c>
       <c r="R31" t="n">
-        <v>218.5590438132605</v>
+        <v>213.7879947003738</v>
       </c>
       <c r="S31" t="n">
-        <v>242.7252062786279</v>
+        <v>240.8760147805681</v>
       </c>
       <c r="T31" t="n">
-        <v>217.8496038232412</v>
+        <v>217.3962287559027</v>
       </c>
       <c r="U31" t="n">
-        <v>291.2165540145173</v>
+        <v>291.2107662477002</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24929,19 +24931,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>422.0568960504156</v>
+        <v>421.8203441068026</v>
       </c>
       <c r="H32" t="n">
-        <v>348.3932585555301</v>
+        <v>345.9706709630035</v>
       </c>
       <c r="I32" t="n">
-        <v>248.5166188045319</v>
+        <v>239.3969499983917</v>
       </c>
       <c r="J32" t="n">
-        <v>90.67542824598098</v>
+        <v>70.59837772175715</v>
       </c>
       <c r="K32" t="n">
-        <v>42.5588432808045</v>
+        <v>12.46854898344239</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -24956,22 +24958,22 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>34.01646518147885</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>104.3382672065391</v>
+        <v>78.79331850570077</v>
       </c>
       <c r="R32" t="n">
-        <v>201.8898204488762</v>
+        <v>187.0305144208961</v>
       </c>
       <c r="S32" t="n">
-        <v>232.4490946716583</v>
+        <v>227.0586672565771</v>
       </c>
       <c r="T32" t="n">
-        <v>218.802265886147</v>
+        <v>217.7667597529811</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7600153393432</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25008,19 +25010,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>160.948794407391</v>
+        <v>160.8222279594475</v>
       </c>
       <c r="H33" t="n">
-        <v>137.1112742977616</v>
+        <v>135.8889088663072</v>
       </c>
       <c r="I33" t="n">
-        <v>114.6725073984828</v>
+        <v>110.314846800428</v>
       </c>
       <c r="J33" t="n">
-        <v>75.20641102934879</v>
+        <v>63.24865727868655</v>
       </c>
       <c r="K33" t="n">
-        <v>0.3552948050415807</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25038,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>45.37972027109998</v>
+        <v>29.22362421431183</v>
       </c>
       <c r="R33" t="n">
-        <v>150.2837834742034</v>
+        <v>142.4255613817112</v>
       </c>
       <c r="S33" t="n">
-        <v>206.7933815687133</v>
+        <v>204.4424653097627</v>
       </c>
       <c r="T33" t="n">
-        <v>229.8285755535207</v>
+        <v>229.3184239497484</v>
       </c>
       <c r="U33" t="n">
-        <v>249.64520105408</v>
+        <v>249.6368743140837</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25087,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0727961812524</v>
       </c>
       <c r="H34" t="n">
-        <v>167.0843907444132</v>
+        <v>166.1409847532278</v>
       </c>
       <c r="I34" t="n">
-        <v>166.0672124249817</v>
+        <v>162.8762236531602</v>
       </c>
       <c r="J34" t="n">
-        <v>128.3581301441649</v>
+        <v>120.8562197214153</v>
       </c>
       <c r="K34" t="n">
-        <v>81.01899978470317</v>
+        <v>68.69105646430455</v>
       </c>
       <c r="L34" t="n">
-        <v>52.76875441092022</v>
+        <v>36.99323132314251</v>
       </c>
       <c r="M34" t="n">
-        <v>48.95113428673176</v>
+        <v>32.3180570822221</v>
       </c>
       <c r="N34" t="n">
-        <v>36.81579666235181</v>
+        <v>20.57821685700986</v>
       </c>
       <c r="O34" t="n">
-        <v>62.88486849896913</v>
+        <v>47.88683542028699</v>
       </c>
       <c r="P34" t="n">
-        <v>83.13957341348075</v>
+        <v>70.30616512438972</v>
       </c>
       <c r="Q34" t="n">
-        <v>146.9932723722735</v>
+        <v>138.1080856802398</v>
       </c>
       <c r="R34" t="n">
-        <v>218.5590438132605</v>
+        <v>213.7879947003738</v>
       </c>
       <c r="S34" t="n">
-        <v>242.7252062786279</v>
+        <v>240.8760147805681</v>
       </c>
       <c r="T34" t="n">
-        <v>217.8496038232412</v>
+        <v>217.3962287559027</v>
       </c>
       <c r="U34" t="n">
-        <v>291.2165540145173</v>
+        <v>291.2107662477002</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25166,19 +25168,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>422.0568960504156</v>
+        <v>421.8203441068026</v>
       </c>
       <c r="H35" t="n">
-        <v>348.3932585555301</v>
+        <v>345.9706709630035</v>
       </c>
       <c r="I35" t="n">
-        <v>248.5166188045319</v>
+        <v>239.3969499983917</v>
       </c>
       <c r="J35" t="n">
-        <v>90.67542824598098</v>
+        <v>70.59837772175715</v>
       </c>
       <c r="K35" t="n">
-        <v>42.5588432808045</v>
+        <v>12.46854898344239</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -25193,22 +25195,22 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>34.01646518147885</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>104.3382672065391</v>
+        <v>78.79331850570077</v>
       </c>
       <c r="R35" t="n">
-        <v>201.8898204488762</v>
+        <v>187.0305144208961</v>
       </c>
       <c r="S35" t="n">
-        <v>232.4490946716583</v>
+        <v>227.0586672565771</v>
       </c>
       <c r="T35" t="n">
-        <v>218.802265886147</v>
+        <v>217.7667597529811</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7600153393432</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25245,19 +25247,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>160.948794407391</v>
+        <v>160.8222279594475</v>
       </c>
       <c r="H36" t="n">
-        <v>137.1112742977616</v>
+        <v>135.8889088663072</v>
       </c>
       <c r="I36" t="n">
-        <v>114.6725073984828</v>
+        <v>110.314846800428</v>
       </c>
       <c r="J36" t="n">
-        <v>75.20641102934879</v>
+        <v>63.24865727868655</v>
       </c>
       <c r="K36" t="n">
-        <v>0.3552948050415807</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25275,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>45.37972027109998</v>
+        <v>29.22362421431183</v>
       </c>
       <c r="R36" t="n">
-        <v>150.2837834742034</v>
+        <v>142.4255613817112</v>
       </c>
       <c r="S36" t="n">
-        <v>206.7933815687133</v>
+        <v>204.4424653097627</v>
       </c>
       <c r="T36" t="n">
-        <v>229.8285755535207</v>
+        <v>229.3184239497484</v>
       </c>
       <c r="U36" t="n">
-        <v>249.64520105408</v>
+        <v>249.6368743140837</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25324,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0727961812524</v>
       </c>
       <c r="H37" t="n">
-        <v>167.0843907444132</v>
+        <v>166.1409847532278</v>
       </c>
       <c r="I37" t="n">
-        <v>166.0672124249817</v>
+        <v>162.8762236531602</v>
       </c>
       <c r="J37" t="n">
-        <v>128.3581301441649</v>
+        <v>120.8562197214153</v>
       </c>
       <c r="K37" t="n">
-        <v>81.01899978470317</v>
+        <v>68.69105646430455</v>
       </c>
       <c r="L37" t="n">
-        <v>52.76875441092022</v>
+        <v>36.99323132314251</v>
       </c>
       <c r="M37" t="n">
-        <v>48.95113428673176</v>
+        <v>32.3180570822221</v>
       </c>
       <c r="N37" t="n">
-        <v>36.81579666235181</v>
+        <v>20.57821685700986</v>
       </c>
       <c r="O37" t="n">
-        <v>62.88486849896913</v>
+        <v>47.88683542028699</v>
       </c>
       <c r="P37" t="n">
-        <v>83.13957341348075</v>
+        <v>70.30616512438972</v>
       </c>
       <c r="Q37" t="n">
-        <v>146.9932723722735</v>
+        <v>138.1080856802398</v>
       </c>
       <c r="R37" t="n">
-        <v>218.5590438132605</v>
+        <v>213.7879947003738</v>
       </c>
       <c r="S37" t="n">
-        <v>242.7252062786279</v>
+        <v>240.8760147805681</v>
       </c>
       <c r="T37" t="n">
-        <v>217.8496038232412</v>
+        <v>217.3962287559027</v>
       </c>
       <c r="U37" t="n">
-        <v>291.2165540145173</v>
+        <v>291.2107662477002</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25403,19 +25405,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>422.0568960504156</v>
+        <v>421.8203441068026</v>
       </c>
       <c r="H38" t="n">
-        <v>348.3932585555301</v>
+        <v>345.9706709630035</v>
       </c>
       <c r="I38" t="n">
-        <v>248.5166188045319</v>
+        <v>239.3969499983917</v>
       </c>
       <c r="J38" t="n">
-        <v>90.67542824598098</v>
+        <v>70.59837772175715</v>
       </c>
       <c r="K38" t="n">
-        <v>42.5588432808045</v>
+        <v>12.46854898344239</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -25430,22 +25432,22 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>34.01646518147885</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>104.3382672065391</v>
+        <v>78.79331850570077</v>
       </c>
       <c r="R38" t="n">
-        <v>201.8898204488762</v>
+        <v>187.0305144208961</v>
       </c>
       <c r="S38" t="n">
-        <v>232.4490946716583</v>
+        <v>227.0586672565771</v>
       </c>
       <c r="T38" t="n">
-        <v>218.802265886147</v>
+        <v>217.7667597529811</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7600153393432</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25482,19 +25484,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>160.948794407391</v>
+        <v>160.8222279594475</v>
       </c>
       <c r="H39" t="n">
-        <v>137.1112742977616</v>
+        <v>135.8889088663072</v>
       </c>
       <c r="I39" t="n">
-        <v>114.6725073984828</v>
+        <v>110.314846800428</v>
       </c>
       <c r="J39" t="n">
-        <v>75.20641102934879</v>
+        <v>63.24865727868655</v>
       </c>
       <c r="K39" t="n">
-        <v>0.3552948050415807</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25512,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>45.37972027109998</v>
+        <v>29.22362421431183</v>
       </c>
       <c r="R39" t="n">
-        <v>150.2837834742034</v>
+        <v>142.4255613817112</v>
       </c>
       <c r="S39" t="n">
-        <v>206.7933815687133</v>
+        <v>204.4424653097627</v>
       </c>
       <c r="T39" t="n">
-        <v>229.8285755535207</v>
+        <v>229.3184239497484</v>
       </c>
       <c r="U39" t="n">
-        <v>249.64520105408</v>
+        <v>249.6368743140837</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25561,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0727961812524</v>
       </c>
       <c r="H40" t="n">
-        <v>167.0843907444132</v>
+        <v>166.1409847532278</v>
       </c>
       <c r="I40" t="n">
-        <v>166.0672124249817</v>
+        <v>162.8762236531602</v>
       </c>
       <c r="J40" t="n">
-        <v>128.3581301441649</v>
+        <v>120.8562197214153</v>
       </c>
       <c r="K40" t="n">
-        <v>81.01899978470317</v>
+        <v>68.69105646430455</v>
       </c>
       <c r="L40" t="n">
-        <v>52.76875441092022</v>
+        <v>36.99323132314251</v>
       </c>
       <c r="M40" t="n">
-        <v>48.95113428673176</v>
+        <v>32.3180570822221</v>
       </c>
       <c r="N40" t="n">
-        <v>36.81579666235181</v>
+        <v>20.57821685700986</v>
       </c>
       <c r="O40" t="n">
-        <v>62.88486849896913</v>
+        <v>47.88683542028699</v>
       </c>
       <c r="P40" t="n">
-        <v>83.13957341348075</v>
+        <v>70.30616512438972</v>
       </c>
       <c r="Q40" t="n">
-        <v>146.9932723722735</v>
+        <v>138.1080856802398</v>
       </c>
       <c r="R40" t="n">
-        <v>218.5590438132605</v>
+        <v>213.7879947003738</v>
       </c>
       <c r="S40" t="n">
-        <v>242.7252062786279</v>
+        <v>240.8760147805681</v>
       </c>
       <c r="T40" t="n">
-        <v>217.8496038232412</v>
+        <v>217.3962287559027</v>
       </c>
       <c r="U40" t="n">
-        <v>291.2165540145173</v>
+        <v>291.2107662477002</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25640,19 +25642,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>422.0568960504156</v>
+        <v>421.8203441068026</v>
       </c>
       <c r="H41" t="n">
-        <v>348.3932585555301</v>
+        <v>345.9706709630035</v>
       </c>
       <c r="I41" t="n">
-        <v>248.5166188045319</v>
+        <v>239.3969499983917</v>
       </c>
       <c r="J41" t="n">
-        <v>90.67542824598098</v>
+        <v>70.59837772175715</v>
       </c>
       <c r="K41" t="n">
-        <v>42.5588432808045</v>
+        <v>12.46854898344239</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -25667,22 +25669,22 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>34.01646518147885</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>104.3382672065391</v>
+        <v>78.79331850570077</v>
       </c>
       <c r="R41" t="n">
-        <v>201.8898204488762</v>
+        <v>187.0305144208961</v>
       </c>
       <c r="S41" t="n">
-        <v>232.4490946716583</v>
+        <v>227.0586672565771</v>
       </c>
       <c r="T41" t="n">
-        <v>218.802265886147</v>
+        <v>217.7667597529811</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7600153393432</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25719,19 +25721,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.948794407391</v>
+        <v>160.8222279594475</v>
       </c>
       <c r="H42" t="n">
-        <v>137.1112742977616</v>
+        <v>135.8889088663072</v>
       </c>
       <c r="I42" t="n">
-        <v>114.6725073984828</v>
+        <v>110.314846800428</v>
       </c>
       <c r="J42" t="n">
-        <v>75.20641102934879</v>
+        <v>63.24865727868655</v>
       </c>
       <c r="K42" t="n">
-        <v>0.3552948050415807</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25749,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>45.37972027109998</v>
+        <v>29.22362421431183</v>
       </c>
       <c r="R42" t="n">
-        <v>150.2837834742034</v>
+        <v>142.4255613817112</v>
       </c>
       <c r="S42" t="n">
-        <v>206.7933815687133</v>
+        <v>204.4424653097627</v>
       </c>
       <c r="T42" t="n">
-        <v>229.8285755535207</v>
+        <v>229.3184239497484</v>
       </c>
       <c r="U42" t="n">
-        <v>249.64520105408</v>
+        <v>249.6368743140837</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
@@ -25798,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0727961812524</v>
       </c>
       <c r="H43" t="n">
-        <v>167.0843907444132</v>
+        <v>166.1409847532278</v>
       </c>
       <c r="I43" t="n">
-        <v>166.0672124249817</v>
+        <v>162.8762236531602</v>
       </c>
       <c r="J43" t="n">
-        <v>128.3581301441649</v>
+        <v>120.8562197214153</v>
       </c>
       <c r="K43" t="n">
-        <v>81.01899978470317</v>
+        <v>68.69105646430455</v>
       </c>
       <c r="L43" t="n">
-        <v>52.76875441092022</v>
+        <v>36.99323132314251</v>
       </c>
       <c r="M43" t="n">
-        <v>48.95113428673176</v>
+        <v>32.3180570822221</v>
       </c>
       <c r="N43" t="n">
-        <v>36.81579666235181</v>
+        <v>20.57821685700986</v>
       </c>
       <c r="O43" t="n">
-        <v>62.88486849896913</v>
+        <v>47.88683542028699</v>
       </c>
       <c r="P43" t="n">
-        <v>83.13957341348075</v>
+        <v>70.30616512438972</v>
       </c>
       <c r="Q43" t="n">
-        <v>146.9932723722735</v>
+        <v>138.1080856802398</v>
       </c>
       <c r="R43" t="n">
-        <v>218.5590438132605</v>
+        <v>213.7879947003738</v>
       </c>
       <c r="S43" t="n">
-        <v>242.7252062786279</v>
+        <v>240.8760147805681</v>
       </c>
       <c r="T43" t="n">
-        <v>217.8496038232412</v>
+        <v>217.3962287559027</v>
       </c>
       <c r="U43" t="n">
-        <v>291.2165540145173</v>
+        <v>291.2107662477002</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25877,19 +25879,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>422.0568960504156</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H44" t="n">
-        <v>348.3932585555301</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I44" t="n">
-        <v>248.5166188045319</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J44" t="n">
-        <v>90.67542824598098</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K44" t="n">
-        <v>42.5588432808045</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -25904,22 +25906,22 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>34.01646518147885</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>104.3382672065391</v>
+        <v>66.86288983651983</v>
       </c>
       <c r="R44" t="n">
-        <v>201.8898204488762</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S44" t="n">
-        <v>232.4490946716583</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T44" t="n">
-        <v>218.802265886147</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25956,19 +25958,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>160.948794407391</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H45" t="n">
-        <v>137.1112742977616</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I45" t="n">
-        <v>114.6725073984828</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J45" t="n">
-        <v>75.20641102934879</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K45" t="n">
-        <v>0.3552948050415807</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25986,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>45.37972027109998</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R45" t="n">
-        <v>150.2837834742034</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S45" t="n">
-        <v>206.7933815687133</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T45" t="n">
-        <v>229.8285755535207</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U45" t="n">
-        <v>249.64520105408</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
@@ -26035,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.1789052395657</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H46" t="n">
-        <v>167.0843907444132</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I46" t="n">
-        <v>166.0672124249817</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J46" t="n">
-        <v>128.3581301441649</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K46" t="n">
-        <v>81.01899978470317</v>
+        <v>62.93345443721985</v>
       </c>
       <c r="L46" t="n">
-        <v>52.76875441092022</v>
+        <v>29.62548300147246</v>
       </c>
       <c r="M46" t="n">
-        <v>48.95113428673176</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N46" t="n">
-        <v>36.81579666235181</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O46" t="n">
-        <v>62.88486849896913</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P46" t="n">
-        <v>83.13957341348075</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q46" t="n">
-        <v>146.9932723722735</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R46" t="n">
-        <v>218.5590438132605</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S46" t="n">
-        <v>242.7252062786279</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T46" t="n">
-        <v>217.8496038232412</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U46" t="n">
-        <v>291.2165540145173</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>387914.2183960031</v>
+        <v>296172.1567046246</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>412453.4349629559</v>
+        <v>351638.4877526332</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>414006.6005358876</v>
+        <v>412453.4349629559</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>448319.1212796693</v>
+        <v>469168.4369439575</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>448319.1212796693</v>
+        <v>469168.4369439575</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>448319.1212796693</v>
+        <v>469168.4369439575</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>448319.1212796693</v>
+        <v>469168.4369439575</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>448319.1212796693</v>
+        <v>469168.4369439575</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>448319.1212796693</v>
+        <v>469168.4369439575</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>448319.1212796693</v>
+        <v>469168.4369439575</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>448319.1212796693</v>
+        <v>469168.4369439575</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>448319.1212796693</v>
+        <v>469168.4369439575</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>448319.1212796693</v>
+        <v>469168.4369439575</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>448319.1212796693</v>
+        <v>469168.4369439575</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>448319.1212796693</v>
+        <v>476730.6857382702</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69561.00819833546</v>
+        <v>52199.81283116747</v>
       </c>
       <c r="C2" t="n">
-        <v>74252.61531763479</v>
+        <v>62659.35349979768</v>
       </c>
       <c r="D2" t="n">
-        <v>74555.23500166096</v>
+        <v>74252.6153176348</v>
       </c>
       <c r="E2" t="n">
-        <v>81490.50259974897</v>
+        <v>85909.20744811438</v>
       </c>
       <c r="F2" t="n">
-        <v>81490.50259974897</v>
+        <v>85909.20744811438</v>
       </c>
       <c r="G2" t="n">
-        <v>81490.50259974897</v>
+        <v>85909.20744811436</v>
       </c>
       <c r="H2" t="n">
-        <v>81490.50259974897</v>
+        <v>85909.20744811438</v>
       </c>
       <c r="I2" t="n">
-        <v>81490.50259974897</v>
+        <v>85909.20744811436</v>
       </c>
       <c r="J2" t="n">
-        <v>81490.50259974899</v>
+        <v>85909.20744811436</v>
       </c>
       <c r="K2" t="n">
-        <v>81490.50259974896</v>
+        <v>85909.20744811436</v>
       </c>
       <c r="L2" t="n">
-        <v>81490.50259974897</v>
+        <v>85909.20744811436</v>
       </c>
       <c r="M2" t="n">
-        <v>81490.50259974897</v>
+        <v>85909.20744811436</v>
       </c>
       <c r="N2" t="n">
-        <v>81490.50259974899</v>
+        <v>85909.20744811436</v>
       </c>
       <c r="O2" t="n">
-        <v>81490.50259974897</v>
+        <v>85909.20744811436</v>
       </c>
       <c r="P2" t="n">
-        <v>81490.50259974897</v>
+        <v>87588.51533683503</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>265427.3448384088</v>
+        <v>153449.107713115</v>
       </c>
       <c r="C3" t="n">
-        <v>30748.06435510295</v>
+        <v>62092.79785141179</v>
       </c>
       <c r="D3" t="n">
-        <v>2102.958408147063</v>
+        <v>70041.52594997895</v>
       </c>
       <c r="E3" t="n">
-        <v>56031.16615270091</v>
+        <v>105278.0310684261</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>18291.03484612793</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14814.26533220361</v>
+        <v>16191.34242836274</v>
       </c>
       <c r="C4" t="n">
+        <v>15556.50079917294</v>
+      </c>
+      <c r="D4" t="n">
         <v>14189.40735018782</v>
       </c>
-      <c r="D4" t="n">
-        <v>14119.43098152452</v>
-      </c>
       <c r="E4" t="n">
-        <v>11233.69824465193</v>
+        <v>8382.687904071432</v>
       </c>
       <c r="F4" t="n">
-        <v>11233.69824465193</v>
+        <v>8382.687904071432</v>
       </c>
       <c r="G4" t="n">
-        <v>11233.69824465193</v>
+        <v>8382.687904071432</v>
       </c>
       <c r="H4" t="n">
-        <v>11233.69824465193</v>
+        <v>8382.687904071432</v>
       </c>
       <c r="I4" t="n">
-        <v>11233.69824465193</v>
+        <v>8382.687904071432</v>
       </c>
       <c r="J4" t="n">
-        <v>11233.69824465193</v>
+        <v>8382.687904071432</v>
       </c>
       <c r="K4" t="n">
-        <v>11233.69824465193</v>
+        <v>8382.687904071432</v>
       </c>
       <c r="L4" t="n">
-        <v>11233.69824465193</v>
+        <v>8382.687904071432</v>
       </c>
       <c r="M4" t="n">
-        <v>11233.69824465193</v>
+        <v>8382.687904071432</v>
       </c>
       <c r="N4" t="n">
-        <v>11233.69824465193</v>
+        <v>8382.687904071432</v>
       </c>
       <c r="O4" t="n">
-        <v>11233.69824465193</v>
+        <v>8382.687904071432</v>
       </c>
       <c r="P4" t="n">
-        <v>11233.69824465193</v>
+        <v>6937.739840700675</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39632.41325747713</v>
+        <v>37099.10832143807</v>
       </c>
       <c r="C5" t="n">
+        <v>38585.62272966557</v>
+      </c>
+      <c r="D5" t="n">
         <v>40368.52827033812</v>
       </c>
-      <c r="D5" t="n">
-        <v>40422.05903150925</v>
-      </c>
       <c r="E5" t="n">
-        <v>8314.840984438075</v>
+        <v>9597.603036665469</v>
       </c>
       <c r="F5" t="n">
-        <v>8314.840984438075</v>
+        <v>9597.603036665469</v>
       </c>
       <c r="G5" t="n">
-        <v>8314.840984438075</v>
+        <v>9597.603036665469</v>
       </c>
       <c r="H5" t="n">
-        <v>8314.840984438075</v>
+        <v>9597.603036665469</v>
       </c>
       <c r="I5" t="n">
-        <v>8314.840984438075</v>
+        <v>9597.603036665469</v>
       </c>
       <c r="J5" t="n">
-        <v>8314.840984438075</v>
+        <v>9597.603036665469</v>
       </c>
       <c r="K5" t="n">
-        <v>8314.840984438075</v>
+        <v>9597.603036665469</v>
       </c>
       <c r="L5" t="n">
-        <v>8314.840984438075</v>
+        <v>9597.603036665469</v>
       </c>
       <c r="M5" t="n">
-        <v>8314.840984438075</v>
+        <v>9597.603036665469</v>
       </c>
       <c r="N5" t="n">
-        <v>8314.840984438075</v>
+        <v>9597.603036665469</v>
       </c>
       <c r="O5" t="n">
-        <v>8314.840984438075</v>
+        <v>9597.603036665469</v>
       </c>
       <c r="P5" t="n">
-        <v>8314.840984438075</v>
+        <v>10196.69999876384</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-250313.0152297541</v>
+        <v>-154539.7456317483</v>
       </c>
       <c r="C6" t="n">
-        <v>-11053.38465799411</v>
+        <v>-53575.56788045261</v>
       </c>
       <c r="D6" t="n">
-        <v>17910.78658048012</v>
+        <v>-50346.84625287009</v>
       </c>
       <c r="E6" t="n">
-        <v>5910.797217958059</v>
+        <v>-37349.11456104858</v>
       </c>
       <c r="F6" t="n">
-        <v>61941.96337065896</v>
+        <v>67928.91650737748</v>
       </c>
       <c r="G6" t="n">
-        <v>61941.96337065896</v>
+        <v>67928.91650737746</v>
       </c>
       <c r="H6" t="n">
-        <v>61941.96337065896</v>
+        <v>67928.91650737748</v>
       </c>
       <c r="I6" t="n">
-        <v>61941.96337065896</v>
+        <v>67928.91650737746</v>
       </c>
       <c r="J6" t="n">
-        <v>61941.96337065899</v>
+        <v>67928.91650737746</v>
       </c>
       <c r="K6" t="n">
-        <v>61941.96337065896</v>
+        <v>67928.91650737746</v>
       </c>
       <c r="L6" t="n">
-        <v>61941.96337065896</v>
+        <v>67928.91650737746</v>
       </c>
       <c r="M6" t="n">
-        <v>61941.96337065896</v>
+        <v>67928.91650737746</v>
       </c>
       <c r="N6" t="n">
-        <v>61941.96337065899</v>
+        <v>67928.91650737746</v>
       </c>
       <c r="O6" t="n">
-        <v>61941.96337065896</v>
+        <v>67928.91650737746</v>
       </c>
       <c r="P6" t="n">
-        <v>61941.96337065896</v>
+        <v>52163.04065124258</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>275.4501494255565</v>
+        <v>159.2435009833979</v>
       </c>
       <c r="C3" t="n">
+        <v>227.4322353057602</v>
+      </c>
+      <c r="D3" t="n">
         <v>309.2168931347763</v>
       </c>
-      <c r="D3" t="n">
-        <v>311.6724326380389</v>
-      </c>
       <c r="E3" t="n">
-        <v>381.4147240567924</v>
+        <v>440.2570200305261</v>
       </c>
       <c r="F3" t="n">
-        <v>381.4147240567924</v>
+        <v>440.2570200305261</v>
       </c>
       <c r="G3" t="n">
-        <v>381.4147240567924</v>
+        <v>440.2570200305261</v>
       </c>
       <c r="H3" t="n">
-        <v>381.4147240567924</v>
+        <v>440.2570200305261</v>
       </c>
       <c r="I3" t="n">
-        <v>381.4147240567924</v>
+        <v>440.2570200305261</v>
       </c>
       <c r="J3" t="n">
-        <v>381.4147240567924</v>
+        <v>440.2570200305261</v>
       </c>
       <c r="K3" t="n">
-        <v>381.4147240567924</v>
+        <v>440.2570200305261</v>
       </c>
       <c r="L3" t="n">
-        <v>381.4147240567924</v>
+        <v>440.2570200305261</v>
       </c>
       <c r="M3" t="n">
-        <v>381.4147240567924</v>
+        <v>440.2570200305261</v>
       </c>
       <c r="N3" t="n">
-        <v>381.4147240567924</v>
+        <v>440.2570200305261</v>
       </c>
       <c r="O3" t="n">
-        <v>381.4147240567924</v>
+        <v>440.2570200305261</v>
       </c>
       <c r="P3" t="n">
-        <v>381.4147240567924</v>
+        <v>467.7385320533874</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>275.4501494255565</v>
+        <v>159.2435009833979</v>
       </c>
       <c r="C3" t="n">
-        <v>33.76674370921978</v>
+        <v>68.18873432236234</v>
       </c>
       <c r="D3" t="n">
-        <v>2.455539503262514</v>
+        <v>81.78465782901606</v>
       </c>
       <c r="E3" t="n">
-        <v>69.74229141875361</v>
+        <v>131.0401268957498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>27.4815120228613</v>
       </c>
     </row>
     <row r="4">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.107337284122839</v>
+        <v>0.6401748783252171</v>
       </c>
       <c r="H2" t="n">
-        <v>11.34051796102303</v>
+        <v>6.556190972648132</v>
       </c>
       <c r="I2" t="n">
-        <v>42.69062064614581</v>
+        <v>24.68034199663296</v>
       </c>
       <c r="J2" t="n">
-        <v>93.98386781832093</v>
+        <v>54.33404257925495</v>
       </c>
       <c r="K2" t="n">
-        <v>140.8574550552407</v>
+        <v>81.4326451787614</v>
       </c>
       <c r="L2" t="n">
-        <v>174.7461284642151</v>
+        <v>101.0243971113068</v>
       </c>
       <c r="M2" t="n">
-        <v>194.4387378907347</v>
+        <v>112.4091071037229</v>
       </c>
       <c r="N2" t="n">
-        <v>197.5849599492487</v>
+        <v>114.2280039767644</v>
       </c>
       <c r="O2" t="n">
-        <v>186.5738748302522</v>
+        <v>107.862265030418</v>
       </c>
       <c r="P2" t="n">
-        <v>159.2364856284696</v>
+        <v>92.05794772176421</v>
       </c>
       <c r="Q2" t="n">
-        <v>119.5799691408204</v>
+        <v>69.13168489174234</v>
       </c>
       <c r="R2" t="n">
-        <v>69.55877567378137</v>
+        <v>40.21338520059646</v>
       </c>
       <c r="S2" t="n">
-        <v>25.23344836194923</v>
+        <v>14.5879850398359</v>
       </c>
       <c r="T2" t="n">
-        <v>4.847368961247732</v>
+        <v>2.80236552986864</v>
       </c>
       <c r="U2" t="n">
-        <v>0.08858698272982714</v>
+        <v>0.05121399026601736</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.59247767989648</v>
+        <v>0.3425237568322144</v>
       </c>
       <c r="H3" t="n">
-        <v>5.722087066368637</v>
+        <v>3.308058388353229</v>
       </c>
       <c r="I3" t="n">
-        <v>20.3989025753832</v>
+        <v>11.79303285584598</v>
       </c>
       <c r="J3" t="n">
-        <v>55.9761478186407</v>
+        <v>32.36098353474882</v>
       </c>
       <c r="K3" t="n">
-        <v>95.67215237170485</v>
+        <v>55.31007524250717</v>
       </c>
       <c r="L3" t="n">
-        <v>128.6430155406809</v>
+        <v>74.3712218507841</v>
       </c>
       <c r="M3" t="n">
-        <v>150.1203314369283</v>
+        <v>86.78770803595184</v>
       </c>
       <c r="N3" t="n">
-        <v>154.0935699130762</v>
+        <v>89.08472042277842</v>
       </c>
       <c r="O3" t="n">
-        <v>140.9655118480015</v>
+        <v>81.49511507402251</v>
       </c>
       <c r="P3" t="n">
-        <v>113.1372509970743</v>
+        <v>65.40701458316205</v>
       </c>
       <c r="Q3" t="n">
-        <v>75.62925612152262</v>
+        <v>43.72285710019635</v>
       </c>
       <c r="R3" t="n">
-        <v>36.78558787988849</v>
+        <v>21.26651886717907</v>
       </c>
       <c r="S3" t="n">
-        <v>11.00501304544558</v>
+        <v>6.362228553440469</v>
       </c>
       <c r="T3" t="n">
-        <v>2.388100823793267</v>
+        <v>1.380611107582477</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03897879473003159</v>
+        <v>0.0225344576863299</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4967133842100199</v>
+        <v>0.287160411609406</v>
       </c>
       <c r="H4" t="n">
-        <v>4.416233543249089</v>
+        <v>2.553117114127266</v>
       </c>
       <c r="I4" t="n">
-        <v>14.93752613606133</v>
+        <v>8.635696741853776</v>
       </c>
       <c r="J4" t="n">
-        <v>35.1176362636484</v>
+        <v>20.302241100785</v>
       </c>
       <c r="K4" t="n">
-        <v>57.70906409276412</v>
+        <v>33.36281873062007</v>
       </c>
       <c r="L4" t="n">
-        <v>73.8477335033697</v>
+        <v>42.69292155872933</v>
       </c>
       <c r="M4" t="n">
-        <v>77.86208076303065</v>
+        <v>45.01369979437261</v>
       </c>
       <c r="N4" t="n">
-        <v>76.01069451279336</v>
+        <v>43.9433746238285</v>
       </c>
       <c r="O4" t="n">
-        <v>70.2081790699763</v>
+        <v>40.58881890639133</v>
       </c>
       <c r="P4" t="n">
-        <v>60.07522603209183</v>
+        <v>34.73074650955942</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.59297256325903</v>
+        <v>24.04576864849308</v>
       </c>
       <c r="R4" t="n">
-        <v>22.33403998457052</v>
+        <v>12.91177632563747</v>
       </c>
       <c r="S4" t="n">
-        <v>8.656359613914615</v>
+        <v>5.00442280959301</v>
       </c>
       <c r="T4" t="n">
-        <v>2.122320823442811</v>
+        <v>1.226958122331098</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02709345732054657</v>
+        <v>0.01566329517869489</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.243082987476487</v>
+        <v>0.9143004434402414</v>
       </c>
       <c r="H5" t="n">
-        <v>12.73072364549357</v>
+        <v>9.363579416382375</v>
       </c>
       <c r="I5" t="n">
-        <v>47.9239568746873</v>
+        <v>35.24856784572994</v>
       </c>
       <c r="J5" t="n">
-        <v>105.5051147083326</v>
+        <v>77.60010726143626</v>
       </c>
       <c r="K5" t="n">
-        <v>158.1248175682123</v>
+        <v>116.3024450322617</v>
       </c>
       <c r="L5" t="n">
-        <v>196.1678185461958</v>
+        <v>144.283467228196</v>
       </c>
       <c r="M5" t="n">
-        <v>218.2744956247308</v>
+        <v>160.5431577392264</v>
       </c>
       <c r="N5" t="n">
-        <v>221.8064051628984</v>
+        <v>163.140913874151</v>
       </c>
       <c r="O5" t="n">
-        <v>209.4454987061791</v>
+        <v>154.0493388396921</v>
       </c>
       <c r="P5" t="n">
-        <v>178.7568874528532</v>
+        <v>131.4775466422611</v>
       </c>
       <c r="Q5" t="n">
-        <v>134.2389779638515</v>
+        <v>98.73416201155744</v>
       </c>
       <c r="R5" t="n">
-        <v>78.08581171206993</v>
+        <v>57.43292523025312</v>
       </c>
       <c r="S5" t="n">
-        <v>28.32675357712047</v>
+        <v>20.83462135489452</v>
       </c>
       <c r="T5" t="n">
-        <v>5.441595777678323</v>
+        <v>4.002350191159659</v>
       </c>
       <c r="U5" t="n">
-        <v>0.09944663899811891</v>
+        <v>0.0731440354752193</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6651080342898962</v>
+        <v>0.4891938646199371</v>
       </c>
       <c r="H6" t="n">
-        <v>6.423543383799788</v>
+        <v>4.724582850408341</v>
       </c>
       <c r="I6" t="n">
-        <v>22.89955293498108</v>
+        <v>16.84285893537941</v>
       </c>
       <c r="J6" t="n">
-        <v>62.83812353788884</v>
+        <v>46.21809227095643</v>
       </c>
       <c r="K6" t="n">
-        <v>107.4003618353119</v>
+        <v>78.99408120049222</v>
       </c>
       <c r="L6" t="n">
-        <v>144.4130405154444</v>
+        <v>106.2172906491666</v>
       </c>
       <c r="M6" t="n">
-        <v>168.5232067584531</v>
+        <v>123.9505682416393</v>
       </c>
       <c r="N6" t="n">
-        <v>172.9835145848972</v>
+        <v>127.2311709565686</v>
       </c>
       <c r="O6" t="n">
-        <v>158.2461207724737</v>
+        <v>116.3916647984111</v>
       </c>
       <c r="P6" t="n">
-        <v>127.0064631443575</v>
+        <v>93.41457227115274</v>
       </c>
       <c r="Q6" t="n">
-        <v>84.90045714900501</v>
+        <v>62.44516770130987</v>
       </c>
       <c r="R6" t="n">
-        <v>41.295040935999</v>
+        <v>30.37293134894663</v>
       </c>
       <c r="S6" t="n">
-        <v>12.35409002288469</v>
+        <v>9.086561476602773</v>
       </c>
       <c r="T6" t="n">
-        <v>2.680852120668484</v>
+        <v>1.97179456835843</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04375710751907214</v>
+        <v>0.03218380688289061</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5576042335217277</v>
+        <v>0.4101237030103873</v>
       </c>
       <c r="H7" t="n">
-        <v>4.957608548947729</v>
+        <v>3.646372559492355</v>
       </c>
       <c r="I7" t="n">
-        <v>16.76868004081705</v>
+        <v>12.33353826871238</v>
       </c>
       <c r="J7" t="n">
-        <v>39.42261930998615</v>
+        <v>28.99574580283438</v>
       </c>
       <c r="K7" t="n">
-        <v>64.78347367643343</v>
+        <v>47.6489174952068</v>
       </c>
       <c r="L7" t="n">
-        <v>82.90054213649397</v>
+        <v>60.97420944574431</v>
       </c>
       <c r="M7" t="n">
-        <v>87.40699816922863</v>
+        <v>64.28875464552824</v>
       </c>
       <c r="N7" t="n">
-        <v>85.32865511701135</v>
+        <v>62.76011175248958</v>
       </c>
       <c r="O7" t="n">
-        <v>78.81482384359842</v>
+        <v>57.96912122186821</v>
       </c>
       <c r="P7" t="n">
-        <v>67.43969747975511</v>
+        <v>49.60259768045627</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.69175086335122</v>
+        <v>34.3422675311698</v>
       </c>
       <c r="R7" t="n">
-        <v>25.07191399089513</v>
+        <v>18.44065304626704</v>
       </c>
       <c r="S7" t="n">
-        <v>9.717521051465013</v>
+        <v>7.147337624281019</v>
       </c>
       <c r="T7" t="n">
-        <v>2.382490815956472</v>
+        <v>1.752346731044381</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03041477637391245</v>
+        <v>0.0223703838005666</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.252954503067492</v>
+        <v>1.243082987476487</v>
       </c>
       <c r="H8" t="n">
-        <v>12.83182030453995</v>
+        <v>12.73072364549357</v>
       </c>
       <c r="I8" t="n">
-        <v>48.30452847950953</v>
+        <v>47.9239568746873</v>
       </c>
       <c r="J8" t="n">
-        <v>106.3429472547246</v>
+        <v>105.5051147083326</v>
       </c>
       <c r="K8" t="n">
-        <v>159.3805113695716</v>
+        <v>158.1248175682123</v>
       </c>
       <c r="L8" t="n">
-        <v>197.7256177428234</v>
+        <v>196.1678185461958</v>
       </c>
       <c r="M8" t="n">
-        <v>220.0078473867499</v>
+        <v>218.2744956247308</v>
       </c>
       <c r="N8" t="n">
-        <v>223.5678043685904</v>
+        <v>221.8064051628984</v>
       </c>
       <c r="O8" t="n">
-        <v>211.108738028713</v>
+        <v>209.4454987061791</v>
       </c>
       <c r="P8" t="n">
-        <v>180.1764237342343</v>
+        <v>178.7568874528532</v>
       </c>
       <c r="Q8" t="n">
-        <v>135.3049905931297</v>
+        <v>134.2389779638515</v>
       </c>
       <c r="R8" t="n">
-        <v>78.70590330331341</v>
+        <v>78.08581171206993</v>
       </c>
       <c r="S8" t="n">
-        <v>28.5517007386505</v>
+        <v>28.32675357712047</v>
       </c>
       <c r="T8" t="n">
-        <v>5.484808337177948</v>
+        <v>5.441595777678323</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1002363602453993</v>
+        <v>0.09944663899811891</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6703897607686119</v>
+        <v>0.6651080342898962</v>
       </c>
       <c r="H9" t="n">
-        <v>6.474553742160015</v>
+        <v>6.423543383799788</v>
       </c>
       <c r="I9" t="n">
-        <v>23.08140185102458</v>
+        <v>22.89955293498108</v>
       </c>
       <c r="J9" t="n">
-        <v>63.33713086279241</v>
+        <v>62.83812353788884</v>
       </c>
       <c r="K9" t="n">
-        <v>108.2532448342894</v>
+        <v>107.4003618353119</v>
       </c>
       <c r="L9" t="n">
-        <v>145.559846959869</v>
+        <v>144.4130405154444</v>
       </c>
       <c r="M9" t="n">
-        <v>169.8614757877311</v>
+        <v>168.5232067584531</v>
       </c>
       <c r="N9" t="n">
-        <v>174.3572036132365</v>
+        <v>172.9835145848972</v>
       </c>
       <c r="O9" t="n">
-        <v>159.5027778614688</v>
+        <v>158.2461207724737</v>
       </c>
       <c r="P9" t="n">
-        <v>128.015041247122</v>
+        <v>127.0064631443575</v>
       </c>
       <c r="Q9" t="n">
-        <v>85.57466490091966</v>
+        <v>84.90045714900501</v>
       </c>
       <c r="R9" t="n">
-        <v>41.62297128701962</v>
+        <v>41.29504093599901</v>
       </c>
       <c r="S9" t="n">
-        <v>12.45219577568013</v>
+        <v>12.35409002288469</v>
       </c>
       <c r="T9" t="n">
-        <v>2.70214118485243</v>
+        <v>2.680852120668484</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0441045895242508</v>
+        <v>0.04375710751907214</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5620322555767913</v>
+        <v>0.5576042335217276</v>
       </c>
       <c r="H10" t="n">
-        <v>4.996977690491839</v>
+        <v>4.957608548947728</v>
       </c>
       <c r="I10" t="n">
-        <v>16.9018427404366</v>
+        <v>16.76868004081705</v>
       </c>
       <c r="J10" t="n">
-        <v>39.73568046927914</v>
+        <v>39.42261930998615</v>
       </c>
       <c r="K10" t="n">
-        <v>65.29792932973992</v>
+        <v>64.78347367643343</v>
       </c>
       <c r="L10" t="n">
-        <v>83.55886825184406</v>
+        <v>82.90054213649397</v>
       </c>
       <c r="M10" t="n">
-        <v>88.10111075373283</v>
+        <v>87.40699816922863</v>
       </c>
       <c r="N10" t="n">
-        <v>86.00626325567394</v>
+        <v>85.32865511701135</v>
       </c>
       <c r="O10" t="n">
-        <v>79.44070463370868</v>
+        <v>78.8148238435984</v>
       </c>
       <c r="P10" t="n">
-        <v>67.97524661994207</v>
+        <v>67.43969747975511</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.06253732834386</v>
+        <v>46.69175086335122</v>
       </c>
       <c r="R10" t="n">
-        <v>25.27101396438917</v>
+        <v>25.07191399089513</v>
       </c>
       <c r="S10" t="n">
-        <v>9.794689399460985</v>
+        <v>9.717521051465015</v>
       </c>
       <c r="T10" t="n">
-        <v>2.40141054655538</v>
+        <v>2.382490815956472</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0306563048496432</v>
+        <v>0.03041477637391245</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.533325523846401</v>
+        <v>1.7698774674594</v>
       </c>
       <c r="H11" t="n">
-        <v>15.70317002109195</v>
+        <v>18.12575761361859</v>
       </c>
       <c r="I11" t="n">
-        <v>59.11353225808841</v>
+        <v>68.23320106422858</v>
       </c>
       <c r="J11" t="n">
-        <v>130.1390871795585</v>
+        <v>150.2161377037824</v>
       </c>
       <c r="K11" t="n">
-        <v>195.0447566039767</v>
+        <v>225.1350509013388</v>
       </c>
       <c r="L11" t="n">
-        <v>241.970267604391</v>
+        <v>279.2999384460995</v>
       </c>
       <c r="M11" t="n">
-        <v>269.2385453890944</v>
+        <v>310.7749968580306</v>
       </c>
       <c r="N11" t="n">
-        <v>273.5951065337231</v>
+        <v>315.8036612124496</v>
       </c>
       <c r="O11" t="n">
-        <v>258.3481008559754</v>
+        <v>298.2044421454002</v>
       </c>
       <c r="P11" t="n">
-        <v>220.4941269860174</v>
+        <v>254.5105921674962</v>
       </c>
       <c r="Q11" t="n">
-        <v>165.5819066632681</v>
+        <v>191.1268553641064</v>
       </c>
       <c r="R11" t="n">
-        <v>96.31775943731654</v>
+        <v>111.1770654652966</v>
       </c>
       <c r="S11" t="n">
-        <v>34.94065537464989</v>
+        <v>40.33108278973111</v>
       </c>
       <c r="T11" t="n">
-        <v>6.712132480637622</v>
+        <v>7.747638613803527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.122666041907712</v>
+        <v>0.141590197396752</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8204014819334781</v>
+        <v>0.9469679298769806</v>
       </c>
       <c r="H12" t="n">
-        <v>7.923351154462802</v>
+        <v>9.145716585917157</v>
       </c>
       <c r="I12" t="n">
-        <v>28.2462790928851</v>
+        <v>32.60393969093991</v>
       </c>
       <c r="J12" t="n">
-        <v>77.50994878214497</v>
+        <v>89.46770253280721</v>
       </c>
       <c r="K12" t="n">
-        <v>132.476848071688</v>
+        <v>152.9145538345649</v>
       </c>
       <c r="L12" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M12" t="n">
         <v>207.8710246109518</v>
@@ -31853,25 +31855,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O12" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P12" t="n">
-        <v>156.6607005281569</v>
+        <v>180.8293409253684</v>
       </c>
       <c r="Q12" t="n">
-        <v>104.7235295183857</v>
+        <v>120.8796255751739</v>
       </c>
       <c r="R12" t="n">
-        <v>50.93685692215053</v>
+        <v>58.79507901464273</v>
       </c>
       <c r="S12" t="n">
-        <v>15.23859770170297</v>
+        <v>17.58951396065356</v>
       </c>
       <c r="T12" t="n">
-        <v>3.306793692530114</v>
+        <v>3.81694529630239</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06230052170243296</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.687797043381101</v>
+        <v>0.7939061016943911</v>
       </c>
       <c r="H13" t="n">
-        <v>6.11514098569743</v>
+        <v>7.058546976882865</v>
       </c>
       <c r="I13" t="n">
-        <v>20.68393290458803</v>
+        <v>23.87492167640952</v>
       </c>
       <c r="J13" t="n">
-        <v>48.62725096704384</v>
+        <v>56.12916138979345</v>
       </c>
       <c r="K13" t="n">
-        <v>79.90951104009517</v>
+        <v>92.23745436049379</v>
       </c>
       <c r="L13" t="n">
-        <v>102.2566622495866</v>
+        <v>118.0321853373643</v>
       </c>
       <c r="M13" t="n">
-        <v>107.8153129001848</v>
+        <v>124.4483901046944</v>
       </c>
       <c r="N13" t="n">
-        <v>105.2517057384917</v>
+        <v>121.4892855438336</v>
       </c>
       <c r="O13" t="n">
-        <v>97.21698573172148</v>
+        <v>112.2150188104036</v>
       </c>
       <c r="P13" t="n">
-        <v>83.18592604674694</v>
+        <v>96.01933433583797</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.59362333257565</v>
+        <v>66.47881002460943</v>
       </c>
       <c r="R13" t="n">
-        <v>30.92585615057204</v>
+        <v>35.69690526345871</v>
       </c>
       <c r="S13" t="n">
-        <v>11.98642665601427</v>
+        <v>13.83561815407407</v>
       </c>
       <c r="T13" t="n">
-        <v>2.938769185355612</v>
+        <v>3.392144252694216</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.04330396918333048</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.533325523846401</v>
+        <v>1.7698774674594</v>
       </c>
       <c r="H14" t="n">
-        <v>15.70317002109195</v>
+        <v>18.12575761361859</v>
       </c>
       <c r="I14" t="n">
-        <v>59.11353225808841</v>
+        <v>68.23320106422858</v>
       </c>
       <c r="J14" t="n">
-        <v>130.1390871795585</v>
+        <v>150.2161377037824</v>
       </c>
       <c r="K14" t="n">
-        <v>195.0447566039767</v>
+        <v>225.1350509013388</v>
       </c>
       <c r="L14" t="n">
-        <v>241.970267604391</v>
+        <v>279.2999384460995</v>
       </c>
       <c r="M14" t="n">
-        <v>269.2385453890944</v>
+        <v>310.7749968580306</v>
       </c>
       <c r="N14" t="n">
-        <v>273.5951065337231</v>
+        <v>315.8036612124496</v>
       </c>
       <c r="O14" t="n">
-        <v>258.3481008559754</v>
+        <v>298.2044421454002</v>
       </c>
       <c r="P14" t="n">
-        <v>220.4941269860174</v>
+        <v>254.5105921674962</v>
       </c>
       <c r="Q14" t="n">
-        <v>165.5819066632681</v>
+        <v>191.1268553641064</v>
       </c>
       <c r="R14" t="n">
-        <v>96.31775943731654</v>
+        <v>111.1770654652966</v>
       </c>
       <c r="S14" t="n">
-        <v>34.94065537464989</v>
+        <v>40.33108278973111</v>
       </c>
       <c r="T14" t="n">
-        <v>6.712132480637622</v>
+        <v>7.747638613803527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.122666041907712</v>
+        <v>0.141590197396752</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8204014819334781</v>
+        <v>0.9469679298769806</v>
       </c>
       <c r="H15" t="n">
-        <v>7.923351154462802</v>
+        <v>9.145716585917157</v>
       </c>
       <c r="I15" t="n">
-        <v>28.2462790928851</v>
+        <v>32.60393969093991</v>
       </c>
       <c r="J15" t="n">
-        <v>77.50994878214497</v>
+        <v>89.46770253280721</v>
       </c>
       <c r="K15" t="n">
-        <v>132.476848071688</v>
+        <v>152.9145538345649</v>
       </c>
       <c r="L15" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M15" t="n">
         <v>207.8710246109518</v>
@@ -32090,25 +32092,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O15" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P15" t="n">
-        <v>156.6607005281569</v>
+        <v>180.8293409253684</v>
       </c>
       <c r="Q15" t="n">
-        <v>104.7235295183857</v>
+        <v>120.8796255751739</v>
       </c>
       <c r="R15" t="n">
-        <v>50.93685692215053</v>
+        <v>58.79507901464273</v>
       </c>
       <c r="S15" t="n">
-        <v>15.23859770170297</v>
+        <v>17.58951396065356</v>
       </c>
       <c r="T15" t="n">
-        <v>3.306793692530114</v>
+        <v>3.81694529630239</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06230052170243296</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.687797043381101</v>
+        <v>0.7939061016943911</v>
       </c>
       <c r="H16" t="n">
-        <v>6.11514098569743</v>
+        <v>7.058546976882865</v>
       </c>
       <c r="I16" t="n">
-        <v>20.68393290458803</v>
+        <v>23.87492167640952</v>
       </c>
       <c r="J16" t="n">
-        <v>48.62725096704384</v>
+        <v>56.12916138979345</v>
       </c>
       <c r="K16" t="n">
-        <v>79.90951104009517</v>
+        <v>92.23745436049379</v>
       </c>
       <c r="L16" t="n">
-        <v>102.2566622495866</v>
+        <v>118.0321853373643</v>
       </c>
       <c r="M16" t="n">
-        <v>107.8153129001848</v>
+        <v>124.4483901046944</v>
       </c>
       <c r="N16" t="n">
-        <v>105.2517057384917</v>
+        <v>121.4892855438336</v>
       </c>
       <c r="O16" t="n">
-        <v>97.21698573172148</v>
+        <v>112.2150188104036</v>
       </c>
       <c r="P16" t="n">
-        <v>83.18592604674694</v>
+        <v>96.01933433583797</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.59362333257565</v>
+        <v>66.47881002460943</v>
       </c>
       <c r="R16" t="n">
-        <v>30.92585615057204</v>
+        <v>35.69690526345871</v>
       </c>
       <c r="S16" t="n">
-        <v>11.98642665601427</v>
+        <v>13.83561815407407</v>
       </c>
       <c r="T16" t="n">
-        <v>2.938769185355612</v>
+        <v>3.392144252694216</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.04330396918333048</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.533325523846401</v>
+        <v>1.7698774674594</v>
       </c>
       <c r="H17" t="n">
-        <v>15.70317002109195</v>
+        <v>18.12575761361859</v>
       </c>
       <c r="I17" t="n">
-        <v>59.11353225808841</v>
+        <v>68.23320106422858</v>
       </c>
       <c r="J17" t="n">
-        <v>130.1390871795585</v>
+        <v>150.2161377037824</v>
       </c>
       <c r="K17" t="n">
-        <v>195.0447566039767</v>
+        <v>225.1350509013388</v>
       </c>
       <c r="L17" t="n">
-        <v>241.970267604391</v>
+        <v>279.2999384460995</v>
       </c>
       <c r="M17" t="n">
-        <v>269.2385453890944</v>
+        <v>310.7749968580306</v>
       </c>
       <c r="N17" t="n">
-        <v>273.5951065337231</v>
+        <v>315.8036612124496</v>
       </c>
       <c r="O17" t="n">
-        <v>258.3481008559754</v>
+        <v>298.2044421454002</v>
       </c>
       <c r="P17" t="n">
-        <v>220.4941269860174</v>
+        <v>254.5105921674962</v>
       </c>
       <c r="Q17" t="n">
-        <v>165.5819066632681</v>
+        <v>191.1268553641064</v>
       </c>
       <c r="R17" t="n">
-        <v>96.31775943731654</v>
+        <v>111.1770654652966</v>
       </c>
       <c r="S17" t="n">
-        <v>34.94065537464989</v>
+        <v>40.33108278973111</v>
       </c>
       <c r="T17" t="n">
-        <v>6.712132480637622</v>
+        <v>7.747638613803527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.122666041907712</v>
+        <v>0.141590197396752</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8204014819334781</v>
+        <v>0.9469679298769806</v>
       </c>
       <c r="H18" t="n">
-        <v>7.923351154462802</v>
+        <v>9.145716585917157</v>
       </c>
       <c r="I18" t="n">
-        <v>28.2462790928851</v>
+        <v>32.60393969093991</v>
       </c>
       <c r="J18" t="n">
-        <v>77.50994878214497</v>
+        <v>89.46770253280721</v>
       </c>
       <c r="K18" t="n">
-        <v>132.476848071688</v>
+        <v>152.9145538345649</v>
       </c>
       <c r="L18" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M18" t="n">
         <v>207.8710246109518</v>
@@ -32327,25 +32329,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O18" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P18" t="n">
-        <v>156.6607005281569</v>
+        <v>180.8293409253684</v>
       </c>
       <c r="Q18" t="n">
-        <v>104.7235295183857</v>
+        <v>120.8796255751739</v>
       </c>
       <c r="R18" t="n">
-        <v>50.93685692215053</v>
+        <v>58.79507901464273</v>
       </c>
       <c r="S18" t="n">
-        <v>15.23859770170297</v>
+        <v>17.58951396065356</v>
       </c>
       <c r="T18" t="n">
-        <v>3.306793692530114</v>
+        <v>3.81694529630239</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06230052170243296</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.687797043381101</v>
+        <v>0.7939061016943911</v>
       </c>
       <c r="H19" t="n">
-        <v>6.11514098569743</v>
+        <v>7.058546976882865</v>
       </c>
       <c r="I19" t="n">
-        <v>20.68393290458803</v>
+        <v>23.87492167640952</v>
       </c>
       <c r="J19" t="n">
-        <v>48.62725096704384</v>
+        <v>56.12916138979345</v>
       </c>
       <c r="K19" t="n">
-        <v>79.90951104009517</v>
+        <v>92.23745436049379</v>
       </c>
       <c r="L19" t="n">
-        <v>102.2566622495866</v>
+        <v>118.0321853373643</v>
       </c>
       <c r="M19" t="n">
-        <v>107.8153129001848</v>
+        <v>124.4483901046944</v>
       </c>
       <c r="N19" t="n">
-        <v>105.2517057384917</v>
+        <v>121.4892855438336</v>
       </c>
       <c r="O19" t="n">
-        <v>97.21698573172148</v>
+        <v>112.2150188104036</v>
       </c>
       <c r="P19" t="n">
-        <v>83.18592604674694</v>
+        <v>96.01933433583797</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.59362333257565</v>
+        <v>66.47881002460943</v>
       </c>
       <c r="R19" t="n">
-        <v>30.92585615057204</v>
+        <v>35.69690526345871</v>
       </c>
       <c r="S19" t="n">
-        <v>11.98642665601427</v>
+        <v>13.83561815407407</v>
       </c>
       <c r="T19" t="n">
-        <v>2.938769185355612</v>
+        <v>3.392144252694216</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.04330396918333048</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.533325523846401</v>
+        <v>1.7698774674594</v>
       </c>
       <c r="H20" t="n">
-        <v>15.70317002109195</v>
+        <v>18.12575761361859</v>
       </c>
       <c r="I20" t="n">
-        <v>59.11353225808841</v>
+        <v>68.23320106422858</v>
       </c>
       <c r="J20" t="n">
-        <v>130.1390871795585</v>
+        <v>150.2161377037824</v>
       </c>
       <c r="K20" t="n">
-        <v>195.0447566039767</v>
+        <v>225.1350509013388</v>
       </c>
       <c r="L20" t="n">
-        <v>241.970267604391</v>
+        <v>279.2999384460995</v>
       </c>
       <c r="M20" t="n">
-        <v>269.2385453890944</v>
+        <v>310.7749968580306</v>
       </c>
       <c r="N20" t="n">
-        <v>273.5951065337231</v>
+        <v>315.8036612124496</v>
       </c>
       <c r="O20" t="n">
-        <v>258.3481008559754</v>
+        <v>298.2044421454002</v>
       </c>
       <c r="P20" t="n">
-        <v>220.4941269860174</v>
+        <v>254.5105921674962</v>
       </c>
       <c r="Q20" t="n">
-        <v>165.5819066632681</v>
+        <v>191.1268553641064</v>
       </c>
       <c r="R20" t="n">
-        <v>96.31775943731654</v>
+        <v>111.1770654652966</v>
       </c>
       <c r="S20" t="n">
-        <v>34.94065537464989</v>
+        <v>40.33108278973111</v>
       </c>
       <c r="T20" t="n">
-        <v>6.712132480637622</v>
+        <v>7.747638613803527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.122666041907712</v>
+        <v>0.141590197396752</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8204014819334781</v>
+        <v>0.9469679298769806</v>
       </c>
       <c r="H21" t="n">
-        <v>7.923351154462802</v>
+        <v>9.145716585917157</v>
       </c>
       <c r="I21" t="n">
-        <v>28.2462790928851</v>
+        <v>32.60393969093991</v>
       </c>
       <c r="J21" t="n">
-        <v>77.50994878214497</v>
+        <v>89.46770253280721</v>
       </c>
       <c r="K21" t="n">
-        <v>132.476848071688</v>
+        <v>152.9145538345649</v>
       </c>
       <c r="L21" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M21" t="n">
         <v>207.8710246109518</v>
@@ -32564,25 +32566,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O21" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P21" t="n">
-        <v>156.6607005281569</v>
+        <v>180.8293409253684</v>
       </c>
       <c r="Q21" t="n">
-        <v>104.7235295183857</v>
+        <v>120.8796255751739</v>
       </c>
       <c r="R21" t="n">
-        <v>50.93685692215053</v>
+        <v>58.79507901464273</v>
       </c>
       <c r="S21" t="n">
-        <v>15.23859770170297</v>
+        <v>17.58951396065356</v>
       </c>
       <c r="T21" t="n">
-        <v>3.306793692530114</v>
+        <v>3.81694529630239</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06230052170243296</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.687797043381101</v>
+        <v>0.7939061016943911</v>
       </c>
       <c r="H22" t="n">
-        <v>6.11514098569743</v>
+        <v>7.058546976882865</v>
       </c>
       <c r="I22" t="n">
-        <v>20.68393290458803</v>
+        <v>23.87492167640952</v>
       </c>
       <c r="J22" t="n">
-        <v>48.62725096704384</v>
+        <v>56.12916138979345</v>
       </c>
       <c r="K22" t="n">
-        <v>79.90951104009517</v>
+        <v>92.23745436049379</v>
       </c>
       <c r="L22" t="n">
-        <v>102.2566622495866</v>
+        <v>118.0321853373643</v>
       </c>
       <c r="M22" t="n">
-        <v>107.8153129001848</v>
+        <v>124.4483901046944</v>
       </c>
       <c r="N22" t="n">
-        <v>105.2517057384917</v>
+        <v>121.4892855438336</v>
       </c>
       <c r="O22" t="n">
-        <v>97.21698573172148</v>
+        <v>112.2150188104036</v>
       </c>
       <c r="P22" t="n">
-        <v>83.18592604674694</v>
+        <v>96.01933433583797</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.59362333257565</v>
+        <v>66.47881002460943</v>
       </c>
       <c r="R22" t="n">
-        <v>30.92585615057204</v>
+        <v>35.69690526345871</v>
       </c>
       <c r="S22" t="n">
-        <v>11.98642665601427</v>
+        <v>13.83561815407407</v>
       </c>
       <c r="T22" t="n">
-        <v>2.938769185355612</v>
+        <v>3.392144252694216</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.04330396918333048</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.5333255238464</v>
+        <v>1.7698774674594</v>
       </c>
       <c r="H23" t="n">
-        <v>15.70317002109195</v>
+        <v>18.12575761361859</v>
       </c>
       <c r="I23" t="n">
-        <v>59.11353225808841</v>
+        <v>68.23320106422858</v>
       </c>
       <c r="J23" t="n">
-        <v>130.1390871795585</v>
+        <v>150.2161377037824</v>
       </c>
       <c r="K23" t="n">
-        <v>195.0447566039767</v>
+        <v>225.1350509013388</v>
       </c>
       <c r="L23" t="n">
-        <v>241.970267604391</v>
+        <v>279.2999384460995</v>
       </c>
       <c r="M23" t="n">
-        <v>269.2385453890944</v>
+        <v>310.7749968580306</v>
       </c>
       <c r="N23" t="n">
-        <v>273.5951065337231</v>
+        <v>315.8036612124496</v>
       </c>
       <c r="O23" t="n">
-        <v>258.3481008559754</v>
+        <v>298.2044421454002</v>
       </c>
       <c r="P23" t="n">
-        <v>220.4941269860173</v>
+        <v>254.5105921674962</v>
       </c>
       <c r="Q23" t="n">
-        <v>165.5819066632681</v>
+        <v>191.1268553641064</v>
       </c>
       <c r="R23" t="n">
-        <v>96.31775943731652</v>
+        <v>111.1770654652966</v>
       </c>
       <c r="S23" t="n">
-        <v>34.94065537464989</v>
+        <v>40.33108278973111</v>
       </c>
       <c r="T23" t="n">
-        <v>6.712132480637621</v>
+        <v>7.747638613803527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.122666041907712</v>
+        <v>0.141590197396752</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8204014819334779</v>
+        <v>0.9469679298769806</v>
       </c>
       <c r="H24" t="n">
-        <v>7.923351154462802</v>
+        <v>9.145716585917157</v>
       </c>
       <c r="I24" t="n">
-        <v>28.2462790928851</v>
+        <v>32.60393969093991</v>
       </c>
       <c r="J24" t="n">
-        <v>77.50994878214496</v>
+        <v>89.46770253280721</v>
       </c>
       <c r="K24" t="n">
-        <v>132.476848071688</v>
+        <v>152.9145538345649</v>
       </c>
       <c r="L24" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M24" t="n">
         <v>207.8710246109518</v>
@@ -32801,25 +32803,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O24" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P24" t="n">
-        <v>156.6607005281569</v>
+        <v>180.8293409253684</v>
       </c>
       <c r="Q24" t="n">
-        <v>104.7235295183857</v>
+        <v>120.8796255751739</v>
       </c>
       <c r="R24" t="n">
-        <v>50.93685692215052</v>
+        <v>58.79507901464273</v>
       </c>
       <c r="S24" t="n">
-        <v>15.23859770170297</v>
+        <v>17.58951396065356</v>
       </c>
       <c r="T24" t="n">
-        <v>3.306793692530114</v>
+        <v>3.81694529630239</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06230052170243296</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6877970433811009</v>
+        <v>0.7939061016943911</v>
       </c>
       <c r="H25" t="n">
-        <v>6.115140985697429</v>
+        <v>7.058546976882865</v>
       </c>
       <c r="I25" t="n">
-        <v>20.68393290458802</v>
+        <v>23.87492167640952</v>
       </c>
       <c r="J25" t="n">
-        <v>48.62725096704384</v>
+        <v>56.12916138979345</v>
       </c>
       <c r="K25" t="n">
-        <v>79.90951104009515</v>
+        <v>92.23745436049379</v>
       </c>
       <c r="L25" t="n">
-        <v>102.2566622495866</v>
+        <v>118.0321853373643</v>
       </c>
       <c r="M25" t="n">
-        <v>107.8153129001847</v>
+        <v>124.4483901046944</v>
       </c>
       <c r="N25" t="n">
-        <v>105.2517057384916</v>
+        <v>121.4892855438336</v>
       </c>
       <c r="O25" t="n">
-        <v>97.21698573172148</v>
+        <v>112.2150188104036</v>
       </c>
       <c r="P25" t="n">
-        <v>83.18592604674694</v>
+        <v>96.01933433583797</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.59362333257565</v>
+        <v>66.47881002460943</v>
       </c>
       <c r="R25" t="n">
-        <v>30.92585615057204</v>
+        <v>35.69690526345871</v>
       </c>
       <c r="S25" t="n">
-        <v>11.98642665601427</v>
+        <v>13.83561815407407</v>
       </c>
       <c r="T25" t="n">
-        <v>2.938769185355612</v>
+        <v>3.392144252694216</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03751620236624191</v>
+        <v>0.04330396918333048</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.533325523846401</v>
+        <v>1.7698774674594</v>
       </c>
       <c r="H26" t="n">
-        <v>15.70317002109195</v>
+        <v>18.12575761361859</v>
       </c>
       <c r="I26" t="n">
-        <v>59.11353225808841</v>
+        <v>68.23320106422858</v>
       </c>
       <c r="J26" t="n">
-        <v>130.1390871795585</v>
+        <v>150.2161377037824</v>
       </c>
       <c r="K26" t="n">
-        <v>195.0447566039767</v>
+        <v>225.1350509013388</v>
       </c>
       <c r="L26" t="n">
-        <v>241.970267604391</v>
+        <v>279.2999384460995</v>
       </c>
       <c r="M26" t="n">
-        <v>269.2385453890944</v>
+        <v>310.7749968580306</v>
       </c>
       <c r="N26" t="n">
-        <v>273.5951065337231</v>
+        <v>315.8036612124496</v>
       </c>
       <c r="O26" t="n">
-        <v>258.3481008559754</v>
+        <v>298.2044421454002</v>
       </c>
       <c r="P26" t="n">
-        <v>220.4941269860174</v>
+        <v>254.5105921674962</v>
       </c>
       <c r="Q26" t="n">
-        <v>165.5819066632681</v>
+        <v>191.1268553641064</v>
       </c>
       <c r="R26" t="n">
-        <v>96.31775943731654</v>
+        <v>111.1770654652966</v>
       </c>
       <c r="S26" t="n">
-        <v>34.94065537464989</v>
+        <v>40.33108278973111</v>
       </c>
       <c r="T26" t="n">
-        <v>6.712132480637622</v>
+        <v>7.747638613803527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.122666041907712</v>
+        <v>0.141590197396752</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8204014819334781</v>
+        <v>0.9469679298769806</v>
       </c>
       <c r="H27" t="n">
-        <v>7.923351154462802</v>
+        <v>9.145716585917157</v>
       </c>
       <c r="I27" t="n">
-        <v>28.2462790928851</v>
+        <v>32.60393969093991</v>
       </c>
       <c r="J27" t="n">
-        <v>77.50994878214497</v>
+        <v>89.46770253280721</v>
       </c>
       <c r="K27" t="n">
-        <v>132.476848071688</v>
+        <v>152.9145538345649</v>
       </c>
       <c r="L27" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M27" t="n">
         <v>207.8710246109518</v>
@@ -33038,25 +33040,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O27" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P27" t="n">
-        <v>156.6607005281569</v>
+        <v>180.8293409253684</v>
       </c>
       <c r="Q27" t="n">
-        <v>104.7235295183857</v>
+        <v>120.8796255751739</v>
       </c>
       <c r="R27" t="n">
-        <v>50.93685692215053</v>
+        <v>58.79507901464273</v>
       </c>
       <c r="S27" t="n">
-        <v>15.23859770170297</v>
+        <v>17.58951396065356</v>
       </c>
       <c r="T27" t="n">
-        <v>3.306793692530114</v>
+        <v>3.81694529630239</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06230052170243296</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.687797043381101</v>
+        <v>0.7939061016943911</v>
       </c>
       <c r="H28" t="n">
-        <v>6.11514098569743</v>
+        <v>7.058546976882865</v>
       </c>
       <c r="I28" t="n">
-        <v>20.68393290458803</v>
+        <v>23.87492167640952</v>
       </c>
       <c r="J28" t="n">
-        <v>48.62725096704384</v>
+        <v>56.12916138979345</v>
       </c>
       <c r="K28" t="n">
-        <v>79.90951104009517</v>
+        <v>92.23745436049379</v>
       </c>
       <c r="L28" t="n">
-        <v>102.2566622495866</v>
+        <v>118.0321853373643</v>
       </c>
       <c r="M28" t="n">
-        <v>107.8153129001848</v>
+        <v>124.4483901046944</v>
       </c>
       <c r="N28" t="n">
-        <v>105.2517057384917</v>
+        <v>121.4892855438336</v>
       </c>
       <c r="O28" t="n">
-        <v>97.21698573172148</v>
+        <v>112.2150188104036</v>
       </c>
       <c r="P28" t="n">
-        <v>83.18592604674694</v>
+        <v>96.01933433583797</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.59362333257565</v>
+        <v>66.47881002460943</v>
       </c>
       <c r="R28" t="n">
-        <v>30.92585615057204</v>
+        <v>35.69690526345871</v>
       </c>
       <c r="S28" t="n">
-        <v>11.98642665601427</v>
+        <v>13.83561815407407</v>
       </c>
       <c r="T28" t="n">
-        <v>2.938769185355612</v>
+        <v>3.392144252694216</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.04330396918333048</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.533325523846401</v>
+        <v>1.7698774674594</v>
       </c>
       <c r="H29" t="n">
-        <v>15.70317002109195</v>
+        <v>18.12575761361859</v>
       </c>
       <c r="I29" t="n">
-        <v>59.11353225808841</v>
+        <v>68.23320106422858</v>
       </c>
       <c r="J29" t="n">
-        <v>130.1390871795585</v>
+        <v>150.2161377037824</v>
       </c>
       <c r="K29" t="n">
-        <v>195.0447566039767</v>
+        <v>225.1350509013388</v>
       </c>
       <c r="L29" t="n">
-        <v>241.970267604391</v>
+        <v>279.2999384460995</v>
       </c>
       <c r="M29" t="n">
-        <v>269.2385453890944</v>
+        <v>310.7749968580306</v>
       </c>
       <c r="N29" t="n">
-        <v>273.5951065337231</v>
+        <v>315.8036612124496</v>
       </c>
       <c r="O29" t="n">
-        <v>258.3481008559754</v>
+        <v>298.2044421454002</v>
       </c>
       <c r="P29" t="n">
-        <v>220.4941269860174</v>
+        <v>254.5105921674962</v>
       </c>
       <c r="Q29" t="n">
-        <v>165.5819066632681</v>
+        <v>191.1268553641064</v>
       </c>
       <c r="R29" t="n">
-        <v>96.31775943731654</v>
+        <v>111.1770654652966</v>
       </c>
       <c r="S29" t="n">
-        <v>34.94065537464989</v>
+        <v>40.33108278973111</v>
       </c>
       <c r="T29" t="n">
-        <v>6.712132480637622</v>
+        <v>7.747638613803527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.122666041907712</v>
+        <v>0.141590197396752</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8204014819334781</v>
+        <v>0.9469679298769806</v>
       </c>
       <c r="H30" t="n">
-        <v>7.923351154462802</v>
+        <v>9.145716585917157</v>
       </c>
       <c r="I30" t="n">
-        <v>28.2462790928851</v>
+        <v>32.60393969093991</v>
       </c>
       <c r="J30" t="n">
-        <v>77.50994878214497</v>
+        <v>89.46770253280721</v>
       </c>
       <c r="K30" t="n">
-        <v>132.476848071688</v>
+        <v>152.9145538345649</v>
       </c>
       <c r="L30" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M30" t="n">
         <v>207.8710246109518</v>
@@ -33275,25 +33277,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O30" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P30" t="n">
-        <v>156.6607005281569</v>
+        <v>180.8293409253684</v>
       </c>
       <c r="Q30" t="n">
-        <v>104.7235295183857</v>
+        <v>120.8796255751739</v>
       </c>
       <c r="R30" t="n">
-        <v>50.93685692215053</v>
+        <v>58.79507901464273</v>
       </c>
       <c r="S30" t="n">
-        <v>15.23859770170297</v>
+        <v>17.58951396065356</v>
       </c>
       <c r="T30" t="n">
-        <v>3.306793692530114</v>
+        <v>3.81694529630239</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06230052170243296</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.687797043381101</v>
+        <v>0.7939061016943911</v>
       </c>
       <c r="H31" t="n">
-        <v>6.11514098569743</v>
+        <v>7.058546976882865</v>
       </c>
       <c r="I31" t="n">
-        <v>20.68393290458803</v>
+        <v>23.87492167640952</v>
       </c>
       <c r="J31" t="n">
-        <v>48.62725096704384</v>
+        <v>56.12916138979345</v>
       </c>
       <c r="K31" t="n">
-        <v>79.90951104009517</v>
+        <v>92.23745436049379</v>
       </c>
       <c r="L31" t="n">
-        <v>102.2566622495866</v>
+        <v>118.0321853373643</v>
       </c>
       <c r="M31" t="n">
-        <v>107.8153129001848</v>
+        <v>124.4483901046944</v>
       </c>
       <c r="N31" t="n">
-        <v>105.2517057384917</v>
+        <v>121.4892855438336</v>
       </c>
       <c r="O31" t="n">
-        <v>97.21698573172148</v>
+        <v>112.2150188104036</v>
       </c>
       <c r="P31" t="n">
-        <v>83.18592604674694</v>
+        <v>96.01933433583797</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.59362333257565</v>
+        <v>66.47881002460943</v>
       </c>
       <c r="R31" t="n">
-        <v>30.92585615057204</v>
+        <v>35.69690526345871</v>
       </c>
       <c r="S31" t="n">
-        <v>11.98642665601427</v>
+        <v>13.83561815407407</v>
       </c>
       <c r="T31" t="n">
-        <v>2.938769185355612</v>
+        <v>3.392144252694216</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.04330396918333048</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.533325523846401</v>
+        <v>1.7698774674594</v>
       </c>
       <c r="H32" t="n">
-        <v>15.70317002109195</v>
+        <v>18.12575761361859</v>
       </c>
       <c r="I32" t="n">
-        <v>59.11353225808841</v>
+        <v>68.23320106422858</v>
       </c>
       <c r="J32" t="n">
-        <v>130.1390871795585</v>
+        <v>150.2161377037824</v>
       </c>
       <c r="K32" t="n">
-        <v>195.0447566039767</v>
+        <v>225.1350509013388</v>
       </c>
       <c r="L32" t="n">
-        <v>241.970267604391</v>
+        <v>279.2999384460995</v>
       </c>
       <c r="M32" t="n">
-        <v>269.2385453890944</v>
+        <v>310.7749968580306</v>
       </c>
       <c r="N32" t="n">
-        <v>273.5951065337231</v>
+        <v>315.8036612124496</v>
       </c>
       <c r="O32" t="n">
-        <v>258.3481008559754</v>
+        <v>298.2044421454002</v>
       </c>
       <c r="P32" t="n">
-        <v>220.4941269860174</v>
+        <v>254.5105921674962</v>
       </c>
       <c r="Q32" t="n">
-        <v>165.5819066632681</v>
+        <v>191.1268553641064</v>
       </c>
       <c r="R32" t="n">
-        <v>96.31775943731654</v>
+        <v>111.1770654652966</v>
       </c>
       <c r="S32" t="n">
-        <v>34.94065537464989</v>
+        <v>40.33108278973111</v>
       </c>
       <c r="T32" t="n">
-        <v>6.712132480637622</v>
+        <v>7.747638613803527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.122666041907712</v>
+        <v>0.141590197396752</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8204014819334781</v>
+        <v>0.9469679298769806</v>
       </c>
       <c r="H33" t="n">
-        <v>7.923351154462802</v>
+        <v>9.145716585917157</v>
       </c>
       <c r="I33" t="n">
-        <v>28.2462790928851</v>
+        <v>32.60393969093991</v>
       </c>
       <c r="J33" t="n">
-        <v>77.50994878214497</v>
+        <v>89.46770253280721</v>
       </c>
       <c r="K33" t="n">
-        <v>132.476848071688</v>
+        <v>152.9145538345649</v>
       </c>
       <c r="L33" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M33" t="n">
         <v>207.8710246109518</v>
@@ -33512,25 +33514,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O33" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P33" t="n">
-        <v>156.6607005281569</v>
+        <v>180.8293409253684</v>
       </c>
       <c r="Q33" t="n">
-        <v>104.7235295183857</v>
+        <v>120.8796255751739</v>
       </c>
       <c r="R33" t="n">
-        <v>50.93685692215053</v>
+        <v>58.79507901464273</v>
       </c>
       <c r="S33" t="n">
-        <v>15.23859770170297</v>
+        <v>17.58951396065356</v>
       </c>
       <c r="T33" t="n">
-        <v>3.306793692530114</v>
+        <v>3.81694529630239</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06230052170243296</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.687797043381101</v>
+        <v>0.7939061016943911</v>
       </c>
       <c r="H34" t="n">
-        <v>6.11514098569743</v>
+        <v>7.058546976882865</v>
       </c>
       <c r="I34" t="n">
-        <v>20.68393290458803</v>
+        <v>23.87492167640952</v>
       </c>
       <c r="J34" t="n">
-        <v>48.62725096704384</v>
+        <v>56.12916138979345</v>
       </c>
       <c r="K34" t="n">
-        <v>79.90951104009517</v>
+        <v>92.23745436049379</v>
       </c>
       <c r="L34" t="n">
-        <v>102.2566622495866</v>
+        <v>118.0321853373643</v>
       </c>
       <c r="M34" t="n">
-        <v>107.8153129001848</v>
+        <v>124.4483901046944</v>
       </c>
       <c r="N34" t="n">
-        <v>105.2517057384917</v>
+        <v>121.4892855438336</v>
       </c>
       <c r="O34" t="n">
-        <v>97.21698573172148</v>
+        <v>112.2150188104036</v>
       </c>
       <c r="P34" t="n">
-        <v>83.18592604674694</v>
+        <v>96.01933433583797</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.59362333257565</v>
+        <v>66.47881002460943</v>
       </c>
       <c r="R34" t="n">
-        <v>30.92585615057204</v>
+        <v>35.69690526345871</v>
       </c>
       <c r="S34" t="n">
-        <v>11.98642665601427</v>
+        <v>13.83561815407407</v>
       </c>
       <c r="T34" t="n">
-        <v>2.938769185355612</v>
+        <v>3.392144252694216</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.04330396918333048</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.533325523846401</v>
+        <v>1.7698774674594</v>
       </c>
       <c r="H35" t="n">
-        <v>15.70317002109195</v>
+        <v>18.12575761361859</v>
       </c>
       <c r="I35" t="n">
-        <v>59.11353225808841</v>
+        <v>68.23320106422858</v>
       </c>
       <c r="J35" t="n">
-        <v>130.1390871795585</v>
+        <v>150.2161377037824</v>
       </c>
       <c r="K35" t="n">
-        <v>195.0447566039767</v>
+        <v>225.1350509013388</v>
       </c>
       <c r="L35" t="n">
-        <v>241.970267604391</v>
+        <v>279.2999384460995</v>
       </c>
       <c r="M35" t="n">
-        <v>269.2385453890944</v>
+        <v>310.7749968580306</v>
       </c>
       <c r="N35" t="n">
-        <v>273.5951065337231</v>
+        <v>315.8036612124496</v>
       </c>
       <c r="O35" t="n">
-        <v>258.3481008559754</v>
+        <v>298.2044421454002</v>
       </c>
       <c r="P35" t="n">
-        <v>220.4941269860174</v>
+        <v>254.5105921674962</v>
       </c>
       <c r="Q35" t="n">
-        <v>165.5819066632681</v>
+        <v>191.1268553641064</v>
       </c>
       <c r="R35" t="n">
-        <v>96.31775943731654</v>
+        <v>111.1770654652966</v>
       </c>
       <c r="S35" t="n">
-        <v>34.94065537464989</v>
+        <v>40.33108278973111</v>
       </c>
       <c r="T35" t="n">
-        <v>6.712132480637622</v>
+        <v>7.747638613803527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.122666041907712</v>
+        <v>0.141590197396752</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8204014819334781</v>
+        <v>0.9469679298769806</v>
       </c>
       <c r="H36" t="n">
-        <v>7.923351154462802</v>
+        <v>9.145716585917157</v>
       </c>
       <c r="I36" t="n">
-        <v>28.2462790928851</v>
+        <v>32.60393969093991</v>
       </c>
       <c r="J36" t="n">
-        <v>77.50994878214497</v>
+        <v>89.46770253280721</v>
       </c>
       <c r="K36" t="n">
-        <v>132.476848071688</v>
+        <v>152.9145538345649</v>
       </c>
       <c r="L36" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M36" t="n">
         <v>207.8710246109518</v>
@@ -33749,25 +33751,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O36" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P36" t="n">
-        <v>156.6607005281569</v>
+        <v>180.8293409253684</v>
       </c>
       <c r="Q36" t="n">
-        <v>104.7235295183857</v>
+        <v>120.8796255751739</v>
       </c>
       <c r="R36" t="n">
-        <v>50.93685692215053</v>
+        <v>58.79507901464273</v>
       </c>
       <c r="S36" t="n">
-        <v>15.23859770170297</v>
+        <v>17.58951396065356</v>
       </c>
       <c r="T36" t="n">
-        <v>3.306793692530114</v>
+        <v>3.81694529630239</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06230052170243296</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.687797043381101</v>
+        <v>0.7939061016943911</v>
       </c>
       <c r="H37" t="n">
-        <v>6.11514098569743</v>
+        <v>7.058546976882865</v>
       </c>
       <c r="I37" t="n">
-        <v>20.68393290458803</v>
+        <v>23.87492167640952</v>
       </c>
       <c r="J37" t="n">
-        <v>48.62725096704384</v>
+        <v>56.12916138979345</v>
       </c>
       <c r="K37" t="n">
-        <v>79.90951104009517</v>
+        <v>92.23745436049379</v>
       </c>
       <c r="L37" t="n">
-        <v>102.2566622495866</v>
+        <v>118.0321853373643</v>
       </c>
       <c r="M37" t="n">
-        <v>107.8153129001848</v>
+        <v>124.4483901046944</v>
       </c>
       <c r="N37" t="n">
-        <v>105.2517057384917</v>
+        <v>121.4892855438336</v>
       </c>
       <c r="O37" t="n">
-        <v>97.21698573172148</v>
+        <v>112.2150188104036</v>
       </c>
       <c r="P37" t="n">
-        <v>83.18592604674694</v>
+        <v>96.01933433583797</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.59362333257565</v>
+        <v>66.47881002460943</v>
       </c>
       <c r="R37" t="n">
-        <v>30.92585615057204</v>
+        <v>35.69690526345871</v>
       </c>
       <c r="S37" t="n">
-        <v>11.98642665601427</v>
+        <v>13.83561815407407</v>
       </c>
       <c r="T37" t="n">
-        <v>2.938769185355612</v>
+        <v>3.392144252694216</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.04330396918333048</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.533325523846401</v>
+        <v>1.7698774674594</v>
       </c>
       <c r="H38" t="n">
-        <v>15.70317002109195</v>
+        <v>18.12575761361859</v>
       </c>
       <c r="I38" t="n">
-        <v>59.11353225808841</v>
+        <v>68.23320106422858</v>
       </c>
       <c r="J38" t="n">
-        <v>130.1390871795585</v>
+        <v>150.2161377037824</v>
       </c>
       <c r="K38" t="n">
-        <v>195.0447566039767</v>
+        <v>225.1350509013388</v>
       </c>
       <c r="L38" t="n">
-        <v>241.970267604391</v>
+        <v>279.2999384460995</v>
       </c>
       <c r="M38" t="n">
-        <v>269.2385453890944</v>
+        <v>310.7749968580306</v>
       </c>
       <c r="N38" t="n">
-        <v>273.5951065337231</v>
+        <v>315.8036612124496</v>
       </c>
       <c r="O38" t="n">
-        <v>258.3481008559754</v>
+        <v>298.2044421454002</v>
       </c>
       <c r="P38" t="n">
-        <v>220.4941269860174</v>
+        <v>254.5105921674962</v>
       </c>
       <c r="Q38" t="n">
-        <v>165.5819066632681</v>
+        <v>191.1268553641064</v>
       </c>
       <c r="R38" t="n">
-        <v>96.31775943731654</v>
+        <v>111.1770654652966</v>
       </c>
       <c r="S38" t="n">
-        <v>34.94065537464989</v>
+        <v>40.33108278973111</v>
       </c>
       <c r="T38" t="n">
-        <v>6.712132480637622</v>
+        <v>7.747638613803527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.122666041907712</v>
+        <v>0.141590197396752</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8204014819334781</v>
+        <v>0.9469679298769806</v>
       </c>
       <c r="H39" t="n">
-        <v>7.923351154462802</v>
+        <v>9.145716585917157</v>
       </c>
       <c r="I39" t="n">
-        <v>28.2462790928851</v>
+        <v>32.60393969093991</v>
       </c>
       <c r="J39" t="n">
-        <v>77.50994878214497</v>
+        <v>89.46770253280721</v>
       </c>
       <c r="K39" t="n">
-        <v>132.476848071688</v>
+        <v>152.9145538345649</v>
       </c>
       <c r="L39" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M39" t="n">
         <v>207.8710246109518</v>
@@ -33986,25 +33988,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O39" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P39" t="n">
-        <v>156.6607005281569</v>
+        <v>180.8293409253684</v>
       </c>
       <c r="Q39" t="n">
-        <v>104.7235295183857</v>
+        <v>120.8796255751739</v>
       </c>
       <c r="R39" t="n">
-        <v>50.93685692215053</v>
+        <v>58.79507901464273</v>
       </c>
       <c r="S39" t="n">
-        <v>15.23859770170297</v>
+        <v>17.58951396065356</v>
       </c>
       <c r="T39" t="n">
-        <v>3.306793692530114</v>
+        <v>3.81694529630239</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06230052170243296</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.687797043381101</v>
+        <v>0.7939061016943911</v>
       </c>
       <c r="H40" t="n">
-        <v>6.11514098569743</v>
+        <v>7.058546976882865</v>
       </c>
       <c r="I40" t="n">
-        <v>20.68393290458803</v>
+        <v>23.87492167640952</v>
       </c>
       <c r="J40" t="n">
-        <v>48.62725096704384</v>
+        <v>56.12916138979345</v>
       </c>
       <c r="K40" t="n">
-        <v>79.90951104009517</v>
+        <v>92.23745436049379</v>
       </c>
       <c r="L40" t="n">
-        <v>102.2566622495866</v>
+        <v>118.0321853373643</v>
       </c>
       <c r="M40" t="n">
-        <v>107.8153129001848</v>
+        <v>124.4483901046944</v>
       </c>
       <c r="N40" t="n">
-        <v>105.2517057384917</v>
+        <v>121.4892855438336</v>
       </c>
       <c r="O40" t="n">
-        <v>97.21698573172148</v>
+        <v>112.2150188104036</v>
       </c>
       <c r="P40" t="n">
-        <v>83.18592604674694</v>
+        <v>96.01933433583797</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.59362333257565</v>
+        <v>66.47881002460943</v>
       </c>
       <c r="R40" t="n">
-        <v>30.92585615057204</v>
+        <v>35.69690526345871</v>
       </c>
       <c r="S40" t="n">
-        <v>11.98642665601427</v>
+        <v>13.83561815407407</v>
       </c>
       <c r="T40" t="n">
-        <v>2.938769185355612</v>
+        <v>3.392144252694216</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.04330396918333048</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.533325523846401</v>
+        <v>1.7698774674594</v>
       </c>
       <c r="H41" t="n">
-        <v>15.70317002109195</v>
+        <v>18.12575761361859</v>
       </c>
       <c r="I41" t="n">
-        <v>59.11353225808841</v>
+        <v>68.23320106422858</v>
       </c>
       <c r="J41" t="n">
-        <v>130.1390871795585</v>
+        <v>150.2161377037824</v>
       </c>
       <c r="K41" t="n">
-        <v>195.0447566039767</v>
+        <v>225.1350509013388</v>
       </c>
       <c r="L41" t="n">
-        <v>241.970267604391</v>
+        <v>279.2999384460995</v>
       </c>
       <c r="M41" t="n">
-        <v>269.2385453890944</v>
+        <v>310.7749968580306</v>
       </c>
       <c r="N41" t="n">
-        <v>273.5951065337231</v>
+        <v>315.8036612124496</v>
       </c>
       <c r="O41" t="n">
-        <v>258.3481008559754</v>
+        <v>298.2044421454002</v>
       </c>
       <c r="P41" t="n">
-        <v>220.4941269860174</v>
+        <v>254.5105921674962</v>
       </c>
       <c r="Q41" t="n">
-        <v>165.5819066632681</v>
+        <v>191.1268553641064</v>
       </c>
       <c r="R41" t="n">
-        <v>96.31775943731654</v>
+        <v>111.1770654652966</v>
       </c>
       <c r="S41" t="n">
-        <v>34.94065537464989</v>
+        <v>40.33108278973111</v>
       </c>
       <c r="T41" t="n">
-        <v>6.712132480637622</v>
+        <v>7.747638613803527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.122666041907712</v>
+        <v>0.141590197396752</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8204014819334781</v>
+        <v>0.9469679298769806</v>
       </c>
       <c r="H42" t="n">
-        <v>7.923351154462802</v>
+        <v>9.145716585917157</v>
       </c>
       <c r="I42" t="n">
-        <v>28.2462790928851</v>
+        <v>32.60393969093991</v>
       </c>
       <c r="J42" t="n">
-        <v>77.50994878214497</v>
+        <v>89.46770253280721</v>
       </c>
       <c r="K42" t="n">
-        <v>132.476848071688</v>
+        <v>152.9145538345649</v>
       </c>
       <c r="L42" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M42" t="n">
         <v>207.8710246109518</v>
@@ -34223,25 +34225,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O42" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P42" t="n">
-        <v>156.6607005281569</v>
+        <v>180.8293409253684</v>
       </c>
       <c r="Q42" t="n">
-        <v>104.7235295183857</v>
+        <v>120.8796255751739</v>
       </c>
       <c r="R42" t="n">
-        <v>50.93685692215053</v>
+        <v>58.79507901464273</v>
       </c>
       <c r="S42" t="n">
-        <v>15.23859770170297</v>
+        <v>17.58951396065356</v>
       </c>
       <c r="T42" t="n">
-        <v>3.306793692530114</v>
+        <v>3.81694529630239</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06230052170243296</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.687797043381101</v>
+        <v>0.7939061016943911</v>
       </c>
       <c r="H43" t="n">
-        <v>6.11514098569743</v>
+        <v>7.058546976882865</v>
       </c>
       <c r="I43" t="n">
-        <v>20.68393290458803</v>
+        <v>23.87492167640952</v>
       </c>
       <c r="J43" t="n">
-        <v>48.62725096704384</v>
+        <v>56.12916138979345</v>
       </c>
       <c r="K43" t="n">
-        <v>79.90951104009517</v>
+        <v>92.23745436049379</v>
       </c>
       <c r="L43" t="n">
-        <v>102.2566622495866</v>
+        <v>118.0321853373643</v>
       </c>
       <c r="M43" t="n">
-        <v>107.8153129001848</v>
+        <v>124.4483901046944</v>
       </c>
       <c r="N43" t="n">
-        <v>105.2517057384917</v>
+        <v>121.4892855438336</v>
       </c>
       <c r="O43" t="n">
-        <v>97.21698573172148</v>
+        <v>112.2150188104036</v>
       </c>
       <c r="P43" t="n">
-        <v>83.18592604674694</v>
+        <v>96.01933433583797</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.59362333257565</v>
+        <v>66.47881002460943</v>
       </c>
       <c r="R43" t="n">
-        <v>30.92585615057204</v>
+        <v>35.69690526345871</v>
       </c>
       <c r="S43" t="n">
-        <v>11.98642665601427</v>
+        <v>13.83561815407407</v>
       </c>
       <c r="T43" t="n">
-        <v>2.938769185355612</v>
+        <v>3.392144252694216</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.04330396918333048</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.533325523846401</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H44" t="n">
-        <v>15.70317002109195</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I44" t="n">
-        <v>59.11353225808841</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J44" t="n">
-        <v>130.1390871795585</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K44" t="n">
-        <v>195.0447566039767</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L44" t="n">
-        <v>241.970267604391</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M44" t="n">
-        <v>269.2385453890944</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N44" t="n">
-        <v>273.5951065337231</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O44" t="n">
-        <v>258.3481008559754</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P44" t="n">
-        <v>220.4941269860174</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q44" t="n">
-        <v>165.5819066632681</v>
+        <v>203.0572840332873</v>
       </c>
       <c r="R44" t="n">
-        <v>96.31775943731654</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S44" t="n">
-        <v>34.94065537464989</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T44" t="n">
-        <v>6.712132480637622</v>
+        <v>8.23125798618574</v>
       </c>
       <c r="U44" t="n">
-        <v>0.122666041907712</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8204014819334781</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H45" t="n">
-        <v>7.923351154462802</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I45" t="n">
-        <v>28.2462790928851</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J45" t="n">
-        <v>77.50994878214497</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K45" t="n">
-        <v>132.476848071688</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L45" t="n">
-        <v>178.1314708908633</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M45" t="n">
         <v>207.8710246109518</v>
@@ -34460,25 +34462,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O45" t="n">
-        <v>195.1943824142341</v>
+        <v>208.5470075</v>
       </c>
       <c r="P45" t="n">
-        <v>156.6607005281569</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q45" t="n">
-        <v>104.7235295183857</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R45" t="n">
-        <v>50.93685692215053</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S45" t="n">
-        <v>15.23859770170297</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T45" t="n">
-        <v>3.306793692530114</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.06618941491321521</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.687797043381101</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H46" t="n">
-        <v>6.11514098569743</v>
+        <v>7.499152202429724</v>
       </c>
       <c r="I46" t="n">
-        <v>20.68393290458803</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J46" t="n">
-        <v>48.62725096704384</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K46" t="n">
-        <v>79.90951104009517</v>
+        <v>97.99505638757849</v>
       </c>
       <c r="L46" t="n">
-        <v>102.2566622495866</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M46" t="n">
-        <v>107.8153129001848</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N46" t="n">
-        <v>105.2517057384917</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O46" t="n">
-        <v>97.21698573172148</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P46" t="n">
-        <v>83.18592604674694</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.59362333257565</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R46" t="n">
-        <v>30.92585615057204</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S46" t="n">
-        <v>11.98642665601427</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T46" t="n">
-        <v>2.938769185355612</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_7_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_7_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>90660.81360012008</v>
+        <v>-46792.8136726165</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1431322.953036222</v>
+        <v>1723261.603098231</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24623826.4965115</v>
+        <v>24114906.02560725</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5090977.267029678</v>
+        <v>5345138.244052919</v>
       </c>
     </row>
     <row r="11">
@@ -8063,19 +8063,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L3" t="n">
-        <v>96.41848977889939</v>
+        <v>58.22273991262165</v>
       </c>
       <c r="M3" t="n">
-        <v>121.083316575</v>
+        <v>39.34781785249876</v>
       </c>
       <c r="N3" t="n">
-        <v>103.0025334990966</v>
+        <v>19.10373933697781</v>
       </c>
       <c r="O3" t="n">
-        <v>102.4042030119497</v>
+        <v>50.30088672752632</v>
       </c>
       <c r="P3" t="n">
-        <v>82.80031984638366</v>
+        <v>68.93110769910052</v>
       </c>
       <c r="Q3" t="n">
         <v>54.62009481132077</v>
@@ -8227,7 +8227,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N5" t="n">
-        <v>113.7102003471159</v>
+        <v>111.9488011414238</v>
       </c>
       <c r="O5" t="n">
         <v>99.00804712831379</v>
@@ -8300,19 +8300,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>96.41848977889939</v>
+        <v>57.07593346819698</v>
       </c>
       <c r="M6" t="n">
-        <v>83.92045636931252</v>
+        <v>38.00954882322065</v>
       </c>
       <c r="N6" t="n">
-        <v>64.85608296530633</v>
+        <v>17.73005030863848</v>
       </c>
       <c r="O6" t="n">
-        <v>92.15534270158889</v>
+        <v>49.04422963853116</v>
       </c>
       <c r="P6" t="n">
-        <v>82.80031984638366</v>
+        <v>67.92252959633595</v>
       </c>
       <c r="Q6" t="n">
         <v>54.62009481132077</v>
@@ -8461,10 +8461,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M8" t="n">
-        <v>116.8735187081365</v>
+        <v>94.50134181136147</v>
       </c>
       <c r="N8" t="n">
-        <v>113.7102003471159</v>
+        <v>89.21461903306817</v>
       </c>
       <c r="O8" t="n">
         <v>99.00804712831379</v>
@@ -8537,19 +8537,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>58.22273991262165</v>
+        <v>42.27423123832551</v>
       </c>
       <c r="M9" t="n">
-        <v>39.34781785249876</v>
+        <v>20.73666047215158</v>
       </c>
       <c r="N9" t="n">
-        <v>19.10373933697781</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>50.30088672752632</v>
+        <v>32.82469745261383</v>
       </c>
       <c r="P9" t="n">
-        <v>68.93110769910052</v>
+        <v>54.90492507792075</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -8695,19 +8695,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>65.50844344750686</v>
+        <v>50.04010588902622</v>
       </c>
       <c r="M11" t="n">
-        <v>26.10636923685576</v>
+        <v>8.894863273479075</v>
       </c>
       <c r="N11" t="n">
-        <v>19.7129442975646</v>
+        <v>2.222938173625039</v>
       </c>
       <c r="O11" t="n">
-        <v>38.31419205881667</v>
+        <v>21.79887523416352</v>
       </c>
       <c r="P11" t="n">
-        <v>83.66766412458549</v>
+        <v>69.57222331010286</v>
       </c>
       <c r="Q11" t="n">
         <v>55.20189757157522</v>
@@ -8771,7 +8771,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>48.6785506654351</v>
+        <v>40.20975561493429</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>15.10822991808962</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -8929,22 +8929,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>84.27780726850284</v>
+        <v>82.69308435253603</v>
       </c>
       <c r="L14" t="n">
-        <v>65.50844344750686</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M14" t="n">
-        <v>26.10636923685576</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N14" t="n">
-        <v>19.7129442975646</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>38.31419205881667</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P14" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q14" t="n">
         <v>55.20189757157522</v>
@@ -9008,7 +9008,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>48.6785506654351</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>15.10822991808962</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9166,22 +9166,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L17" t="n">
-        <v>65.50844344750686</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M17" t="n">
-        <v>26.10636923685576</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N17" t="n">
-        <v>19.7129442975646</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>38.31419205881667</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P17" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q17" t="n">
         <v>55.20189757157522</v>
@@ -9245,7 +9245,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>48.6785506654351</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>15.10822991808962</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9403,22 +9403,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L20" t="n">
-        <v>65.50844344750686</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M20" t="n">
-        <v>26.10636923685576</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N20" t="n">
-        <v>19.7129442975646</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>38.31419205881667</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P20" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q20" t="n">
         <v>55.20189757157522</v>
@@ -9482,7 +9482,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>48.6785506654351</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>15.10822991808962</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9640,22 +9640,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L23" t="n">
-        <v>65.50844344750686</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M23" t="n">
-        <v>26.10636923685576</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N23" t="n">
-        <v>19.7129442975646</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>38.31419205881667</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P23" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q23" t="n">
         <v>55.20189757157522</v>
@@ -9719,7 +9719,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>48.6785506654351</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>15.10822991808962</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9877,22 +9877,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L26" t="n">
-        <v>65.50844344750686</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M26" t="n">
-        <v>26.10636923685576</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N26" t="n">
-        <v>19.7129442975646</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>38.31419205881667</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P26" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q26" t="n">
         <v>55.20189757157522</v>
@@ -9956,7 +9956,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>48.6785506654351</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>15.10822991808962</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10114,22 +10114,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L29" t="n">
-        <v>65.50844344750686</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M29" t="n">
-        <v>26.10636923685576</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N29" t="n">
-        <v>19.7129442975646</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>38.31419205881667</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P29" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q29" t="n">
         <v>55.20189757157522</v>
@@ -10193,7 +10193,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>48.6785506654351</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>15.10822991808962</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10351,22 +10351,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L32" t="n">
-        <v>65.50844344750686</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M32" t="n">
-        <v>26.10636923685576</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N32" t="n">
-        <v>19.7129442975646</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>38.31419205881667</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P32" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q32" t="n">
         <v>55.20189757157522</v>
@@ -10430,7 +10430,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>48.6785506654351</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>15.10822991808962</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10588,22 +10588,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L35" t="n">
-        <v>65.50844344750686</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M35" t="n">
-        <v>26.10636923685576</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N35" t="n">
-        <v>19.7129442975646</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>38.31419205881667</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P35" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q35" t="n">
         <v>55.20189757157522</v>
@@ -10667,7 +10667,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>48.6785506654351</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>15.10822991808962</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10825,22 +10825,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L38" t="n">
-        <v>65.50844344750686</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M38" t="n">
-        <v>26.10636923685576</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N38" t="n">
-        <v>19.7129442975646</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>38.31419205881667</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P38" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q38" t="n">
         <v>55.20189757157522</v>
@@ -10904,7 +10904,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>48.6785506654351</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>15.10822991808962</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11062,22 +11062,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L41" t="n">
-        <v>65.50844344750686</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M41" t="n">
-        <v>26.10636923685576</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N41" t="n">
-        <v>19.7129442975646</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>38.31419205881667</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P41" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q41" t="n">
         <v>55.20189757157522</v>
@@ -11141,7 +11141,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>48.6785506654351</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>15.10822991808962</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11299,7 +11299,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>82.69308435253603</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L44" t="n">
         <v>48.07411698098349</v>
@@ -22561,49 +22561,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G2" t="n">
-        <v>422.9500466959368</v>
+        <v>422.3471385867855</v>
       </c>
       <c r="H2" t="n">
-        <v>357.5402376039739</v>
+        <v>351.3657049311285</v>
       </c>
       <c r="I2" t="n">
-        <v>282.9498090659874</v>
+        <v>259.706194187933</v>
       </c>
       <c r="J2" t="n">
-        <v>166.4804728462846</v>
+        <v>115.309400717207</v>
       </c>
       <c r="K2" t="n">
-        <v>156.1709547060198</v>
+        <v>79.47878231656895</v>
       </c>
       <c r="L2" t="n">
-        <v>135.1920689991825</v>
+        <v>40.04864756429342</v>
       </c>
       <c r="M2" t="n">
-        <v>107.598740283027</v>
+        <v>1.733351762019083</v>
       </c>
       <c r="N2" t="n">
-        <v>107.578401186134</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>129.6483220454851</v>
+        <v>28.06508836972404</v>
       </c>
       <c r="P2" t="n">
-        <v>162.452644445732</v>
+        <v>75.75370471464296</v>
       </c>
       <c r="Q2" t="n">
-        <v>200.7884889780648</v>
+        <v>135.6811959059556</v>
       </c>
       <c r="R2" t="n">
-        <v>257.9941946855963</v>
+        <v>220.1217681741228</v>
       </c>
       <c r="S2" t="n">
-        <v>252.8017650064723</v>
+        <v>239.0629964691877</v>
       </c>
       <c r="T2" t="n">
-        <v>222.712032836916</v>
+        <v>220.0728025891063</v>
       </c>
       <c r="U2" t="n">
-        <v>248.850391546474</v>
+        <v>248.8021588977418</v>
       </c>
       <c r="V2" t="n">
         <v>313.3044420010231</v>
@@ -22640,22 +22640,22 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>161.4266721324923</v>
+        <v>161.1040878550346</v>
       </c>
       <c r="H3" t="n">
-        <v>141.7265670638711</v>
+        <v>138.6110820684246</v>
       </c>
       <c r="I3" t="n">
-        <v>131.1257536355219</v>
+        <v>120.0192335563868</v>
       </c>
       <c r="J3" t="n">
-        <v>120.3553762767449</v>
+        <v>89.87823627360493</v>
       </c>
       <c r="K3" t="n">
-        <v>77.5220676342224</v>
+        <v>25.43178104141768</v>
       </c>
       <c r="L3" t="n">
-        <v>31.84606879838252</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -22664,25 +22664,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>24.64768941402779</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>47.73023641391228</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>106.3803926892894</v>
+        <v>65.20279264048071</v>
       </c>
       <c r="R3" t="n">
-        <v>179.9541215291748</v>
+        <v>159.9255994603549</v>
       </c>
       <c r="S3" t="n">
-        <v>215.6697507169758</v>
+        <v>209.6778892475315</v>
       </c>
       <c r="T3" t="n">
-        <v>231.7547581384684</v>
+        <v>230.4545171253824</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6766403780998</v>
+        <v>249.6554177282671</v>
       </c>
       <c r="V3" t="n">
         <v>249.2999251801724</v>
@@ -22719,49 +22719,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>169.5795418713374</v>
+        <v>169.3090980494251</v>
       </c>
       <c r="H4" t="n">
-        <v>170.6464146159834</v>
+        <v>168.2419231811629</v>
       </c>
       <c r="I4" t="n">
-        <v>178.115448587716</v>
+        <v>169.9824652887527</v>
       </c>
       <c r="J4" t="n">
-        <v>156.6831400104238</v>
+        <v>137.5627618012226</v>
       </c>
       <c r="K4" t="n">
-        <v>127.5656920941783</v>
+        <v>96.14503714836491</v>
       </c>
       <c r="L4" t="n">
-        <v>112.3324951017775</v>
+        <v>72.12487452401287</v>
       </c>
       <c r="M4" t="n">
-        <v>111.7527473925439</v>
+        <v>69.35944901768788</v>
       </c>
       <c r="N4" t="n">
-        <v>98.12412777701496</v>
+        <v>56.73884728383211</v>
       </c>
       <c r="O4" t="n">
-        <v>119.5130353242993</v>
+        <v>81.2870303870922</v>
       </c>
       <c r="P4" t="n">
-        <v>131.5947529506683</v>
+        <v>98.88580198047258</v>
       </c>
       <c r="Q4" t="n">
-        <v>180.5411270563561</v>
+        <v>157.895144841498</v>
       </c>
       <c r="R4" t="n">
-        <v>236.5731236381951</v>
+        <v>224.4129859729374</v>
       </c>
       <c r="S4" t="n">
-        <v>249.7072101250491</v>
+        <v>244.9941118831771</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5614148862658</v>
+        <v>218.4058821926404</v>
       </c>
       <c r="U4" t="n">
-        <v>291.2384069217048</v>
+        <v>291.2236554405096</v>
       </c>
       <c r="V4" t="n">
         <v>237.3615500762718</v>
@@ -22798,49 +22798,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G5" t="n">
-        <v>422.6759211308218</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H5" t="n">
-        <v>354.7328491602397</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I5" t="n">
-        <v>272.3815832168904</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J5" t="n">
-        <v>143.2144081641032</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K5" t="n">
-        <v>121.3011548525195</v>
+        <v>78.22308851520961</v>
       </c>
       <c r="L5" t="n">
-        <v>91.93299888229322</v>
+        <v>38.49084836766585</v>
       </c>
       <c r="M5" t="n">
-        <v>59.46468964752347</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>58.66549128874738</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>83.46124823621099</v>
+        <v>26.40184904719004</v>
       </c>
       <c r="P5" t="n">
-        <v>123.0330455252351</v>
+        <v>74.33416843326191</v>
       </c>
       <c r="Q5" t="n">
-        <v>171.1860118582497</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R5" t="n">
-        <v>240.7746546559397</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S5" t="n">
-        <v>246.5551286914136</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T5" t="n">
-        <v>221.512048175625</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U5" t="n">
-        <v>248.8284615012647</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V5" t="n">
         <v>313.3044420010231</v>
@@ -22877,19 +22877,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>161.2800020247046</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H6" t="n">
-        <v>140.310042601816</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I6" t="n">
-        <v>126.0759275559885</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J6" t="n">
-        <v>106.4982675405373</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K6" t="n">
-        <v>53.83806167623734</v>
+        <v>24.57889804244016</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22904,22 +22904,22 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>19.7226787259216</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>87.65808208817585</v>
+        <v>64.52858488856606</v>
       </c>
       <c r="R6" t="n">
-        <v>170.8477090474073</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S6" t="n">
-        <v>212.9454177938134</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T6" t="n">
-        <v>231.1635746776924</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6669910289033</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V6" t="n">
         <v>249.2999251801724</v>
@@ -22956,49 +22956,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>169.4565785799364</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H7" t="n">
-        <v>169.5531591706183</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I7" t="n">
-        <v>174.4176070608574</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J7" t="n">
-        <v>147.9896353083744</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K7" t="n">
-        <v>113.2795933295915</v>
+        <v>95.63058149505841</v>
       </c>
       <c r="L7" t="n">
-        <v>94.05120721476251</v>
+        <v>71.46654840866277</v>
       </c>
       <c r="M7" t="n">
-        <v>92.47769254138827</v>
+        <v>68.66533643318368</v>
       </c>
       <c r="N7" t="n">
-        <v>79.30739064835389</v>
+        <v>56.06123914516951</v>
       </c>
       <c r="O7" t="n">
-        <v>102.1327330088224</v>
+        <v>80.66114959698193</v>
       </c>
       <c r="P7" t="n">
-        <v>116.7229017797714</v>
+        <v>98.35025284028561</v>
       </c>
       <c r="Q7" t="n">
-        <v>170.2446281736794</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R7" t="n">
-        <v>231.0442469175655</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S7" t="n">
-        <v>247.5642953103611</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T7" t="n">
-        <v>219.0360262775525</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U7" t="n">
-        <v>291.2316998330829</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V7" t="n">
         <v>237.3615500762718</v>
@@ -23035,49 +23035,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G8" t="n">
-        <v>422.3471385867855</v>
+        <v>422.2098565259836</v>
       </c>
       <c r="H8" t="n">
-        <v>351.3657049311285</v>
+        <v>349.9597650259403</v>
       </c>
       <c r="I8" t="n">
-        <v>259.706194187933</v>
+        <v>254.413627538865</v>
       </c>
       <c r="J8" t="n">
-        <v>115.309400717207</v>
+        <v>103.6577574092157</v>
       </c>
       <c r="K8" t="n">
-        <v>79.47878231656895</v>
+        <v>62.01598937483024</v>
       </c>
       <c r="L8" t="n">
-        <v>40.04864756429342</v>
+        <v>18.3845087542864</v>
       </c>
       <c r="M8" t="n">
-        <v>1.733351762019083</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>28.06508836972404</v>
+        <v>4.934605547775959</v>
       </c>
       <c r="P8" t="n">
-        <v>75.75370471464296</v>
+        <v>56.01237276874355</v>
       </c>
       <c r="Q8" t="n">
-        <v>135.6811959059556</v>
+        <v>120.8562777625268</v>
       </c>
       <c r="R8" t="n">
-        <v>220.1217681741228</v>
+        <v>211.4982239222711</v>
       </c>
       <c r="S8" t="n">
-        <v>239.0629964691877</v>
+        <v>235.9346815086628</v>
       </c>
       <c r="T8" t="n">
-        <v>220.0728025891063</v>
+        <v>219.4718503679457</v>
       </c>
       <c r="U8" t="n">
-        <v>248.8021588977418</v>
+        <v>248.7911763328777</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -23114,19 +23114,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>161.1040878550346</v>
+        <v>161.0306354769367</v>
       </c>
       <c r="H9" t="n">
-        <v>138.6110820684246</v>
+        <v>137.9016867325838</v>
       </c>
       <c r="I9" t="n">
-        <v>120.0192335563868</v>
+        <v>117.4902810648562</v>
       </c>
       <c r="J9" t="n">
-        <v>89.87823627360493</v>
+        <v>82.93859734111298</v>
       </c>
       <c r="K9" t="n">
-        <v>25.43178104141768</v>
+        <v>13.57083277636242</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23144,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>65.20279264048071</v>
+        <v>55.8266610081867</v>
       </c>
       <c r="R9" t="n">
-        <v>159.9255994603549</v>
+        <v>155.3651088272201</v>
       </c>
       <c r="S9" t="n">
-        <v>209.6778892475315</v>
+        <v>208.3135435403172</v>
       </c>
       <c r="T9" t="n">
-        <v>230.4545171253824</v>
+        <v>230.1584524961191</v>
       </c>
       <c r="U9" t="n">
-        <v>249.6554177282671</v>
+        <v>249.6505853349712</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -23193,49 +23193,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.3090980494251</v>
+        <v>169.247518043053</v>
       </c>
       <c r="H10" t="n">
-        <v>168.2419231811629</v>
+        <v>167.6944209426916</v>
       </c>
       <c r="I10" t="n">
-        <v>169.9824652887527</v>
+        <v>168.1305865516738</v>
       </c>
       <c r="J10" t="n">
-        <v>137.5627618012226</v>
+        <v>133.20905535072</v>
       </c>
       <c r="K10" t="n">
-        <v>96.14503714836491</v>
+        <v>88.99056004441432</v>
       </c>
       <c r="L10" t="n">
-        <v>72.12487452401287</v>
+        <v>62.96960703121101</v>
       </c>
       <c r="M10" t="n">
-        <v>69.35944901768788</v>
+        <v>59.70650310975205</v>
       </c>
       <c r="N10" t="n">
-        <v>56.73884728383211</v>
+        <v>47.31542685419204</v>
       </c>
       <c r="O10" t="n">
-        <v>81.2870303870922</v>
+        <v>72.58297639552539</v>
       </c>
       <c r="P10" t="n">
-        <v>98.88580198047258</v>
+        <v>91.43798011889523</v>
       </c>
       <c r="Q10" t="n">
-        <v>157.895144841498</v>
+        <v>152.7386590351999</v>
       </c>
       <c r="R10" t="n">
-        <v>224.4129859729374</v>
+        <v>221.644124959155</v>
       </c>
       <c r="S10" t="n">
-        <v>244.9941118831771</v>
+        <v>243.9209403175845</v>
       </c>
       <c r="T10" t="n">
-        <v>218.4058821926404</v>
+        <v>218.1427676199599</v>
       </c>
       <c r="U10" t="n">
-        <v>291.2236554405096</v>
+        <v>291.2202965310711</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -23272,19 +23272,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>421.8203441068026</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H11" t="n">
-        <v>345.9706709630035</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I11" t="n">
-        <v>239.3969499983917</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J11" t="n">
-        <v>70.59837772175715</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K11" t="n">
-        <v>12.46854898344239</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.79331850570077</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R11" t="n">
-        <v>187.0305144208961</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S11" t="n">
-        <v>227.0586672565771</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7667597529811</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7600153393432</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23351,16 +23351,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>160.8222279594475</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H12" t="n">
-        <v>135.8889088663072</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I12" t="n">
-        <v>110.314846800428</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J12" t="n">
-        <v>63.24865727868655</v>
+        <v>58.29370945070389</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>29.22362421431183</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R12" t="n">
-        <v>142.4255613817112</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S12" t="n">
-        <v>204.4424653097627</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T12" t="n">
-        <v>229.3184239497484</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U12" t="n">
-        <v>249.6368743140837</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23430,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.0727961812524</v>
+        <v>169.028827651796</v>
       </c>
       <c r="H13" t="n">
-        <v>166.1409847532278</v>
+        <v>165.7500645549697</v>
       </c>
       <c r="I13" t="n">
-        <v>162.8762236531602</v>
+        <v>161.5539700582341</v>
       </c>
       <c r="J13" t="n">
-        <v>120.8562197214153</v>
+        <v>117.7476446888457</v>
       </c>
       <c r="K13" t="n">
-        <v>68.69105646430455</v>
+        <v>63.58271276927573</v>
       </c>
       <c r="L13" t="n">
-        <v>36.99323132314251</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M13" t="n">
-        <v>32.3180570822221</v>
+        <v>25.42579023297469</v>
       </c>
       <c r="N13" t="n">
-        <v>20.57821685700986</v>
+        <v>13.84983270846368</v>
       </c>
       <c r="O13" t="n">
-        <v>47.88683542028699</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P13" t="n">
-        <v>70.30616512438972</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.1080856802398</v>
+        <v>134.42632090912</v>
       </c>
       <c r="R13" t="n">
-        <v>213.7879947003738</v>
+        <v>211.8110097304511</v>
       </c>
       <c r="S13" t="n">
-        <v>240.8760147805681</v>
+        <v>240.1097632263137</v>
       </c>
       <c r="T13" t="n">
-        <v>217.3962287559027</v>
+        <v>217.2083632209524</v>
       </c>
       <c r="U13" t="n">
-        <v>291.2107662477002</v>
+        <v>291.2083679642753</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23509,19 +23509,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>421.8203441068026</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H14" t="n">
-        <v>345.9706709630035</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I14" t="n">
-        <v>239.3969499983917</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J14" t="n">
-        <v>70.59837772175715</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K14" t="n">
-        <v>12.46854898344239</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -23539,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.79331850570077</v>
+        <v>66.86288983651983</v>
       </c>
       <c r="R14" t="n">
-        <v>187.0305144208961</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S14" t="n">
-        <v>227.0586672565771</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7667597529811</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7600153393432</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23588,16 +23588,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>160.8222279594475</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H15" t="n">
-        <v>135.8889088663072</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I15" t="n">
-        <v>110.314846800428</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J15" t="n">
-        <v>63.24865727868655</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>29.22362421431183</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R15" t="n">
-        <v>142.4255613817112</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S15" t="n">
-        <v>204.4424653097627</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T15" t="n">
-        <v>229.3184239497484</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U15" t="n">
-        <v>249.6368743140837</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23667,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.0727961812524</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H16" t="n">
-        <v>166.1409847532278</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I16" t="n">
-        <v>162.8762236531602</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J16" t="n">
-        <v>120.8562197214153</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K16" t="n">
-        <v>68.69105646430455</v>
+        <v>62.93345443721985</v>
       </c>
       <c r="L16" t="n">
-        <v>36.99323132314251</v>
+        <v>29.62548300147246</v>
       </c>
       <c r="M16" t="n">
-        <v>32.3180570822221</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N16" t="n">
-        <v>20.57821685700986</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O16" t="n">
-        <v>47.88683542028699</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P16" t="n">
-        <v>70.30616512438972</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.1080856802398</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R16" t="n">
-        <v>213.7879947003738</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S16" t="n">
-        <v>240.8760147805681</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T16" t="n">
-        <v>217.3962287559027</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U16" t="n">
-        <v>291.2107662477002</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23746,19 +23746,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>421.8203441068026</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H17" t="n">
-        <v>345.9706709630035</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I17" t="n">
-        <v>239.3969499983917</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J17" t="n">
-        <v>70.59837772175715</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K17" t="n">
-        <v>12.46854898344239</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -23776,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>78.79331850570077</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R17" t="n">
-        <v>187.0305144208961</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S17" t="n">
-        <v>227.0586672565771</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7667597529811</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7600153393432</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23825,16 +23825,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>160.8222279594475</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H18" t="n">
-        <v>135.8889088663072</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I18" t="n">
-        <v>110.314846800428</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J18" t="n">
-        <v>63.24865727868655</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>29.22362421431183</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R18" t="n">
-        <v>142.4255613817112</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S18" t="n">
-        <v>204.4424653097627</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T18" t="n">
-        <v>229.3184239497484</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U18" t="n">
-        <v>249.6368743140837</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23904,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.0727961812524</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H19" t="n">
-        <v>166.1409847532278</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I19" t="n">
-        <v>162.8762236531602</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J19" t="n">
-        <v>120.8562197214153</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K19" t="n">
-        <v>68.69105646430455</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L19" t="n">
-        <v>36.99323132314251</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M19" t="n">
-        <v>32.3180570822221</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N19" t="n">
-        <v>20.57821685700986</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O19" t="n">
-        <v>47.88683542028699</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P19" t="n">
-        <v>70.30616512438972</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.1080856802398</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R19" t="n">
-        <v>213.7879947003738</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S19" t="n">
-        <v>240.8760147805681</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T19" t="n">
-        <v>217.3962287559027</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U19" t="n">
-        <v>291.2107662477002</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23983,19 +23983,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>421.8203441068026</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H20" t="n">
-        <v>345.9706709630035</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I20" t="n">
-        <v>239.3969499983917</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J20" t="n">
-        <v>70.59837772175715</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K20" t="n">
-        <v>12.46854898344239</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -24013,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>78.79331850570077</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R20" t="n">
-        <v>187.0305144208961</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S20" t="n">
-        <v>227.0586672565771</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7667597529811</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7600153393432</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24062,16 +24062,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>160.8222279594475</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H21" t="n">
-        <v>135.8889088663072</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I21" t="n">
-        <v>110.314846800428</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J21" t="n">
-        <v>63.24865727868655</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24092,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>29.22362421431183</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R21" t="n">
-        <v>142.4255613817112</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S21" t="n">
-        <v>204.4424653097627</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T21" t="n">
-        <v>229.3184239497484</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U21" t="n">
-        <v>249.6368743140837</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24141,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.0727961812524</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H22" t="n">
-        <v>166.1409847532278</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I22" t="n">
-        <v>162.8762236531602</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J22" t="n">
-        <v>120.8562197214153</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K22" t="n">
-        <v>68.69105646430455</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L22" t="n">
-        <v>36.99323132314251</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M22" t="n">
-        <v>32.3180570822221</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N22" t="n">
-        <v>20.57821685700986</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O22" t="n">
-        <v>47.88683542028699</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P22" t="n">
-        <v>70.30616512438972</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.1080856802398</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R22" t="n">
-        <v>213.7879947003738</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S22" t="n">
-        <v>240.8760147805681</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T22" t="n">
-        <v>217.3962287559027</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U22" t="n">
-        <v>291.2107662477002</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24220,19 +24220,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>421.8203441068026</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H23" t="n">
-        <v>345.9706709630035</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I23" t="n">
-        <v>239.3969499983917</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J23" t="n">
-        <v>70.59837772175715</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K23" t="n">
-        <v>12.46854898344239</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -24250,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>78.79331850570077</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R23" t="n">
-        <v>187.0305144208961</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S23" t="n">
-        <v>227.0586672565771</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7667597529811</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7600153393432</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24299,16 +24299,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>160.8222279594475</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H24" t="n">
-        <v>135.8889088663072</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I24" t="n">
-        <v>110.314846800428</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J24" t="n">
-        <v>63.24865727868655</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>29.22362421431183</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R24" t="n">
-        <v>142.4255613817112</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S24" t="n">
-        <v>204.4424653097627</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T24" t="n">
-        <v>229.3184239497484</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6368743140837</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
@@ -24378,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.0727961812524</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H25" t="n">
-        <v>166.1409847532278</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I25" t="n">
-        <v>162.8762236531602</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J25" t="n">
-        <v>120.8562197214153</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K25" t="n">
-        <v>68.69105646430455</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L25" t="n">
-        <v>36.99323132314251</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M25" t="n">
-        <v>32.3180570822221</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N25" t="n">
-        <v>20.57821685700986</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O25" t="n">
-        <v>47.88683542028699</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P25" t="n">
-        <v>70.30616512438972</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.1080856802398</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R25" t="n">
-        <v>213.7879947003738</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S25" t="n">
-        <v>240.8760147805681</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T25" t="n">
-        <v>217.3962287559027</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U25" t="n">
-        <v>291.2107662477002</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24457,19 +24457,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>421.8203441068026</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H26" t="n">
-        <v>345.9706709630035</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I26" t="n">
-        <v>239.3969499983917</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J26" t="n">
-        <v>70.59837772175715</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K26" t="n">
-        <v>12.46854898344239</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -24487,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>78.79331850570077</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R26" t="n">
-        <v>187.0305144208961</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S26" t="n">
-        <v>227.0586672565771</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7667597529811</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7600153393432</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24536,16 +24536,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>160.8222279594475</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H27" t="n">
-        <v>135.8889088663072</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I27" t="n">
-        <v>110.314846800428</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J27" t="n">
-        <v>63.24865727868655</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>29.22362421431183</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R27" t="n">
-        <v>142.4255613817112</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S27" t="n">
-        <v>204.4424653097627</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T27" t="n">
-        <v>229.3184239497484</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6368743140837</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
@@ -24615,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.0727961812524</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H28" t="n">
-        <v>166.1409847532278</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I28" t="n">
-        <v>162.8762236531602</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J28" t="n">
-        <v>120.8562197214153</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K28" t="n">
-        <v>68.69105646430455</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L28" t="n">
-        <v>36.99323132314251</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M28" t="n">
-        <v>32.3180570822221</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N28" t="n">
-        <v>20.57821685700986</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O28" t="n">
-        <v>47.88683542028699</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P28" t="n">
-        <v>70.30616512438972</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.1080856802398</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R28" t="n">
-        <v>213.7879947003738</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S28" t="n">
-        <v>240.8760147805681</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T28" t="n">
-        <v>217.3962287559027</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U28" t="n">
-        <v>291.2107662477002</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24694,19 +24694,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>421.8203441068026</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H29" t="n">
-        <v>345.9706709630035</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I29" t="n">
-        <v>239.3969499983917</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J29" t="n">
-        <v>70.59837772175715</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K29" t="n">
-        <v>12.46854898344239</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -24724,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>78.79331850570077</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R29" t="n">
-        <v>187.0305144208961</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S29" t="n">
-        <v>227.0586672565771</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7667597529811</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7600153393432</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24773,16 +24773,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>160.8222279594475</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H30" t="n">
-        <v>135.8889088663072</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I30" t="n">
-        <v>110.314846800428</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J30" t="n">
-        <v>63.24865727868655</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24803,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>29.22362421431183</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R30" t="n">
-        <v>142.4255613817112</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S30" t="n">
-        <v>204.4424653097627</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T30" t="n">
-        <v>229.3184239497484</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6368743140837</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
@@ -24852,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.0727961812524</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H31" t="n">
-        <v>166.1409847532278</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I31" t="n">
-        <v>162.8762236531602</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J31" t="n">
-        <v>120.8562197214153</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K31" t="n">
-        <v>68.69105646430455</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L31" t="n">
-        <v>36.99323132314251</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M31" t="n">
-        <v>32.3180570822221</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N31" t="n">
-        <v>20.57821685700986</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O31" t="n">
-        <v>47.88683542028699</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P31" t="n">
-        <v>70.30616512438972</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.1080856802398</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R31" t="n">
-        <v>213.7879947003738</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S31" t="n">
-        <v>240.8760147805681</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T31" t="n">
-        <v>217.3962287559027</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U31" t="n">
-        <v>291.2107662477002</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24931,19 +24931,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>421.8203441068026</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H32" t="n">
-        <v>345.9706709630035</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I32" t="n">
-        <v>239.3969499983917</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J32" t="n">
-        <v>70.59837772175715</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K32" t="n">
-        <v>12.46854898344239</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -24961,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>78.79331850570077</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R32" t="n">
-        <v>187.0305144208961</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S32" t="n">
-        <v>227.0586672565771</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7667597529811</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7600153393432</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25010,16 +25010,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>160.8222279594475</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H33" t="n">
-        <v>135.8889088663072</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I33" t="n">
-        <v>110.314846800428</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J33" t="n">
-        <v>63.24865727868655</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>29.22362421431183</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R33" t="n">
-        <v>142.4255613817112</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S33" t="n">
-        <v>204.4424653097627</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T33" t="n">
-        <v>229.3184239497484</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6368743140837</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25089,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.0727961812524</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H34" t="n">
-        <v>166.1409847532278</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I34" t="n">
-        <v>162.8762236531602</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J34" t="n">
-        <v>120.8562197214153</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K34" t="n">
-        <v>68.69105646430455</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L34" t="n">
-        <v>36.99323132314251</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M34" t="n">
-        <v>32.3180570822221</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N34" t="n">
-        <v>20.57821685700986</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O34" t="n">
-        <v>47.88683542028699</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P34" t="n">
-        <v>70.30616512438972</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.1080856802398</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R34" t="n">
-        <v>213.7879947003738</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S34" t="n">
-        <v>240.8760147805681</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T34" t="n">
-        <v>217.3962287559027</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U34" t="n">
-        <v>291.2107662477002</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25168,19 +25168,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>421.8203441068026</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H35" t="n">
-        <v>345.9706709630035</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I35" t="n">
-        <v>239.3969499983917</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J35" t="n">
-        <v>70.59837772175715</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K35" t="n">
-        <v>12.46854898344239</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -25198,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>78.79331850570077</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R35" t="n">
-        <v>187.0305144208961</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S35" t="n">
-        <v>227.0586672565771</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7667597529811</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7600153393432</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25247,16 +25247,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>160.8222279594475</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H36" t="n">
-        <v>135.8889088663072</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I36" t="n">
-        <v>110.314846800428</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J36" t="n">
-        <v>63.24865727868655</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>29.22362421431183</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R36" t="n">
-        <v>142.4255613817112</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S36" t="n">
-        <v>204.4424653097627</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T36" t="n">
-        <v>229.3184239497484</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6368743140837</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25326,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.0727961812524</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H37" t="n">
-        <v>166.1409847532278</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I37" t="n">
-        <v>162.8762236531602</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J37" t="n">
-        <v>120.8562197214153</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K37" t="n">
-        <v>68.69105646430455</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L37" t="n">
-        <v>36.99323132314251</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M37" t="n">
-        <v>32.3180570822221</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N37" t="n">
-        <v>20.57821685700986</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O37" t="n">
-        <v>47.88683542028699</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P37" t="n">
-        <v>70.30616512438972</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.1080856802398</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R37" t="n">
-        <v>213.7879947003738</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S37" t="n">
-        <v>240.8760147805681</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T37" t="n">
-        <v>217.3962287559027</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U37" t="n">
-        <v>291.2107662477002</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25405,19 +25405,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>421.8203441068026</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H38" t="n">
-        <v>345.9706709630035</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I38" t="n">
-        <v>239.3969499983917</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J38" t="n">
-        <v>70.59837772175715</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K38" t="n">
-        <v>12.46854898344239</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -25435,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>78.79331850570077</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R38" t="n">
-        <v>187.0305144208961</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S38" t="n">
-        <v>227.0586672565771</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7667597529811</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7600153393432</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25484,16 +25484,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>160.8222279594475</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H39" t="n">
-        <v>135.8889088663072</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I39" t="n">
-        <v>110.314846800428</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J39" t="n">
-        <v>63.24865727868655</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>29.22362421431183</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R39" t="n">
-        <v>142.4255613817112</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S39" t="n">
-        <v>204.4424653097627</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T39" t="n">
-        <v>229.3184239497484</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6368743140837</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25563,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.0727961812524</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H40" t="n">
-        <v>166.1409847532278</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I40" t="n">
-        <v>162.8762236531602</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J40" t="n">
-        <v>120.8562197214153</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K40" t="n">
-        <v>68.69105646430455</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L40" t="n">
-        <v>36.99323132314251</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M40" t="n">
-        <v>32.3180570822221</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N40" t="n">
-        <v>20.57821685700986</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O40" t="n">
-        <v>47.88683542028699</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P40" t="n">
-        <v>70.30616512438972</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.1080856802398</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R40" t="n">
-        <v>213.7879947003738</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S40" t="n">
-        <v>240.8760147805681</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T40" t="n">
-        <v>217.3962287559027</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U40" t="n">
-        <v>291.2107662477002</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25642,19 +25642,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>421.8203441068026</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H41" t="n">
-        <v>345.9706709630035</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I41" t="n">
-        <v>239.3969499983917</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J41" t="n">
-        <v>70.59837772175715</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K41" t="n">
-        <v>12.46854898344239</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -25672,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>78.79331850570077</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R41" t="n">
-        <v>187.0305144208961</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S41" t="n">
-        <v>227.0586672565771</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7667597529811</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7600153393432</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25721,16 +25721,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.8222279594475</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H42" t="n">
-        <v>135.8889088663072</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I42" t="n">
-        <v>110.314846800428</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J42" t="n">
-        <v>63.24865727868655</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>29.22362421431183</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R42" t="n">
-        <v>142.4255613817112</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S42" t="n">
-        <v>204.4424653097627</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T42" t="n">
-        <v>229.3184239497484</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6368743140837</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
@@ -25800,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.0727961812524</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H43" t="n">
-        <v>166.1409847532278</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I43" t="n">
-        <v>162.8762236531602</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J43" t="n">
-        <v>120.8562197214153</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K43" t="n">
-        <v>68.69105646430455</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L43" t="n">
-        <v>36.99323132314251</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M43" t="n">
-        <v>32.3180570822221</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N43" t="n">
-        <v>20.57821685700986</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O43" t="n">
-        <v>47.88683542028699</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P43" t="n">
-        <v>70.30616512438972</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.1080856802398</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R43" t="n">
-        <v>213.7879947003738</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S43" t="n">
-        <v>240.8760147805681</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T43" t="n">
-        <v>217.3962287559027</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U43" t="n">
-        <v>291.2107662477002</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>66.86288983651983</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R44" t="n">
         <v>180.0906730958467</v>
@@ -26049,10 +26049,10 @@
         <v>117.3525521967958</v>
       </c>
       <c r="K46" t="n">
-        <v>62.93345443721985</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L46" t="n">
-        <v>29.62548300147246</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M46" t="n">
         <v>24.54979951156312</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>296172.1567046246</v>
+        <v>412453.4349629559</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>351638.4877526332</v>
+        <v>414006.6005358876</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>412453.4349629559</v>
+        <v>431114.7727739949</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>469168.4369439575</v>
+        <v>476062.5924773762</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>469168.4369439575</v>
+        <v>476730.6857382702</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>469168.4369439575</v>
+        <v>476730.6857382702</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>469168.4369439575</v>
+        <v>476730.6857382702</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>469168.4369439575</v>
+        <v>476730.6857382702</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>469168.4369439575</v>
+        <v>476730.6857382702</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>469168.4369439575</v>
+        <v>476730.6857382702</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>469168.4369439575</v>
+        <v>476730.6857382702</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>469168.4369439575</v>
+        <v>476730.6857382702</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>469168.4369439575</v>
+        <v>476730.6857382702</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>469168.4369439575</v>
+        <v>476730.6857382702</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52199.81283116747</v>
+        <v>74252.6153176348</v>
       </c>
       <c r="C2" t="n">
-        <v>62659.35349979768</v>
+        <v>74555.23500166096</v>
       </c>
       <c r="D2" t="n">
-        <v>74252.6153176348</v>
+        <v>77971.38638974144</v>
       </c>
       <c r="E2" t="n">
-        <v>85909.20744811438</v>
+        <v>87429.92529993887</v>
       </c>
       <c r="F2" t="n">
-        <v>85909.20744811438</v>
+        <v>87588.51533683503</v>
       </c>
       <c r="G2" t="n">
-        <v>85909.20744811436</v>
+        <v>87588.51533683503</v>
       </c>
       <c r="H2" t="n">
-        <v>85909.20744811438</v>
+        <v>87588.515336835</v>
       </c>
       <c r="I2" t="n">
-        <v>85909.20744811436</v>
+        <v>87588.51533683501</v>
       </c>
       <c r="J2" t="n">
-        <v>85909.20744811436</v>
+        <v>87588.515336835</v>
       </c>
       <c r="K2" t="n">
-        <v>85909.20744811436</v>
+        <v>87588.515336835</v>
       </c>
       <c r="L2" t="n">
-        <v>85909.20744811436</v>
+        <v>87588.515336835</v>
       </c>
       <c r="M2" t="n">
-        <v>85909.20744811436</v>
+        <v>87588.515336835</v>
       </c>
       <c r="N2" t="n">
-        <v>85909.20744811436</v>
+        <v>87588.515336835</v>
       </c>
       <c r="O2" t="n">
-        <v>85909.20744811436</v>
+        <v>87588.515336835</v>
       </c>
       <c r="P2" t="n">
-        <v>87588.51533683503</v>
+        <v>87588.515336835</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>153449.107713115</v>
+        <v>297965.4180442812</v>
       </c>
       <c r="C3" t="n">
-        <v>62092.79785141179</v>
+        <v>2236.019182749904</v>
       </c>
       <c r="D3" t="n">
-        <v>70041.52594997895</v>
+        <v>27142.64844824309</v>
       </c>
       <c r="E3" t="n">
-        <v>105278.0310684261</v>
+        <v>97431.70455302653</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2449.560496024792</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>18291.03484612793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16191.34242836274</v>
+        <v>14189.40735018782</v>
       </c>
       <c r="C4" t="n">
-        <v>15556.50079917294</v>
+        <v>14119.43098152452</v>
       </c>
       <c r="D4" t="n">
-        <v>14189.40735018782</v>
+        <v>12904.60941083623</v>
       </c>
       <c r="E4" t="n">
-        <v>8382.687904071432</v>
+        <v>7120.265868613293</v>
       </c>
       <c r="F4" t="n">
-        <v>8382.687904071432</v>
+        <v>6937.739840700675</v>
       </c>
       <c r="G4" t="n">
-        <v>8382.687904071432</v>
+        <v>6937.739840700675</v>
       </c>
       <c r="H4" t="n">
-        <v>8382.687904071432</v>
+        <v>6937.739840700675</v>
       </c>
       <c r="I4" t="n">
-        <v>8382.687904071432</v>
+        <v>6937.739840700675</v>
       </c>
       <c r="J4" t="n">
-        <v>8382.687904071432</v>
+        <v>6937.739840700675</v>
       </c>
       <c r="K4" t="n">
-        <v>8382.687904071432</v>
+        <v>6937.739840700675</v>
       </c>
       <c r="L4" t="n">
-        <v>8382.687904071432</v>
+        <v>6937.739840700675</v>
       </c>
       <c r="M4" t="n">
-        <v>8382.687904071432</v>
+        <v>6937.739840700675</v>
       </c>
       <c r="N4" t="n">
-        <v>8382.687904071432</v>
+        <v>6937.739840700675</v>
       </c>
       <c r="O4" t="n">
-        <v>8382.687904071432</v>
+        <v>6937.739840700675</v>
       </c>
       <c r="P4" t="n">
         <v>6937.739840700675</v>
@@ -26469,46 +26469,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37099.10832143807</v>
+        <v>40368.52827033812</v>
       </c>
       <c r="C5" t="n">
-        <v>38585.62272966557</v>
+        <v>40422.05903150925</v>
       </c>
       <c r="D5" t="n">
-        <v>40368.52827033812</v>
+        <v>41112.97456555201</v>
       </c>
       <c r="E5" t="n">
-        <v>9597.603036665469</v>
+        <v>10129.14258640329</v>
       </c>
       <c r="F5" t="n">
-        <v>9597.603036665469</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="G5" t="n">
-        <v>9597.603036665469</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="H5" t="n">
-        <v>9597.603036665469</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="I5" t="n">
-        <v>9597.603036665469</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="J5" t="n">
-        <v>9597.603036665469</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="K5" t="n">
-        <v>9597.603036665469</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="L5" t="n">
-        <v>9597.603036665469</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="M5" t="n">
-        <v>9597.603036665469</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="N5" t="n">
-        <v>9597.603036665469</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="O5" t="n">
-        <v>9597.603036665469</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="P5" t="n">
         <v>10196.69999876384</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-154539.7456317483</v>
+        <v>-295340.6369154537</v>
       </c>
       <c r="C6" t="n">
-        <v>-53575.56788045261</v>
+        <v>735.3381179618955</v>
       </c>
       <c r="D6" t="n">
-        <v>-50346.84625287009</v>
+        <v>-19920.67450570705</v>
       </c>
       <c r="E6" t="n">
-        <v>-37349.11456104858</v>
+        <v>-43123.14900526709</v>
       </c>
       <c r="F6" t="n">
-        <v>67928.91650737748</v>
+        <v>52146.97098026436</v>
       </c>
       <c r="G6" t="n">
-        <v>67928.91650737746</v>
+        <v>54596.53147628914</v>
       </c>
       <c r="H6" t="n">
-        <v>67928.91650737748</v>
+        <v>54596.53147628911</v>
       </c>
       <c r="I6" t="n">
-        <v>67928.91650737746</v>
+        <v>54596.53147628913</v>
       </c>
       <c r="J6" t="n">
-        <v>67928.91650737746</v>
+        <v>54596.53147628911</v>
       </c>
       <c r="K6" t="n">
-        <v>67928.91650737746</v>
+        <v>54596.53147628911</v>
       </c>
       <c r="L6" t="n">
-        <v>67928.91650737746</v>
+        <v>54596.53147628911</v>
       </c>
       <c r="M6" t="n">
-        <v>67928.91650737746</v>
+        <v>54596.53147628911</v>
       </c>
       <c r="N6" t="n">
-        <v>67928.91650737746</v>
+        <v>54596.53147628911</v>
       </c>
       <c r="O6" t="n">
-        <v>67928.91650737746</v>
+        <v>54596.53147628911</v>
       </c>
       <c r="P6" t="n">
-        <v>52163.04065124258</v>
+        <v>54596.53147628911</v>
       </c>
     </row>
   </sheetData>
@@ -26737,46 +26737,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159.2435009833979</v>
+        <v>309.2168931347763</v>
       </c>
       <c r="C3" t="n">
-        <v>227.4322353057602</v>
+        <v>311.6724326380389</v>
       </c>
       <c r="D3" t="n">
-        <v>309.2168931347763</v>
+        <v>343.3658057592666</v>
       </c>
       <c r="E3" t="n">
-        <v>440.2570200305261</v>
+        <v>464.639568183637</v>
       </c>
       <c r="F3" t="n">
-        <v>440.2570200305261</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="G3" t="n">
-        <v>440.2570200305261</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="H3" t="n">
-        <v>440.2570200305261</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="I3" t="n">
-        <v>440.2570200305261</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="J3" t="n">
-        <v>440.2570200305261</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="K3" t="n">
-        <v>440.2570200305261</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="L3" t="n">
-        <v>440.2570200305261</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="M3" t="n">
-        <v>440.2570200305261</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="N3" t="n">
-        <v>440.2570200305261</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="O3" t="n">
-        <v>440.2570200305261</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="P3" t="n">
         <v>467.7385320533874</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159.2435009833979</v>
+        <v>309.2168931347763</v>
       </c>
       <c r="C3" t="n">
-        <v>68.18873432236234</v>
+        <v>2.455539503262571</v>
       </c>
       <c r="D3" t="n">
-        <v>81.78465782901606</v>
+        <v>31.69337312122769</v>
       </c>
       <c r="E3" t="n">
-        <v>131.0401268957498</v>
+        <v>121.2737624243705</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.098963869750321</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>27.4815120228613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6401748783252171</v>
+        <v>1.243082987476487</v>
       </c>
       <c r="H2" t="n">
-        <v>6.556190972648132</v>
+        <v>12.73072364549357</v>
       </c>
       <c r="I2" t="n">
-        <v>24.68034199663296</v>
+        <v>47.9239568746873</v>
       </c>
       <c r="J2" t="n">
-        <v>54.33404257925495</v>
+        <v>105.5051147083326</v>
       </c>
       <c r="K2" t="n">
-        <v>81.4326451787614</v>
+        <v>158.1248175682123</v>
       </c>
       <c r="L2" t="n">
-        <v>101.0243971113068</v>
+        <v>196.1678185461958</v>
       </c>
       <c r="M2" t="n">
-        <v>112.4091071037229</v>
+        <v>218.2744956247308</v>
       </c>
       <c r="N2" t="n">
-        <v>114.2280039767644</v>
+        <v>221.8064051628984</v>
       </c>
       <c r="O2" t="n">
-        <v>107.862265030418</v>
+        <v>209.4454987061791</v>
       </c>
       <c r="P2" t="n">
-        <v>92.05794772176421</v>
+        <v>178.7568874528532</v>
       </c>
       <c r="Q2" t="n">
-        <v>69.13168489174234</v>
+        <v>134.2389779638515</v>
       </c>
       <c r="R2" t="n">
-        <v>40.21338520059646</v>
+        <v>78.08581171206993</v>
       </c>
       <c r="S2" t="n">
-        <v>14.5879850398359</v>
+        <v>28.32675357712047</v>
       </c>
       <c r="T2" t="n">
-        <v>2.80236552986864</v>
+        <v>5.441595777678323</v>
       </c>
       <c r="U2" t="n">
-        <v>0.05121399026601736</v>
+        <v>0.09944663899811891</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3425237568322144</v>
+        <v>0.6651080342898962</v>
       </c>
       <c r="H3" t="n">
-        <v>3.308058388353229</v>
+        <v>6.423543383799788</v>
       </c>
       <c r="I3" t="n">
-        <v>11.79303285584598</v>
+        <v>22.89955293498108</v>
       </c>
       <c r="J3" t="n">
-        <v>32.36098353474882</v>
+        <v>62.83812353788884</v>
       </c>
       <c r="K3" t="n">
-        <v>55.31007524250717</v>
+        <v>107.4003618353119</v>
       </c>
       <c r="L3" t="n">
-        <v>74.3712218507841</v>
+        <v>144.4130405154444</v>
       </c>
       <c r="M3" t="n">
-        <v>86.78770803595184</v>
+        <v>168.5232067584531</v>
       </c>
       <c r="N3" t="n">
-        <v>89.08472042277842</v>
+        <v>172.9835145848972</v>
       </c>
       <c r="O3" t="n">
-        <v>81.49511507402251</v>
+        <v>158.2461207724737</v>
       </c>
       <c r="P3" t="n">
-        <v>65.40701458316205</v>
+        <v>127.0064631443575</v>
       </c>
       <c r="Q3" t="n">
-        <v>43.72285710019635</v>
+        <v>84.90045714900501</v>
       </c>
       <c r="R3" t="n">
-        <v>21.26651886717907</v>
+        <v>41.29504093599901</v>
       </c>
       <c r="S3" t="n">
-        <v>6.362228553440469</v>
+        <v>12.35409002288469</v>
       </c>
       <c r="T3" t="n">
-        <v>1.380611107582477</v>
+        <v>2.680852120668484</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0225344576863299</v>
+        <v>0.04375710751907214</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.287160411609406</v>
+        <v>0.5576042335217276</v>
       </c>
       <c r="H4" t="n">
-        <v>2.553117114127266</v>
+        <v>4.957608548947728</v>
       </c>
       <c r="I4" t="n">
-        <v>8.635696741853776</v>
+        <v>16.76868004081705</v>
       </c>
       <c r="J4" t="n">
-        <v>20.302241100785</v>
+        <v>39.42261930998615</v>
       </c>
       <c r="K4" t="n">
-        <v>33.36281873062007</v>
+        <v>64.78347367643343</v>
       </c>
       <c r="L4" t="n">
-        <v>42.69292155872933</v>
+        <v>82.90054213649397</v>
       </c>
       <c r="M4" t="n">
-        <v>45.01369979437261</v>
+        <v>87.40699816922863</v>
       </c>
       <c r="N4" t="n">
-        <v>43.9433746238285</v>
+        <v>85.32865511701135</v>
       </c>
       <c r="O4" t="n">
-        <v>40.58881890639133</v>
+        <v>78.8148238435984</v>
       </c>
       <c r="P4" t="n">
-        <v>34.73074650955942</v>
+        <v>67.43969747975511</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.04576864849308</v>
+        <v>46.69175086335122</v>
       </c>
       <c r="R4" t="n">
-        <v>12.91177632563747</v>
+        <v>25.07191399089513</v>
       </c>
       <c r="S4" t="n">
-        <v>5.00442280959301</v>
+        <v>9.717521051465015</v>
       </c>
       <c r="T4" t="n">
-        <v>1.226958122331098</v>
+        <v>2.382490815956472</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01566329517869489</v>
+        <v>0.03041477637391245</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9143004434402414</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H5" t="n">
-        <v>9.363579416382375</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I5" t="n">
-        <v>35.24856784572994</v>
+        <v>48.30452847950953</v>
       </c>
       <c r="J5" t="n">
-        <v>77.60010726143626</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K5" t="n">
-        <v>116.3024450322617</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L5" t="n">
-        <v>144.283467228196</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M5" t="n">
-        <v>160.5431577392264</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N5" t="n">
-        <v>163.140913874151</v>
+        <v>223.5678043685904</v>
       </c>
       <c r="O5" t="n">
-        <v>154.0493388396921</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P5" t="n">
-        <v>131.4775466422611</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q5" t="n">
-        <v>98.73416201155744</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R5" t="n">
-        <v>57.43292523025312</v>
+        <v>78.70590330331341</v>
       </c>
       <c r="S5" t="n">
-        <v>20.83462135489452</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T5" t="n">
-        <v>4.002350191159659</v>
+        <v>5.484808337177949</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0731440354752193</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4891938646199371</v>
+        <v>0.6703897607686119</v>
       </c>
       <c r="H6" t="n">
-        <v>4.724582850408341</v>
+        <v>6.474553742160016</v>
       </c>
       <c r="I6" t="n">
-        <v>16.84285893537941</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J6" t="n">
-        <v>46.21809227095643</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K6" t="n">
-        <v>78.99408120049222</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L6" t="n">
-        <v>106.2172906491666</v>
+        <v>145.559846959869</v>
       </c>
       <c r="M6" t="n">
-        <v>123.9505682416393</v>
+        <v>169.8614757877312</v>
       </c>
       <c r="N6" t="n">
-        <v>127.2311709565686</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O6" t="n">
-        <v>116.3916647984111</v>
+        <v>159.5027778614688</v>
       </c>
       <c r="P6" t="n">
-        <v>93.41457227115274</v>
+        <v>128.015041247122</v>
       </c>
       <c r="Q6" t="n">
-        <v>62.44516770130987</v>
+        <v>85.57466490091966</v>
       </c>
       <c r="R6" t="n">
-        <v>30.37293134894663</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S6" t="n">
-        <v>9.086561476602773</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T6" t="n">
-        <v>1.97179456835843</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03218380688289061</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4101237030103873</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H7" t="n">
-        <v>3.646372559492355</v>
+        <v>4.996977690491839</v>
       </c>
       <c r="I7" t="n">
-        <v>12.33353826871238</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J7" t="n">
-        <v>28.99574580283438</v>
+        <v>39.73568046927915</v>
       </c>
       <c r="K7" t="n">
-        <v>47.6489174952068</v>
+        <v>65.29792932973993</v>
       </c>
       <c r="L7" t="n">
-        <v>60.97420944574431</v>
+        <v>83.55886825184406</v>
       </c>
       <c r="M7" t="n">
-        <v>64.28875464552824</v>
+        <v>88.10111075373283</v>
       </c>
       <c r="N7" t="n">
-        <v>62.76011175248958</v>
+        <v>86.00626325567396</v>
       </c>
       <c r="O7" t="n">
-        <v>57.96912122186821</v>
+        <v>79.44070463370868</v>
       </c>
       <c r="P7" t="n">
-        <v>49.60259768045627</v>
+        <v>67.97524661994208</v>
       </c>
       <c r="Q7" t="n">
-        <v>34.3422675311698</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R7" t="n">
-        <v>18.44065304626704</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S7" t="n">
-        <v>7.147337624281019</v>
+        <v>9.794689399460987</v>
       </c>
       <c r="T7" t="n">
-        <v>1.752346731044381</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0223703838005666</v>
+        <v>0.0306563048496432</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.243082987476487</v>
+        <v>1.380365048278458</v>
       </c>
       <c r="H8" t="n">
-        <v>12.73072364549357</v>
+        <v>14.13666355068176</v>
       </c>
       <c r="I8" t="n">
-        <v>47.9239568746873</v>
+        <v>53.21652352375528</v>
       </c>
       <c r="J8" t="n">
-        <v>105.5051147083326</v>
+        <v>117.1567580163238</v>
       </c>
       <c r="K8" t="n">
-        <v>158.1248175682123</v>
+        <v>175.587610509951</v>
       </c>
       <c r="L8" t="n">
-        <v>196.1678185461958</v>
+        <v>217.8319573562028</v>
       </c>
       <c r="M8" t="n">
-        <v>218.2744956247308</v>
+        <v>242.3800242835249</v>
       </c>
       <c r="N8" t="n">
-        <v>221.8064051628984</v>
+        <v>246.3019864769461</v>
       </c>
       <c r="O8" t="n">
-        <v>209.4454987061791</v>
+        <v>232.5759815281271</v>
       </c>
       <c r="P8" t="n">
-        <v>178.7568874528532</v>
+        <v>198.4982193987527</v>
       </c>
       <c r="Q8" t="n">
-        <v>134.2389779638515</v>
+        <v>149.0638961072804</v>
       </c>
       <c r="R8" t="n">
-        <v>78.08581171206993</v>
+        <v>86.70935596392172</v>
       </c>
       <c r="S8" t="n">
-        <v>28.32675357712047</v>
+        <v>31.45506853764538</v>
       </c>
       <c r="T8" t="n">
-        <v>5.441595777678323</v>
+        <v>6.042547998838951</v>
       </c>
       <c r="U8" t="n">
-        <v>0.09944663899811891</v>
+        <v>0.1104292038622766</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6651080342898962</v>
+        <v>0.7385604123878564</v>
       </c>
       <c r="H9" t="n">
-        <v>6.423543383799788</v>
+        <v>7.132938719640614</v>
       </c>
       <c r="I9" t="n">
-        <v>22.89955293498108</v>
+        <v>25.42850542651172</v>
       </c>
       <c r="J9" t="n">
-        <v>62.83812353788884</v>
+        <v>69.77776247038078</v>
       </c>
       <c r="K9" t="n">
-        <v>107.4003618353119</v>
+        <v>119.2613101003671</v>
       </c>
       <c r="L9" t="n">
-        <v>144.4130405154444</v>
+        <v>160.3615491897405</v>
       </c>
       <c r="M9" t="n">
-        <v>168.5232067584531</v>
+        <v>187.1343641388002</v>
       </c>
       <c r="N9" t="n">
-        <v>172.9835145848972</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O9" t="n">
-        <v>158.2461207724737</v>
+        <v>175.7223100473861</v>
       </c>
       <c r="P9" t="n">
-        <v>127.0064631443575</v>
+        <v>141.0326457655372</v>
       </c>
       <c r="Q9" t="n">
-        <v>84.90045714900501</v>
+        <v>94.27658878129901</v>
       </c>
       <c r="R9" t="n">
-        <v>41.29504093599901</v>
+        <v>45.85553156913377</v>
       </c>
       <c r="S9" t="n">
-        <v>12.35409002288469</v>
+        <v>13.71843573009899</v>
       </c>
       <c r="T9" t="n">
-        <v>2.680852120668484</v>
+        <v>2.976916749931753</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04375710751907214</v>
+        <v>0.04858950081499057</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5576042335217276</v>
+        <v>0.6191842398937593</v>
       </c>
       <c r="H10" t="n">
-        <v>4.957608548947728</v>
+        <v>5.505110787419063</v>
       </c>
       <c r="I10" t="n">
-        <v>16.76868004081705</v>
+        <v>18.62055877789597</v>
       </c>
       <c r="J10" t="n">
-        <v>39.42261930998615</v>
+        <v>43.77632576048878</v>
       </c>
       <c r="K10" t="n">
-        <v>64.78347367643343</v>
+        <v>71.93795078038401</v>
       </c>
       <c r="L10" t="n">
-        <v>82.90054213649397</v>
+        <v>92.05580962929582</v>
       </c>
       <c r="M10" t="n">
-        <v>87.40699816922863</v>
+        <v>97.05994407716446</v>
       </c>
       <c r="N10" t="n">
-        <v>85.32865511701135</v>
+        <v>94.75207554665143</v>
       </c>
       <c r="O10" t="n">
-        <v>78.8148238435984</v>
+        <v>87.51887783516521</v>
       </c>
       <c r="P10" t="n">
-        <v>67.43969747975511</v>
+        <v>74.88751934133246</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.69175086335122</v>
+        <v>51.84823666964925</v>
       </c>
       <c r="R10" t="n">
-        <v>25.07191399089513</v>
+        <v>27.84077500467757</v>
       </c>
       <c r="S10" t="n">
-        <v>9.717521051465015</v>
+        <v>10.7906926170576</v>
       </c>
       <c r="T10" t="n">
-        <v>2.382490815956472</v>
+        <v>2.645605388636971</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03041477637391245</v>
+        <v>0.03377368581238691</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.7698774674594</v>
+        <v>1.867897761542258</v>
       </c>
       <c r="H11" t="n">
-        <v>18.12575761361859</v>
+        <v>19.12960795039465</v>
       </c>
       <c r="I11" t="n">
-        <v>68.23320106422858</v>
+        <v>72.01212845185798</v>
       </c>
       <c r="J11" t="n">
-        <v>150.2161377037824</v>
+        <v>158.5354876386974</v>
       </c>
       <c r="K11" t="n">
-        <v>225.1350509013388</v>
+        <v>237.6035998847812</v>
       </c>
       <c r="L11" t="n">
-        <v>279.2999384460995</v>
+        <v>294.7682760045801</v>
       </c>
       <c r="M11" t="n">
-        <v>310.7749968580306</v>
+        <v>327.9865028214073</v>
       </c>
       <c r="N11" t="n">
-        <v>315.8036612124496</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O11" t="n">
-        <v>298.2044421454002</v>
+        <v>314.7197589700534</v>
       </c>
       <c r="P11" t="n">
-        <v>254.5105921674962</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q11" t="n">
-        <v>191.1268553641064</v>
+        <v>201.7119443967466</v>
       </c>
       <c r="R11" t="n">
-        <v>111.1770654652966</v>
+        <v>117.334332763479</v>
       </c>
       <c r="S11" t="n">
-        <v>40.33108278973111</v>
+        <v>42.56472024114425</v>
       </c>
       <c r="T11" t="n">
-        <v>7.747638613803527</v>
+        <v>8.176722451151239</v>
       </c>
       <c r="U11" t="n">
-        <v>0.141590197396752</v>
+        <v>0.1494318209233806</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9469679298769806</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H12" t="n">
-        <v>9.145716585917157</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I12" t="n">
-        <v>32.60393969093991</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J12" t="n">
-        <v>89.46770253280721</v>
+        <v>94.42265036078987</v>
       </c>
       <c r="K12" t="n">
-        <v>152.9145538345649</v>
+        <v>161.3833488850657</v>
       </c>
       <c r="L12" t="n">
         <v>202.635780428066</v>
@@ -31858,22 +31858,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P12" t="n">
-        <v>180.8293409253684</v>
+        <v>190.8441275431999</v>
       </c>
       <c r="Q12" t="n">
-        <v>120.8796255751739</v>
+        <v>127.5742452114771</v>
       </c>
       <c r="R12" t="n">
-        <v>58.79507901464273</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S12" t="n">
-        <v>17.58951396065356</v>
+        <v>18.56366576658209</v>
       </c>
       <c r="T12" t="n">
-        <v>3.81694529630239</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06230052170243296</v>
+        <v>0.06575088229013734</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7939061016943911</v>
+        <v>0.8378746311508208</v>
       </c>
       <c r="H13" t="n">
-        <v>7.058546976882865</v>
+        <v>7.449467175140939</v>
       </c>
       <c r="I13" t="n">
-        <v>23.87492167640952</v>
+        <v>25.1971752713356</v>
       </c>
       <c r="J13" t="n">
-        <v>56.12916138979345</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K13" t="n">
-        <v>92.23745436049379</v>
+        <v>97.34579805552261</v>
       </c>
       <c r="L13" t="n">
-        <v>118.0321853373643</v>
+        <v>124.569106525823</v>
       </c>
       <c r="M13" t="n">
-        <v>124.4483901046944</v>
+        <v>131.3406569539418</v>
       </c>
       <c r="N13" t="n">
-        <v>121.4892855438336</v>
+        <v>128.2176696923798</v>
       </c>
       <c r="O13" t="n">
-        <v>112.2150188104036</v>
+        <v>118.4297705921179</v>
       </c>
       <c r="P13" t="n">
-        <v>96.01933433583797</v>
+        <v>101.3371281166411</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.47881002460943</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R13" t="n">
-        <v>35.69690526345871</v>
+        <v>37.67389023338144</v>
       </c>
       <c r="S13" t="n">
-        <v>13.83561815407407</v>
+        <v>14.60186970832839</v>
       </c>
       <c r="T13" t="n">
-        <v>3.392144252694216</v>
+        <v>3.580009787644415</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04330396918333048</v>
+        <v>0.04570225260822664</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.7698774674594</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H14" t="n">
-        <v>18.12575761361859</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I14" t="n">
-        <v>68.23320106422858</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J14" t="n">
-        <v>150.2161377037824</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K14" t="n">
-        <v>225.1350509013388</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L14" t="n">
-        <v>279.2999384460995</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M14" t="n">
-        <v>310.7749968580306</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N14" t="n">
-        <v>315.8036612124496</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O14" t="n">
-        <v>298.2044421454002</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P14" t="n">
-        <v>254.5105921674962</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q14" t="n">
-        <v>191.1268553641064</v>
+        <v>203.0572840332873</v>
       </c>
       <c r="R14" t="n">
-        <v>111.1770654652966</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S14" t="n">
-        <v>40.33108278973111</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T14" t="n">
-        <v>7.747638613803527</v>
+        <v>8.23125798618574</v>
       </c>
       <c r="U14" t="n">
-        <v>0.141590197396752</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9469679298769806</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H15" t="n">
-        <v>9.145716585917157</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I15" t="n">
-        <v>32.60393969093991</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J15" t="n">
-        <v>89.46770253280721</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K15" t="n">
-        <v>152.9145538345649</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L15" t="n">
         <v>202.635780428066</v>
@@ -32095,22 +32095,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P15" t="n">
-        <v>180.8293409253684</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q15" t="n">
-        <v>120.8796255751739</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R15" t="n">
-        <v>58.79507901464273</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S15" t="n">
-        <v>17.58951396065356</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T15" t="n">
-        <v>3.81694529630239</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06230052170243296</v>
+        <v>0.06618941491321521</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7939061016943911</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H16" t="n">
-        <v>7.058546976882865</v>
+        <v>7.499152202429724</v>
       </c>
       <c r="I16" t="n">
-        <v>23.87492167640952</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J16" t="n">
-        <v>56.12916138979345</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K16" t="n">
-        <v>92.23745436049379</v>
+        <v>97.99505638757849</v>
       </c>
       <c r="L16" t="n">
-        <v>118.0321853373643</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M16" t="n">
-        <v>124.4483901046944</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N16" t="n">
-        <v>121.4892855438336</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O16" t="n">
-        <v>112.2150188104036</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P16" t="n">
-        <v>96.01933433583797</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q16" t="n">
-        <v>66.47881002460943</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R16" t="n">
-        <v>35.69690526345871</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S16" t="n">
-        <v>13.83561815407407</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T16" t="n">
-        <v>3.392144252694216</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04330396918333048</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.7698774674594</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H17" t="n">
-        <v>18.12575761361859</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I17" t="n">
-        <v>68.23320106422858</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J17" t="n">
-        <v>150.2161377037824</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K17" t="n">
-        <v>225.1350509013388</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L17" t="n">
-        <v>279.2999384460995</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M17" t="n">
-        <v>310.7749968580306</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N17" t="n">
-        <v>315.8036612124496</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O17" t="n">
-        <v>298.2044421454002</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P17" t="n">
-        <v>254.5105921674962</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q17" t="n">
-        <v>191.1268553641064</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R17" t="n">
-        <v>111.1770654652966</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S17" t="n">
-        <v>40.33108278973111</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T17" t="n">
-        <v>7.747638613803527</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U17" t="n">
-        <v>0.141590197396752</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9469679298769806</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H18" t="n">
-        <v>9.145716585917157</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I18" t="n">
-        <v>32.60393969093991</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J18" t="n">
-        <v>89.46770253280721</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K18" t="n">
-        <v>152.9145538345649</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L18" t="n">
         <v>202.635780428066</v>
@@ -32332,22 +32332,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P18" t="n">
-        <v>180.8293409253684</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q18" t="n">
-        <v>120.8796255751739</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R18" t="n">
-        <v>58.79507901464273</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S18" t="n">
-        <v>17.58951396065356</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T18" t="n">
-        <v>3.81694529630239</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06230052170243296</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7939061016943911</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H19" t="n">
-        <v>7.058546976882865</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I19" t="n">
-        <v>23.87492167640952</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J19" t="n">
-        <v>56.12916138979345</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K19" t="n">
-        <v>92.23745436049379</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L19" t="n">
-        <v>118.0321853373643</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M19" t="n">
-        <v>124.4483901046944</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N19" t="n">
-        <v>121.4892855438336</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O19" t="n">
-        <v>112.2150188104036</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P19" t="n">
-        <v>96.01933433583797</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.47881002460943</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R19" t="n">
-        <v>35.69690526345871</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S19" t="n">
-        <v>13.83561815407407</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T19" t="n">
-        <v>3.392144252694216</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04330396918333048</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.7698774674594</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H20" t="n">
-        <v>18.12575761361859</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I20" t="n">
-        <v>68.23320106422858</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J20" t="n">
-        <v>150.2161377037824</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K20" t="n">
-        <v>225.1350509013388</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L20" t="n">
-        <v>279.2999384460995</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M20" t="n">
-        <v>310.7749968580306</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N20" t="n">
-        <v>315.8036612124496</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O20" t="n">
-        <v>298.2044421454002</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P20" t="n">
-        <v>254.5105921674962</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q20" t="n">
-        <v>191.1268553641064</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R20" t="n">
-        <v>111.1770654652966</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S20" t="n">
-        <v>40.33108278973111</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T20" t="n">
-        <v>7.747638613803527</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U20" t="n">
-        <v>0.141590197396752</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9469679298769806</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H21" t="n">
-        <v>9.145716585917157</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I21" t="n">
-        <v>32.60393969093991</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J21" t="n">
-        <v>89.46770253280721</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K21" t="n">
-        <v>152.9145538345649</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L21" t="n">
         <v>202.635780428066</v>
@@ -32569,22 +32569,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P21" t="n">
-        <v>180.8293409253684</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q21" t="n">
-        <v>120.8796255751739</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R21" t="n">
-        <v>58.79507901464273</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S21" t="n">
-        <v>17.58951396065356</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T21" t="n">
-        <v>3.81694529630239</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06230052170243296</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7939061016943911</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H22" t="n">
-        <v>7.058546976882865</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I22" t="n">
-        <v>23.87492167640952</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J22" t="n">
-        <v>56.12916138979345</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K22" t="n">
-        <v>92.23745436049379</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L22" t="n">
-        <v>118.0321853373643</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M22" t="n">
-        <v>124.4483901046944</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N22" t="n">
-        <v>121.4892855438336</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O22" t="n">
-        <v>112.2150188104036</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P22" t="n">
-        <v>96.01933433583797</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.47881002460943</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R22" t="n">
-        <v>35.69690526345871</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S22" t="n">
-        <v>13.83561815407407</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T22" t="n">
-        <v>3.392144252694216</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04330396918333048</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.7698774674594</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H23" t="n">
-        <v>18.12575761361859</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I23" t="n">
-        <v>68.23320106422858</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J23" t="n">
-        <v>150.2161377037824</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K23" t="n">
-        <v>225.1350509013388</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L23" t="n">
-        <v>279.2999384460995</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M23" t="n">
-        <v>310.7749968580306</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N23" t="n">
-        <v>315.8036612124496</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O23" t="n">
-        <v>298.2044421454002</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P23" t="n">
-        <v>254.5105921674962</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q23" t="n">
-        <v>191.1268553641064</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R23" t="n">
-        <v>111.1770654652966</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S23" t="n">
-        <v>40.33108278973111</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T23" t="n">
-        <v>7.747638613803527</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U23" t="n">
-        <v>0.141590197396752</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9469679298769806</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H24" t="n">
-        <v>9.145716585917157</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I24" t="n">
-        <v>32.60393969093991</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J24" t="n">
-        <v>89.46770253280721</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K24" t="n">
-        <v>152.9145538345649</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L24" t="n">
         <v>202.635780428066</v>
@@ -32806,22 +32806,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P24" t="n">
-        <v>180.8293409253684</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q24" t="n">
-        <v>120.8796255751739</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R24" t="n">
-        <v>58.79507901464273</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S24" t="n">
-        <v>17.58951396065356</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T24" t="n">
-        <v>3.81694529630239</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06230052170243296</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7939061016943911</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H25" t="n">
-        <v>7.058546976882865</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I25" t="n">
-        <v>23.87492167640952</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J25" t="n">
-        <v>56.12916138979345</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K25" t="n">
-        <v>92.23745436049379</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L25" t="n">
-        <v>118.0321853373643</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M25" t="n">
-        <v>124.4483901046944</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N25" t="n">
-        <v>121.4892855438336</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O25" t="n">
-        <v>112.2150188104036</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P25" t="n">
-        <v>96.01933433583797</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.47881002460943</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R25" t="n">
-        <v>35.69690526345871</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S25" t="n">
-        <v>13.83561815407407</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T25" t="n">
-        <v>3.392144252694216</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04330396918333048</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.7698774674594</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H26" t="n">
-        <v>18.12575761361859</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I26" t="n">
-        <v>68.23320106422858</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J26" t="n">
-        <v>150.2161377037824</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K26" t="n">
-        <v>225.1350509013388</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L26" t="n">
-        <v>279.2999384460995</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M26" t="n">
-        <v>310.7749968580306</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N26" t="n">
-        <v>315.8036612124496</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O26" t="n">
-        <v>298.2044421454002</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P26" t="n">
-        <v>254.5105921674962</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q26" t="n">
-        <v>191.1268553641064</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R26" t="n">
-        <v>111.1770654652966</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S26" t="n">
-        <v>40.33108278973111</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T26" t="n">
-        <v>7.747638613803527</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U26" t="n">
-        <v>0.141590197396752</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9469679298769806</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H27" t="n">
-        <v>9.145716585917157</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I27" t="n">
-        <v>32.60393969093991</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J27" t="n">
-        <v>89.46770253280721</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K27" t="n">
-        <v>152.9145538345649</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L27" t="n">
         <v>202.635780428066</v>
@@ -33043,22 +33043,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P27" t="n">
-        <v>180.8293409253684</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q27" t="n">
-        <v>120.8796255751739</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R27" t="n">
-        <v>58.79507901464273</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S27" t="n">
-        <v>17.58951396065356</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T27" t="n">
-        <v>3.81694529630239</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06230052170243296</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7939061016943911</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H28" t="n">
-        <v>7.058546976882865</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I28" t="n">
-        <v>23.87492167640952</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J28" t="n">
-        <v>56.12916138979345</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K28" t="n">
-        <v>92.23745436049379</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L28" t="n">
-        <v>118.0321853373643</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M28" t="n">
-        <v>124.4483901046944</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N28" t="n">
-        <v>121.4892855438336</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O28" t="n">
-        <v>112.2150188104036</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P28" t="n">
-        <v>96.01933433583797</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.47881002460943</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R28" t="n">
-        <v>35.69690526345871</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S28" t="n">
-        <v>13.83561815407407</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T28" t="n">
-        <v>3.392144252694216</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04330396918333048</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.7698774674594</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H29" t="n">
-        <v>18.12575761361859</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I29" t="n">
-        <v>68.23320106422858</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J29" t="n">
-        <v>150.2161377037824</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K29" t="n">
-        <v>225.1350509013388</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L29" t="n">
-        <v>279.2999384460995</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M29" t="n">
-        <v>310.7749968580306</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N29" t="n">
-        <v>315.8036612124496</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O29" t="n">
-        <v>298.2044421454002</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P29" t="n">
-        <v>254.5105921674962</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q29" t="n">
-        <v>191.1268553641064</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R29" t="n">
-        <v>111.1770654652966</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S29" t="n">
-        <v>40.33108278973111</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T29" t="n">
-        <v>7.747638613803527</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U29" t="n">
-        <v>0.141590197396752</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9469679298769806</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H30" t="n">
-        <v>9.145716585917157</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I30" t="n">
-        <v>32.60393969093991</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J30" t="n">
-        <v>89.46770253280721</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K30" t="n">
-        <v>152.9145538345649</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L30" t="n">
         <v>202.635780428066</v>
@@ -33280,22 +33280,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P30" t="n">
-        <v>180.8293409253684</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q30" t="n">
-        <v>120.8796255751739</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R30" t="n">
-        <v>58.79507901464273</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S30" t="n">
-        <v>17.58951396065356</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T30" t="n">
-        <v>3.81694529630239</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06230052170243296</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7939061016943911</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H31" t="n">
-        <v>7.058546976882865</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I31" t="n">
-        <v>23.87492167640952</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J31" t="n">
-        <v>56.12916138979345</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K31" t="n">
-        <v>92.23745436049379</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L31" t="n">
-        <v>118.0321853373643</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M31" t="n">
-        <v>124.4483901046944</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N31" t="n">
-        <v>121.4892855438336</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O31" t="n">
-        <v>112.2150188104036</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P31" t="n">
-        <v>96.01933433583797</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q31" t="n">
-        <v>66.47881002460943</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R31" t="n">
-        <v>35.69690526345871</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S31" t="n">
-        <v>13.83561815407407</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T31" t="n">
-        <v>3.392144252694216</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04330396918333048</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.7698774674594</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H32" t="n">
-        <v>18.12575761361859</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I32" t="n">
-        <v>68.23320106422858</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J32" t="n">
-        <v>150.2161377037824</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K32" t="n">
-        <v>225.1350509013388</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L32" t="n">
-        <v>279.2999384460995</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M32" t="n">
-        <v>310.7749968580306</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N32" t="n">
-        <v>315.8036612124496</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O32" t="n">
-        <v>298.2044421454002</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P32" t="n">
-        <v>254.5105921674962</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q32" t="n">
-        <v>191.1268553641064</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R32" t="n">
-        <v>111.1770654652966</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S32" t="n">
-        <v>40.33108278973111</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T32" t="n">
-        <v>7.747638613803527</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U32" t="n">
-        <v>0.141590197396752</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9469679298769806</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H33" t="n">
-        <v>9.145716585917157</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I33" t="n">
-        <v>32.60393969093991</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J33" t="n">
-        <v>89.46770253280721</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K33" t="n">
-        <v>152.9145538345649</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L33" t="n">
         <v>202.635780428066</v>
@@ -33517,22 +33517,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P33" t="n">
-        <v>180.8293409253684</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q33" t="n">
-        <v>120.8796255751739</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R33" t="n">
-        <v>58.79507901464273</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S33" t="n">
-        <v>17.58951396065356</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T33" t="n">
-        <v>3.81694529630239</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06230052170243296</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7939061016943911</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H34" t="n">
-        <v>7.058546976882865</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I34" t="n">
-        <v>23.87492167640952</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J34" t="n">
-        <v>56.12916138979345</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K34" t="n">
-        <v>92.23745436049379</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L34" t="n">
-        <v>118.0321853373643</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M34" t="n">
-        <v>124.4483901046944</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N34" t="n">
-        <v>121.4892855438336</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O34" t="n">
-        <v>112.2150188104036</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P34" t="n">
-        <v>96.01933433583797</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.47881002460943</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R34" t="n">
-        <v>35.69690526345871</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S34" t="n">
-        <v>13.83561815407407</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T34" t="n">
-        <v>3.392144252694216</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04330396918333048</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.7698774674594</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H35" t="n">
-        <v>18.12575761361859</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I35" t="n">
-        <v>68.23320106422858</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J35" t="n">
-        <v>150.2161377037824</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K35" t="n">
-        <v>225.1350509013388</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L35" t="n">
-        <v>279.2999384460995</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M35" t="n">
-        <v>310.7749968580306</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N35" t="n">
-        <v>315.8036612124496</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O35" t="n">
-        <v>298.2044421454002</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P35" t="n">
-        <v>254.5105921674962</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q35" t="n">
-        <v>191.1268553641064</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R35" t="n">
-        <v>111.1770654652966</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S35" t="n">
-        <v>40.33108278973111</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T35" t="n">
-        <v>7.747638613803527</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U35" t="n">
-        <v>0.141590197396752</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9469679298769806</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H36" t="n">
-        <v>9.145716585917157</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I36" t="n">
-        <v>32.60393969093991</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J36" t="n">
-        <v>89.46770253280721</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K36" t="n">
-        <v>152.9145538345649</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L36" t="n">
         <v>202.635780428066</v>
@@ -33754,22 +33754,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P36" t="n">
-        <v>180.8293409253684</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q36" t="n">
-        <v>120.8796255751739</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R36" t="n">
-        <v>58.79507901464273</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S36" t="n">
-        <v>17.58951396065356</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T36" t="n">
-        <v>3.81694529630239</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06230052170243296</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7939061016943911</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H37" t="n">
-        <v>7.058546976882865</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I37" t="n">
-        <v>23.87492167640952</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J37" t="n">
-        <v>56.12916138979345</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K37" t="n">
-        <v>92.23745436049379</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L37" t="n">
-        <v>118.0321853373643</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M37" t="n">
-        <v>124.4483901046944</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N37" t="n">
-        <v>121.4892855438336</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O37" t="n">
-        <v>112.2150188104036</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P37" t="n">
-        <v>96.01933433583797</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.47881002460943</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R37" t="n">
-        <v>35.69690526345871</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S37" t="n">
-        <v>13.83561815407407</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T37" t="n">
-        <v>3.392144252694216</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04330396918333048</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.7698774674594</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H38" t="n">
-        <v>18.12575761361859</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I38" t="n">
-        <v>68.23320106422858</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J38" t="n">
-        <v>150.2161377037824</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K38" t="n">
-        <v>225.1350509013388</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L38" t="n">
-        <v>279.2999384460995</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M38" t="n">
-        <v>310.7749968580306</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N38" t="n">
-        <v>315.8036612124496</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O38" t="n">
-        <v>298.2044421454002</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P38" t="n">
-        <v>254.5105921674962</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q38" t="n">
-        <v>191.1268553641064</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R38" t="n">
-        <v>111.1770654652966</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S38" t="n">
-        <v>40.33108278973111</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T38" t="n">
-        <v>7.747638613803527</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U38" t="n">
-        <v>0.141590197396752</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9469679298769806</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H39" t="n">
-        <v>9.145716585917157</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I39" t="n">
-        <v>32.60393969093991</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J39" t="n">
-        <v>89.46770253280721</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K39" t="n">
-        <v>152.9145538345649</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L39" t="n">
         <v>202.635780428066</v>
@@ -33991,22 +33991,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P39" t="n">
-        <v>180.8293409253684</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q39" t="n">
-        <v>120.8796255751739</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R39" t="n">
-        <v>58.79507901464273</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S39" t="n">
-        <v>17.58951396065356</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T39" t="n">
-        <v>3.81694529630239</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06230052170243296</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7939061016943911</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H40" t="n">
-        <v>7.058546976882865</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I40" t="n">
-        <v>23.87492167640952</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J40" t="n">
-        <v>56.12916138979345</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K40" t="n">
-        <v>92.23745436049379</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L40" t="n">
-        <v>118.0321853373643</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M40" t="n">
-        <v>124.4483901046944</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N40" t="n">
-        <v>121.4892855438336</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O40" t="n">
-        <v>112.2150188104036</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P40" t="n">
-        <v>96.01933433583797</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.47881002460943</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R40" t="n">
-        <v>35.69690526345871</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S40" t="n">
-        <v>13.83561815407407</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T40" t="n">
-        <v>3.392144252694216</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04330396918333048</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.7698774674594</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H41" t="n">
-        <v>18.12575761361859</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I41" t="n">
-        <v>68.23320106422858</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J41" t="n">
-        <v>150.2161377037824</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K41" t="n">
-        <v>225.1350509013388</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L41" t="n">
-        <v>279.2999384460995</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M41" t="n">
-        <v>310.7749968580306</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N41" t="n">
-        <v>315.8036612124496</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O41" t="n">
-        <v>298.2044421454002</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P41" t="n">
-        <v>254.5105921674962</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q41" t="n">
-        <v>191.1268553641064</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R41" t="n">
-        <v>111.1770654652966</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S41" t="n">
-        <v>40.33108278973111</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T41" t="n">
-        <v>7.747638613803527</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U41" t="n">
-        <v>0.141590197396752</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9469679298769806</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H42" t="n">
-        <v>9.145716585917157</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I42" t="n">
-        <v>32.60393969093991</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J42" t="n">
-        <v>89.46770253280721</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K42" t="n">
-        <v>152.9145538345649</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L42" t="n">
         <v>202.635780428066</v>
@@ -34228,22 +34228,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P42" t="n">
-        <v>180.8293409253684</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q42" t="n">
-        <v>120.8796255751739</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R42" t="n">
-        <v>58.79507901464273</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S42" t="n">
-        <v>17.58951396065356</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T42" t="n">
-        <v>3.81694529630239</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06230052170243296</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7939061016943911</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H43" t="n">
-        <v>7.058546976882865</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I43" t="n">
-        <v>23.87492167640952</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J43" t="n">
-        <v>56.12916138979345</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K43" t="n">
-        <v>92.23745436049379</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L43" t="n">
-        <v>118.0321853373643</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M43" t="n">
-        <v>124.4483901046944</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N43" t="n">
-        <v>121.4892855438336</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O43" t="n">
-        <v>112.2150188104036</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P43" t="n">
-        <v>96.01933433583797</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q43" t="n">
-        <v>66.47881002460943</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R43" t="n">
-        <v>35.69690526345871</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S43" t="n">
-        <v>13.83561815407407</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T43" t="n">
-        <v>3.392144252694216</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04330396918333048</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34389,7 +34389,7 @@
         <v>270.397529979667</v>
       </c>
       <c r="Q44" t="n">
-        <v>203.0572840332873</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R44" t="n">
         <v>118.1169067903461</v>
@@ -34398,7 +34398,7 @@
         <v>42.8486102479058</v>
       </c>
       <c r="T44" t="n">
-        <v>8.23125798618574</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U44" t="n">
         <v>0.1504284726201847</v>
@@ -34480,7 +34480,7 @@
         <v>4.055204820349649</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06618941491321521</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,7 +34520,7 @@
         <v>0.8434629266536492</v>
       </c>
       <c r="H46" t="n">
-        <v>7.499152202429724</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I46" t="n">
         <v>25.36523055791157</v>
@@ -34529,7 +34529,7 @@
         <v>59.632828914413</v>
       </c>
       <c r="K46" t="n">
-        <v>97.99505638757849</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L46" t="n">
         <v>125.3999336590344</v>
